--- a/app/data/uji titik/uji-titik-bsb.xlsx
+++ b/app/data/uji titik/uji-titik-bsb.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,7 +2131,465 @@
 Industri Alat Tulis dan Gambar Termasuk Perlengkapannya
 Industri Alat Uji Dalam Proses Industri
 Industri Alat Ukur Waktu
-... dan 459 kegiatan lainnya</v>
+Industri Alat Ukur dan Alat Uji Elektrik
+Industri Alat Ukur dan Alat Uji Elektronik
+Industri Alat Ukur dan Alat Uji Manual
+Industri Bahan Baku Obat Tradisional Untuk Hewan
+Industri Bahan Baku Obat Tradisional Untuk Manusia
+Industri Ban Luar dan Ban Dalam
+Industri Bangunan Lepas Pantai dan Bangunan Terapung
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kawat
+Industri Barang Dari Kertas dan Papan Kertas Lainnya YTDL
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Logam Aluminium Siap Pasang Untuk Bangunan
+Industri Barang Dari Logam Bukan Aluminium Siap Pasang Untuk Bangunan
+Industri Barang Dari Logam Siap Pasang Untuk Konstruksi Lainnya
+Industri Barang Dari Tali
+Industri Barang Galian Bukan Logam Lainnya YTDL
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang Lainnya dari Logam Mulia
+Industri Barang Logam Lainnya YTDL
+Industri Barang Perhiasan Dari Logam Mulia Bukan Untuk Keperluan Pribadi
+Industri Barang Perhiasan Dari Logam Mulia Untuk Keperluan Pribadi
+Industri Barang Tanah Liat/Keramik dan Porselen Lainnya Bukan Bahan Bangunan
+Industri Barang dari Asbes untuk Keperluan Bahan Bangunan
+Industri Barang dari Asbes untuk Keperluan Industri
+Industri Barang dari Batu untuk Keperluan Rumah Tangga, Pajangan dan Bahan Bangunan
+Industri Barang dari Gips untuk Konstruksi
+Industri Barang dari Kapur
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Barang dari Logam Mulia Untuk Keperluan Teknik dan Atau Laboratorium
+Industri Barang dari Marmer dan Granit untuk Keperluan Bahan Bangunan
+Industri Barang dari Marmer dan Granit untuk Keperluan Rumah Tangga dan Pajangan
+Industri Barang dari Marmer, Granit dan Batu Lainnya
+Industri Barang dari Semen
+Industri Barang dari Semen dan Kapur Untuk Konstruksi
+Industri Barang dari Semen, Kapur, Gips dan Asbes Lainnya
+Industri Baterai Untuk Kendaraan Bermotor Listrik
+Industri Batik
+Industri Batu Baterai
+Industri Bearing, Roda Gigi dan Elemen Penggerak Mesin
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Besi dan Baja Dasar (Iron and Steel Making)
+Industri Bola Lampu Pijar, Lampu Penerangan Terpusat dan Lampu Ultra Violet
+Industri Brankas, Filling Kantor dan Sejenisnya
+Industri Bubur Kertas (Pulp)
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Damar Buatan (Resin Sintesis) dan Bahan Baku Plastik
+Industri Dodol
+Industri Ekstrusi Logam Bukan Besi
+Industri Ember, Kaleng, Drum dan Wadah Sejenis Dari Logam
+Industri Fabrikasi Elemen Bakar Uranium
+Industri Furnitur Lainnya
+Industri Furnitur Untuk Operasi, Perawatan Kedokteran dan Kedokteran Gigi
+Industri Furnitur dari Kayu
+Industri Furnitur dari Logam
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Generator Uap, Bukan Ketel Pemanas
+Industri Gips
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Jarum Mesin Jahit, Rajut, Bordir dan Sejenisnya
+Industri Kabel Listrik dan Elektronik Lainnya
+Industri Kabel Serat Optik
+Industri Kabinet Mesin Jahit
+Industri Kaca Mata
+Industri Kain Ban
+Industri Kain Pita (Narrow Fabric)
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kamera Cinematografi Proyektor dan Perlengkapannya
+Industri Kapal dan Perahu
+Industri Kapuk
+Industri Kapur
+Industri Karoseri Kendaraan Bermotor Roda Empat Atau Lebih dan Industri Trailer dan Semi Trailer
+Industri Karpet dan Permadani
+Industri Kartu Cerdas (Smart Cerdas)
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kemasan dan Kotak dari Kertas dan Karton
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Kendaraan Bermotor Roda Empat Atau Lebih
+Industri Kendaraan Multiguna Pedesaan
+Industri Keperluan Rumah Tangga Dari Logam Bukan Peralatan Dapur dan Peralatan Meja
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kertas Berharga
+Industri Kertas Budaya
+Industri Kertas Khusus
+Industri Kertas Lainnya
+Industri Kertas Tissue
+Industri Kertas dan Papan Kerta Bergelombang
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Komponen dan Perlengkapan Sepeda Motor Roda Dua dan Tiga
+Industri Komponen dan Suku Cadang Mesin dan Turbin
+Industri Komputer dan/atau Perakitan Komputer
+Industri Konsentrat Makanan Hewan
+Industri Konstruksi Berat Siap Pasang Dari Baja Untuk Bangunan
+Industri Korek Api
+Industri Kosmetik Untuk Hewan
+Industri Kosmetik Untuk Manusia, Termasuk Pasta Gigi
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Lampu Dari Logam
+Industri Lampu LED
+Industri Lampu Tabung Gas (Lampu Pembuang Listrik)
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Media Magnetik dan Media Optik
+Industri Media Tanam
+Industri Mesin Fotocopi
+Industri Mesin Jahit Serta Mesin Cuci dan Mesin Pengering Untuk Keperluan Niaga
+Industri Mesin Kantor dan Akuntansi Elektrik
+Industri Mesin Kantor dan Akuntansi Elektronik
+Industri Mesin Kantor dan Akuntansi Manual
+Industri Mesin Keperluan Khusus Lainnya
+Industri Mesin Metalurgi
+Industri Mesin Pabrik Kertas
+Industri Mesin Pembangkit Listrik
+Industri Mesin Penambangan, Penggalian dan Konstruksi
+Industri Mesin Pendingin
+Industri Mesin Pengolahan Makanan, Minuman, dan Tembakau
+Industri Mesin Penyiapan dan Pembuatan Produk Kulit
+Industri Mesin Percetakan
+Industri Mesin Pertanian dan Kehutanan
+Industri Mesin Tekstil
+Industri Mesin Timbangan
+Industri Mesin Uap, Turbin dan Kincir
+Industri Mesin Untuk Keperluan Umum Lainnya YTDL
+Industri Mesin Untuk Pembungkus, Pembotolan dan Pengalengan
+Industri Mesin dan Peralatan Kantor Lainnya
+Industri Mesin dan Perkakas Mesin Untuk Pengelasan Yang Menggunakan Arus Listrik
+Industri Mesin dan Perkakas Mesin Untuk Pengerjaan Bahan Bukan Logam dan Kayu
+Industri Mesin dan Perkakas Mesin Untuk Pengerjaan Logam
+Industri Mesin dan Perkakas Untuk Pengerjaan Kayu
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Atsiri
+Industri Minyak Atsiri Rantai Tengah
+Industri Minyak Dari Jagung dan Beras
+Industri Mortar atau Beton Siap Pakai
+Industri Motor Listrik
+Industri Motor Pembakaran Dalam
+Industri Non Woven (Bukan Tenunan)
+Industri Oven, Perapian dan Tungku Pembakar Sejenis Yang Tidak Menggunakan Arus Listrik
+Industri Oven, Perapian dan Tungku Pembakar Sejenis yang Menggunakan Arus Listrik
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Paku, Mur dan Baut
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pembuatan Kapal dan Perahu Untuk Tujuan Wisata Atau Rekreasi dan Olahraga
+Industri Pembuatan Logam Dasar Bukan Besi
+Industri Pembuatan Logam Dasar Mulia
+Industri Pembuatan Profil
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Penempaan, Pengepresan, Pencetakan dan Pembentukan Logam, Metalurgi Bubuk
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengecoran Besi dan Baja
+Industri Pengecoran Logam Bukan Besi dan Baja
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang (Termasuk Leguminous)
+Industri Penggilingan Aneka Umbi dan Sayuran (Termasuk Rhizoma)
+Industri Penggilingan Baja (Steel Rolling)
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Logam Bukan Besi
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan (Bukan Es Batu dan Es Balok)
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal (Herb Infusion)
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan Uranium dan Bijih Uranium
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Pengubah Tegangan (Transformator), Pengubah Arus (Rectifier) dan Pengontrol Tegangan (Voltage Stabilizer)
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Peralataan Elektromedikal dan Elektroterapi
+Industri Peralatan Audio dan Video Elektronik Lainnya
+Industri Peralatan Dapur dan Peralatan Meja Dari Logam
+Industri Peralatan Elektrotermal Rumah Tangga
+Industri Peralatan Fotografi
+Industri Peralatan Iradiasi/Sinar X, Perlengkapan dan Sejenisnya
+Industri Peralatan Kedokteran dan Kedokteran Gigi Serta Perlengkapan Lainnya
+Industri Peralatan Kedokteran dan Kedokteran Gigi, Perlengkapan Orthopaedic dan Prosthetic
+Industri Peralatan Komunikasi Lainnya
+Industri Peralatan Komunikasi Tanpa Kabel (Wireless)
+Industri Peralatan Listrik Lainnya
+Industri Peralatan Listrik Rumah Tangga
+Industri Peralatan Pemanas dan Masak Bukan Listrik Rumah Tangga
+Industri Peralatan Penerangan Lainnya
+Industri Peralatan Penerangan Untuk Alat Transportasi
+Industri Peralatan Pengontrol dan Pendistribusian Listrik
+Industri Peralatan Telepon dan Faksimili
+Industri Peralatan Tenaga Zat Cair dan Gas
+Industri Peralatan Terekam, Penerima dan Pengganda Audio dan Video, Bukan Industri Televisi
+Industri Peralatan Umum
+Industri Peralatan Untuk Pelindung Keselamatan
+Industri Peralatan, Perlengkapan dan Bagian Kapal
+Industri Percetakan Kain
+Industri Perekat Gigi
+Industri Perekat/Lem
+Industri Perhiasan Imitasi dan Barang Sejenis
+Industri Perhiasan Mutiara
+Industri Perkakas Tangan Yang Digerakkan Tenaga
+Industri Perlengkapan Kabel
+Industri Perlengkapan Komputer
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Perlengkapan Rumah Tangga Dari Porselen
+Industri Perlengkapan Rumah Tangga Dari Tanah Liat/Keramik
+Industri Perlengkapan Sepeda dan Kursi Roda Termasuk Becak
+Industri Permata
+Industri Persiapan Serat Tekstil
+Industri Pertenunan (Bukan Pertenunan Karung Goni dan Karung Lainnya)
+Industri Pipa dan Sambungan Pipa Dari Baja dan Besi
+Industri Pipa dan Sambungan Pipa Dari Logam Bukan Besi dan Baja
+Industri Pita Mesin Tulis/Gambar
+Industri Pompa Lainnya, Kompresor, Kran dan Klep/Katup
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Obat Tradisional Untuk Hewan
+Industri Produk Obat Tradisional Untuk Manusia
+Industri Produk Roti dan Kue
+Industri Produksi Radioisotop
+Industri Pupuk Alam/Non Sintesis Hara Makro Primer
+Industri Pupuk Buatan Campuran Hara Makro Primer
+Industri Pupuk Buatan Majemuk Hara Makro Primer
+Industri Pupuk Buatan Tunggal Hara Makro Primer
+Industri Pupuk Hara Makro Sekunder
+Industri Pupuk Hara Mikro
+Industri Pupuk Lainnya
+Industri Pupuk Pelengkap
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Ransum Makanan Hewan
+Industri Sabun dan Bahan Pembersih Keperluan Rumah Tangga
+Industri Semen
+Industri Semi Konduktor Dan Komponen Elektronik Lainnya
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sepeda Motor Roda Dua dan Tiga
+Industri Sepeda dan Kursi Roda Termasuk Becak
+Industri Serat Sabut Kelapa
+Industri Serat Stapel Buatan
+Industri Serat/Benang/Strip Filamen Buatan
+Industri Sirop
+Industri Suku Cadang dan Aksesori Kendaraan Bermotor Roda Empat atau Lebih
+Industri Tabung Elektron dan Konektor Elektronik
+Industri Tahu Kedelai
+Industri Tali
+Industri Tangki, Tandon Air dan Wadah Dari Logam
+Industri Tekstil Lainnya YTDL
+Industri Televisi dan/atau Perakitan Televisi
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Teropong dan Instrumen Optik Bukan Kacamata
+Industri Tinta
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Instalasi Telekomunikasi
+Jasa Industri Untuk Berbagai Pengerjaan Khusus Logam dan Barang dari Logam
+Jasa Pengujian Laboratorium
+Jasa Pengurusan Transportasi (JPT)
+Kawasan Industri
+Kedai Minuman
+Kegiatan Jasa Penunjang Pencetakkan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Gedung Industri
+Konstruksi Gedung Lainnya
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Khusus Lainnya YTDL
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Pemasangan Kerangka Baja
+Pemasangan Perancah (Steiger)
+Pemasangan Pondasi dan Tiang Pancang
+Pemasangan Rangka dan Atap/Roof Covering
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembongkaran
+Pemulihan Material Barang Bukan Logam
+Pemulihan Material Barang Logam
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penanganan Kargo (Bongkar Muat Barang)
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Kelompok Bermain
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Tinggi Akademik Pemerintah
+Pendidikan Tinggi Akademik Swasta
+Pendidikan Tinggi Keagamaan Pemerintah
+Pendidikan Tinggi Keagamaan Swasta
+Pendidikan Tinggi Vokasi Dan Profesi Pemerintah
+Pendidikan Tinggi Vokasi Dan Profesi Swasta
+Pengadaan Uap/Air Panas dan Udara Dingin
+Pengecatan
+Pengelola Gudang Sistem Resi Gudang
+Pengerjaan Lantai, Dinding, Peralatan Saniter dan Plafon
+Pengerjaan Pemasangan Kaca dan Aluminium
+Pengumpulan Air Limbah Berbahaya
+Pengumpulan Air Limbah Tidak Berbahaya
+Pengumpulan Limbah Berbahaya
+Pengumpulan Limbah dan Sampah Tidak Berbahaya
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Penjualan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyelesaian Konstruksi Bangunan Lainnya
+Penyewaan Alat Konstruksi dengan Operator
+Penyimpanan Minyak dan Gas Bumi
+Perdagangan Eceran Alat Laboratorium, Alat Farmasi dan Alat Kesehatan Untuk Manusia
+Perdagangan Eceran Barang dan Obat Farmasi Untuk Manusia Di Apotik
+Perdagangan Eceran Barang dan Obat Farmasi untuk Hewan di Apotik dan Bukan Apotik
+Pergudangan dan Penyimpanan
+Pergudangan dan Penyimpanan Lainnya
+Produksi Es
+Produksi Kompos Sampah Organik
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Listrik Lainnya
+Reparasi Produk Logam Pabrikasi Lainnya
+Reparasi Produk Logam Siap Pasang Untuk Bangunan, Tangki, Tandon Air dan Generator Uap
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Restoran
+Rumah Minum/Kafe
+Rumah/Warung Makan
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Taman Rekreasi
+Transmisi Tenaga Listrik
+Treatment dan Pembuangan Air Limbah Berbahaya
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya
+Treatment dan Pembuangan Limbah Berbahaya
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya</v>
       </c>
       <c r="M12" t="str">
         <v/>
@@ -2323,7 +2781,99 @@
 Hotel Melati
 Industri Air Minum dan Air Mineral
 Instalasi Mekanikal
-... dan 93 kegiatan lainnya</v>
+Instalasi Pendingin dan Ventilasi Udara
+Jasa Boga Untuk Suatu Event Tertentu (Event Catering)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Interpreter Wisata
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Karaoke
+Kawasan Pariwisata
+Kedai Makanan
+Kedai Minuman
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kolam Pemancingan
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Perbelanjaan
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Khusus Lainnya YTDL
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Kontruksi Gedung Penginapan
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pemasangan Kerangka Baja
+Pemasangan Perancah (Steiger)
+Pemasangan Pondasi dan Tiang Pancang
+Pemasangan Rangka dan Atap/Roof Covering
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembongkaran
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Pengecatan
+Pengerjaan Lantai, Dinding, Peralatan Saniter dan Plafon
+Pengerjaan Pemasangan Kaca dan Aluminium
+Penginapan Remaja (Youth Hostel)
+Pengumpulan Air Limbah Tidak Berbahaya
+Pengumpulan Limbah dan Sampah Tidak Berbahaya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penjualan Tenaga Listrik
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyelesaian Konstruksi Bangunan Lainnya
+Penyewaaan Venue Penyelenggaraan Aktifitas MICE dan Event Khusus
+Penyewaan Alat Konstruksi dengan Operator
+Perdagangan Besar Hasil Perikanan
+Perdagangan Eceran Atas Dasar Balas Jasa (Fee) atau Kontrak
+Perdagangan Eceran Bukan di Toko, Kios, Kaki Lima dan Los Pasar Lainnya YTDL
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
+Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Melalui Media Untuk Komoditi Makanan, Minuman, Tembakau, Kimia, Farmasi, Kosmetik dan Alat Laboratorium
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pondok Wisata
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Peralatan Komunikasi
+Restoran
+Rumah Minum/Kafe
+Rumah Pijat
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Taman Budaya
+Taman Konservasi Di Luar Habitat Alami (Ex-Situ)
+Taman Rekreasi
+Taman Rekreasi/Taman Wisata
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya
+Villa
+Wisata Agro
+Wisata Budaya Lainnya
+Wisata Memancing</v>
       </c>
       <c r="M13" t="str">
         <v/>
@@ -2664,7 +3214,566 @@
 Aktivitas Hosting dan YBDI
 Aktivitas Hukum Lainnya
 Aktivitas Jasa Informasi Lainnya YTDL
-... dan 700 kegiatan lainnya</v>
+Aktivitas Jasa Keuangan Lainnya YDTL, Bukan Asuransi dan Dana Pensiun
+Aktivitas Jasa Penunjang Usaha Lainnya YTDL
+Aktivitas Jasa Perorangan Lainnya YTDL
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Berita Oleh Pemerintah
+Aktivitas Kantor Berita Oleh Swasta
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kebugaran Lainnya
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Konsultan Aktuaria
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Keamanan Informasi
+Aktivitas Konsultasi Komputer dan Manajemen Fasilitas Komputer Lainnya
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Konsultasi dan Perancangan Internet Of Things (IOT)
+Aktivitas Kurir
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Manajemen Dana Lainnya
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Pangkas Rambut
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Pemeringkat Usaha Mikro, Kecil, Menengah dan Koperasi
+Aktivitas Pemrograman Berbasis Kecerdasan Artifisial
+Aktivitas Pemrograman Komputer Lainnya
+Aktivitas Pemrograman dan Produksi Konten Media Imersif
+Aktivitas Pemutaran Film
+Aktivitas Penatu
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerbitan Lainnya
+Aktivitas Penerbitan Musik dan Buku Musik
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
+Aktivitas Pengembangan Teknologi Blockchain
+Aktivitas Pengembangan Video Game
+Aktivitas Pengepakan
+Aktivitas Pengolahan Data
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penilai Kerugian Asuransi
+Aktivitas Penilaian Risiko Asuransi
+Aktivitas Penunjang Asuransi, dan Dana Pensiun Lainnya
+Aktivitas Penunjang Jasa Keuangan Lainnya YTDL
+Aktivitas Penunjang Perdagangan Berjangka Komoditi Lainnya
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Identitas Digital
+Aktivitas Penyediaan Sertifikat Elektronik dan Layanan Yang Menggunakan Serfitikat Elektronik
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Penyewaan dan Sewa Guna Usaha Tanpa Hak Opsi Mesin dan Peralatan Industri
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perekaman Suara
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Perusahaan Holding
+Aktivitas Pialang Asuransi
+Aktivitas Pialang Reasuransi
+Aktivitas Pos
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
+Aktivitas Salon Kecantikan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Spa (Sante Par Aqua)
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Aktivitas Teknologi Informasi dan Jasa Komputer Lainnya
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Pertahanan Keamanan
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Sendiri
+Aktivitas Telekomunikasi Khusus Untuk Penyiaran
+Aktivitas Telekomunikasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Vermak Pakaian
+Aktivitas Wisata Air
+Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Analisis Dan Uji Teknis Lainnya
+Angkutan Multimoda
+Asuransi Jiwa Konvensional
+Asuransi Jiwa Syariah
+Asuransi Umum Konvensional
+Asuransi Umum Syariah
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Bank Pembiayaan Rakyat Syariah
+Bank Perkreditan Rakyat
+Bank Sentral
+Bank Umum Konvensional
+Bank Umum Syariah
+Biro Administrasi Efek
+Bursa Berjangka
+Bursa Berjangka Penyelenggara Pasar Fisik
+Bursa Efek
+Central Counterparty Transaksi Derivatif Suku Bunga dan Nilai Tukar
+Dana Pensiun Lembaga Keuangan Konvensional
+Dana Pensiun Lembaga Keuangan Syariah
+Dana Pensiun Pemberi Kerja Konvensional
+Dana Pensiun Pemberi Kerja Syariah
+Dekorasi Eksterior
+Dekorasi Interior
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Gerai Penjualan Efek Reksa Dana
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Mekanikal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Internet Service Provider
+Jajak Pendapat Masyarakat
+Jasa Boga Untuk Suatu Event Tertentu (Event Catering)
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interkoneksi Internet (NAP)
+Jasa Internet Telepon Untuk Keperluan Publik (ITKP)
+Jasa Interpreter Wisata
+Jasa Jual Kembali Jasa Telekomunikasi
+Jasa Kalibrasi/Metrologi
+Jasa Keagenan Kapal/Agen Perkapalan Perusahaan Pelayaran
+Jasa Klasifikasi Kapal
+Jasa Konten SMS Premium
+Jasa Multimedia Lainnya
+Jasa Nilai Tambah Telepon Lainnya
+Jasa Panggilan Premium (Premium Call)
+Jasa Panggilan Terkelola (Calling Card)
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pasca Panen Penangkapan Ikan Di Perairan Darat
+Jasa Pasca Panen Penangkapan Ikan di Laut
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengolahan Lahan
+Jasa Pengujian Laboratorium
+Jasa Penunjang Pertanian Lainnya
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Pramuwisata
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Produksi Penangkapan Ikan Di Laut
+Jasa Produksi Penangkapan Ikan Di Perairan Darat
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Penangkapan Ikan di Laut
+Jasa Sarana Produksi Penangkapan Ikan di Perairan Darat
+Jasa Sertifikasi
+Jasa Sistem Komunikasi Data
+Jasa Televisi Protokol Internet (IPTV)
+Kedai Makanan
+Kedai Minuman
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penukaran Valuta Asing (Money Changer)
+Kelompok ini mencakup usaha perdagangan eceran khusus macam-macam komputer, peralatan dan perlengkapannya.
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Gedung Perbelanjaan
+Konstruksi Gedung Perkantoran
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Khusus Lainnya YTDL
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Koperasi Simpan Pinjam Primer (KSP Primer)
+Koperasi Simpan Pinjam Sekunder (KSP Sekunder)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Primer (KSPPS Primer)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Sekunder (KSPPS Sekunder)
+Kustodian (Custodian)
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Konvensional
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Syariah
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Keuangan Mikro Konvensional
+Lembaga Keuangan Mikro Syariah
+Lembaga Kliring dan Penjaminan Berjangka
+Lembaga Kliring dan Penjaminan Berjangka Penyelenggara Pasar Fisik
+Lembaga Kliring dan Penjaminan Efek
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Pendanaan Efek
+Lembaga Penilaian Harga Efek (LPHE)
+Lembaga Penjamin Simpanan (LPS)
+Lembaga Penyimpanan dan Penyelesaian
+Lembagan Pembiayaan Ekspor Indonesia
+Manajer Investasi
+Manajer Investasi Syariah
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
+Otoritas Jasa Keuangan (OJK)
+Pedagang Berjangka
+Pedagang Fisik Komoditi
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pemasangan Kerangka Baja
+Pemasangan Perancah (Steiger)
+Pemasangan Pondasi dan Tiang Pancang
+Pemasangan Rangka dan Atap/Roof Covering
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembongkaran
+Penasihat Berjangka
+Penasihat Investasi Berbentuk Perusahaan
+Penasihat Investasi Perorangan
+Pencucian dan Salon Mobil
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak (Software)
+Penerbitan Surat Kabar, Jurnal dan Buletin atau Majalah
+Pengecatan
+Pengelola Sentra Dana Berjangka
+Pengelola Tempat Penyimpanan Fisik Komoditi
+Pengelolaan Fasilitas Olah Raga Lainnya
+Pengerjaan Lantai, Dinding, Peralatan Saniter dan Plafon
+Pengerjaan Pemasangan Kaca dan Aluminium
+Penginapan Remaja (Youth Hostel)
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penjamin Emisi efek (Underwriter)
+Penyedia Jasa Pembayaran (PJP)
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggara Dana Perlindungan Pemodal (PDPP)
+Penyelenggara Infrastruktur Perdagangan Di Pasar Modal Lainnya
+Penyelenggara Infrastruktur Sistem Pembayaran (PIP)
+Penyelenggara Kegiatan Jasa Pengolahan Uang Rupiah
+Penyelenggara Pasar Alternatif
+Penyelenggara Penawaran Efek Melalui Layanan Urun Dana Berbasis Teknologi Informasi (Securities Crowd Funding)
+Penyelenggara Penunjang Sistem Pembayaran
+Penyelenggara Sarana Pelaksanaan Transaksi Di Pasar Uang dan Pasar Valuta Asing
+Penyelenggara Sistem Perdagangan Alternatif
+Penyelenggaraan Infrastruktur Pasar Uang dan Pasar Valuta Asing
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Penyelesaian Konstruksi Bangunan Lainnya
+Penyewaaan Venue Penyelenggaraan Aktifitas MICE dan Event Khusus
+Penyewaan Alat Konstruksi dengan Operator
+Penyiapan Lahan
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perantara Moneter Lainnya
+Perantara Pedagang Efek (Broker Dealer)
+Perantara Pedagang Efek Bersifat Utang dan Suku (PPEEBUS)
+Perantara Perdagangan Berjangka Komoditi Lainnya
+Perantara Perdagangan Fisik Komoditi
+Perdagangan Besar Alas Kaki
+Perdagangan Besar Alat Fotografi dan Barang Optik
+Perdagangan Besar Alat Laboratorium, Alat Farmasi dan Alat Kedokteran Hewan
+Perdagangan Besar Alat Laboratorium, Alat Farmasi dan Alat Kedokteran Manusia
+Perdagangan Besar Alat Olahraga
+Perdagangan Besar Alat Permainan dan Mainan Anak-anak
+Perdagangan Besar Alat Transportasi Darat (Bukan Mobil, Sepeda Motor, dan Sejenisnya), Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Transportasi Laut, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Transportasi Udara, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Tulis dan Gambar
+Perdagangan Besar Atas Dasar Balas Jasa (Fee) Atau Kontrak
+Perdagangan Besar Bahan Baku Obat Tradisional Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Berbahaya (B2)
+Perdagangan Besar Bahan Berbahaya dan Beracun (B3)
+Perdagangan Besar Bahan Farmasi Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Konstruksi Dari Kayu
+Perdagangan Besar Bahan Konstruksi Dari Porselen
+Perdagangan Besar Bahan Konstruksi Lainnya
+Perdagangan Besar Bahan Makanan dan Minuman Hasil Pertanian Lainnya
+Perdagangan Besar Bahan Makanan dan Minuman Hasil Peternakan dan Perikanan Lainnya
+Perdagangan Besar Bahan dan Barang Kimia
+Perdagangan Besar Barang Dari Kertas dan Karton
+Perdagangan Besar Barang Lainnya Dari Tekstil
+Perdagangan Besar Barang Logam Untuk Bahan Konstruksi
+Perdagangan Besar Barang Percetakan dan Penerbitan Dalam Berbagai Bentuk
+Perdagangan Besar Beras
+Perdagangan Besar Berbagai Barang dan Perlengkapan Rumah Tangga Lainnya YTDL
+Perdagangan Besar Berbagai Macam Barang
+Perdagangan Besar Berbagai Macam Material Bangunan
+Perdagangan Besar Binatang Hidup
+Perdagangan Besar Buah Yang Mengandung Minyak
+Perdagangan Besar Buah-buahan
+Perdagangan Besar Bunga dan Tanaman Hias
+Perdagangan Besar Cat
+Perdagangan Besar Daging Ayam dan Daging Ayam Olahan
+Perdagangan Besar Daging Sapi dan Daging Sapi Olahan
+Perdagangan Besar Daging dan Daging Olahan Lainnya
+Perdagangan Besar Disket, Flash Drive, Pita Audio dan Video, CD dan DVD Kosong
+Perdagangan Besar Genteng, Batu Bata, Ubin dan Sejenisnya Dari Tanah Liat, Kapur, Semen atau Kaca
+Perdagangan Besar Gula, Coklat dan Kembang Gula
+Perdagangan Besar Hasil Kehutanan dan Perburuan
+Perdagangan Besar Hasil Olahan Perikanan
+Perdagangan Besar Hasil Perikanan
+Perdagangan Besar Hasil Pertanian dan Hewan Hidup Lainnya
+Perdagangan Besar Kaca
+Perdagangan Besar Karet dan Plastik Dalam Bentuk Dasar
+Perdagangan Besar Kertas dan Karton
+Perdagangan Besar Komputer dan Perlengkapan Komputer
+Perdagangan Besar Kopi, Tea dan Kakao
+Perdagangan Besar Kosmetik untuk Hewan
+Perdagangan Besar Kosmetik untuk Manusia
+Perdagangan Besar Kulit dan Kulit Jangat
+Perdagangan Besar Makanan dan Minuman Lainnya
+Perdagangan Besar Mesin Kantor dan Industri Pengolahan, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Mesin, Peralatan dan Perlengkapan Lainnya
+Perdagangan Besar Mesin, Peralatan dan Perlengkapan Pertanian
+Perdagangan Besar Mineral Bukan Logam
+Perdagangan Besar Minuman Non Alkohol  Bukan Susu
+Perdagangan Besar Minyak dan Lemak Hewani
+Perdagangan Besar Minyak dan Lemak Nabati
+Perdagangan Besar Mobil Bekas
+Perdagangan Besar Obat Farmasi Untuk Hewan
+Perdagangan Besar Obat Farmasi Untuk Manusia
+Perdagangan Besar Obat Tradisional Untuk Hewan
+Perdagangan Besar Obat Tradisional Untuk Manusia
+Perdagangan Besar Padi dan Palawija
+Perdagangan Besar Pakaian
+Perdagangan Besar Peralatan Telekomunikasi
+Perdagangan Besar Peralatan dan Perlengkapan Rumah Tangga
+Perdagangan Besar Perhiasan dan Jam
+Perdagangan Besar Piranti Lunak
+Perdagangan Besar Produk Lainnya YTDL
+Perdagangan Besar Produk Roti
+Perdagangan Besar Pupuk dan Produk Agrokimia
+Perdagangan Besar Rokok dan Tembakau
+Perdagangan Besar Sayuran
+Perdagangan Besar Semen, Kapur, Pasir dan Batu
+Perdagangan Besar Sepeda Motor Baru
+Perdagangan Besar Sepeda Motor Bekas
+Perdagangan Besar Suku Cadang Elektronik
+Perdagangan Besar Suku Cadang Sepeda Motor dan Aksesorinya
+Perdagangan Besar Suku Cadang dan Aksesori Mobil
+Perdagangan Besar Susu dan Produk Susu
+Perdagangan Besar Tekstil
+Perdagangan Besar Tekstil, Pakaian dan Alas Kaki Lainnya
+Perdagangan Besar Telur dan Hasil Olahan Telur
+Perdagangan Besar Tembakau Rajangan
+Perdagangan Besar dan Mobil Baru
+Perdagangan BesarAlat Musik
+Perdagangan Eceran Alat Fotografi dan Perlengkapannya
+Perdagangan Eceran Alat Laboratorium, Alat Farmasi dan Alat Kesehatan Untuk Manusia
+Perdagangan Eceran Alat Musik
+Perdagangan Eceran Alat Optik dan Perlengkapannya
+Perdagangan Eceran Alat Telekomunikasi
+Perdagangan Eceran Alat Transportasi Air dan Perlengkapannya
+Perdagangan Eceran Alat Transportasi Darat Tidak Bermotor dan Perlengkapannya
+Perdagangan Eceran Alat Tulis Menulis dan Gambar
+Perdagangan Eceran Alat-Alat Pertanian
+Perdagangan Eceran Alat-Alat Pertukangan
+Perdagangan Eceran Aromatik/Penyegar (Minyak Atsiri)
+Perdagangan Eceran Atas Dasar Balas Jasa (Fee) atau Kontrak
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Kimia
+Perdagangan Eceran Bahan Kimia, dan Aromatik/Penyegar (Minyak Atsiri), dan Bahan Bakar Bukan Bahan Bakar Untuk Kendaraan Bermotor Lainnya
+Perdagangan Eceran Bahan Konstruksi Dan Sanitasi Bekas
+Perdagangan Eceran Bahan Konstruksi Dari Kayu
+Perdagangan Eceran Bahan Konstruksi Dari Porselen
+Perdagangan Eceran Bahan dan Barang Konstruksi Lainnya
+Perdagangan Eceran Barang Antik
+Perdagangan Eceran Barang Bekas Lainnya
+Perdagangan Eceran Barang Bekas Perlengkapan Rumah Tangga
+Perdagangan Eceran Barang Kerajinan Dari Kayu, Bambu, Rotan, Pandan, Rumput dan Sejenisnya
+Perdagangan Eceran Barang Kerajinan Dari Keramik
+Perdagangan Eceran Barang Kerajinan Dari Kulit, Tulang, Tanduk, Gading, Bulu dan Binatang/Hewan yang Diawetkan
+Perdagangan Eceran Barang Kerajinan Dari Logam
+Perdagangan Eceran Barang Kerajinan dan Lukisan Lainnya
+Perdagangan Eceran Barang Listrik dan Elektronik Bekas
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Bukan Dari Plastik, Batu, Tanah Liat, Kayu, Bambu atau Rotan
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Batu Atau Tanah Liat
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Kayu, Bambu atau Rotan
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Plastik
+Perdagangan Eceran Barang Perhiasan
+Perdagangan Eceran Barang Perlengkapan Pribadi Bekas
+Perdagangan Eceran Barang dan Logam untuk Bahan Konstruksi
+Perdagangan Eceran Barang dan Obat Farmasi Untuk Manusia Bukan Di Apotik
+Perdagangan Eceran Barang dan Obat Farmasi Untuk Manusia Di Apotik
+Perdagangan Eceran Barang dan Obat Farmasi untuk Hewan di Apotik dan Bukan Apotik
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba (Department Store)
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba (Department Store)
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket (Tradisional)
+Perdagangan Eceran Berbagai Macam Material
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Bukan di Toko, Kios, Kaki Lima dan Los Pasar Lainnya YTDL
+Perdagangan Eceran Bunga Potong/Florist
+Perdagangan Eceran Cat, Pernis dan Lak
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Furnitur
+Perdagangan Eceran Gas Elpiji
+Perdagangan Eceran Genteng, Batu Bata, Ubin dan Sejenisnya Dari Tanah Liat, Kapur, Semen atau Kaca
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Pencetakan dan Penerbitan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Hewan Piaraan (Pet Animals)
+Perdagangan Eceran Hewan Ternak
+Perdagangan Eceran Ikan Hias
+Perdagangan Eceran Jam
+Perdagangan Eceran Kaca
+Perdagangan Eceran Kaca Mata
+Perdagangan Eceran Kaki Lima Dan Los Pasar Sepatu, Sandal dan Alas Kaki Lainnya
+Perdagangan Eceran Kaki Lima dan Loas Pasar Hasil Pencetakan dan Penerbitan
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Fotografi, Alat Optik dan Perlengkapannya
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Kebersihan
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Olahraga dan Alat Musik
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Tulis Menulis dan Gambar
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat dan Perlengkapan Listrik
+Perdagangan Eceran Kaki Lima dan Los Pasar Aromatik/Penyegar (Minyak Atsiri)
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Bakar Minyak, Gas,Minyak Pelumas dan Bahan Bakar Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Kimia
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Kimia, Farmasi, Kosmetik dan Alat Laboratorium dan YBDT YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Antik
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Bekas Campuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Bekas Perlengkapan Rumah Tangga
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Elektronik
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Keperluan Pribadi Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Kerajinan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Listrik dan Elektronik Bekas
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah Dan Perlengkapan Dapur dari Plastik/Melamin
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah dan Perlengkapan Dapur Bukan Dari Plastik, Batu, Tanah Liat, Kayu, Bambu atau Rotan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah dan Perlengkapan Dapur dari Batu atau Tanah Liat
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Perhiasan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang dan Perlengkapan Dapur dari Kayu, Bambu atau Rotan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Campuran Kertas, Karton, Barang dari Kertas, Alat Tulis-Menulis, Alat Gambar, Hasil Pencetakan, Penerbitan dan Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Farmasi
+Perdagangan Eceran Kaki Lima dan Los Pasar Hewan Hidup
+Perdagangan Eceran Kaki Lima dan Los Pasar Jam
+Perdagangan Eceran Kaki Lima dan Los Pasar Kaca Mata
+Perdagangan Eceran Kaki Lima dan Los Pasar Kertas, Karton dan Barang dari Kertas
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kosmetik
+Perdagangan Eceran Kaki Lima dan Los Pasar Lukisan
+Perdagangan Eceran Kaki Lima dan Los Pasar Mainan Anak-anak
+Perdagangan Eceran Kaki Lima dan Los Pasar Mesin Kantor
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Obat Tradisional
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakaian, Alas Kaki, Perlengkapan Pakaian dan Barang Perlengkapan Pribadi Bekas
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Pelengkap Pakaian dan Benang</v>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -2738,7 +3847,7 @@
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="str">
         <v/>
@@ -2750,48 +3859,13 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>Perdagangan dan Jasa Skala SWP</v>
+        <v>Perdagangan dan Jasa Skala Kota (Part 2)</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
-      <c r="G16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 80%
-Koefisien Lantai Bangunan
-KLB Maksimum: 2.4
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 20
-Luas Kaveling
-Minimum: -
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: 1 m
-Jarak Bebas Belakang (JBB)
-Minimum: 1 m
-Lantai Bangunan
-Maksimum Kolektor: -
-Maksimum Lokal: -</v>
+      <c r="G16" t="str">
+        <v/>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -2805,8 +3879,147 @@
       <c r="K16" t="str">
         <v/>
       </c>
-      <c r="L16" t="str">
-        <v>Tidak ada kegiatan diizinkan</v>
+      <c r="L16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Perdagangan Eceran Kaki Lima dan Los Pasar Peralatan Telekomunikasi
+Perdagangan Eceran Kaki Lima dan Los Pasar Perlengkapan Pengendara Sepeda Motor
+Perdagangan Eceran Kaki Lima dan Los Pasar Perlengkapan Rumah Tangga Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Pupuk dan Pemberantas Hama
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tas, Dompet, Koper, Ransel dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Kaki Limta dan Los Pasar Pakaian
+Perdagangan Eceran Keliling Bahan Bakar dan Minyak Pelumas
+Perdagangan Eceran Keliling Bahan Kimia, Farmasi, Kosmetik dan Alat Laboratorium
+Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
+Perdagangan Eceran Keliling Kertas, Barang dari Kertas, Alat Tulis, Barang Cetakan, Alat Olahraga, Alat Musik, Alat Fotografi dan Komputer
+Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Perdagangan Eceran Kertas, Kertas Karton dan Barang Dari Kertas/Karton
+Perdagangan Eceran Khusus Alat Permainan dan Mainan Anak-Anak Di Toko
+Perdagangan Eceran Khusus Barang Baru Lainnya YTDL
+Perdagangan Eceran Khusus Barang dan Obat Farmasi, Alat Kedokteran, Parfum dan Kosmetik Lainnnya
+Perdagangan Eceran Khusus Karpet, Permadani dan Penutup Dinding dan Lantai di Toko
+Perdagangan Eceran Khusus Peralatan Audio dan Video di Toko
+Perdagangan Eceran Khusus Peralatan Olahraga di Toko
+Perdagangan Eceran Khusus Rekaman Musik dan Video di Toko
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Kosmetik Untuk Hewan
+Perdagangan Eceran Kosmetik Untuk Manusia
+Perdagangan Eceran Lukisan
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Melalui Media Untuk Barang Campuran Sebagaimana Tersebut Dalam 47911 s.d 47913
+Perdagangan Eceran Melalui Media Untuk Barang Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Melalui Media Untuk Berbagai Macam Barang Lainnya
+Perdagangan Eceran Melalui Media Untuk Komoditi Makanan, Minuman, Tembakau, Kimia, Farmasi, Kosmetik dan Alat Laboratorium
+Perdagangan Eceran Melalui Media Untuk Komoditi Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Perdagangan Eceran Mesin Jahit dan Perlengkapannya
+Perdagangan Eceran Mesin Kantor
+Perdagangan Eceran Mesin Lainnya dan Perlengkapannya
+Perdagangan Eceran Mesin Pertanian dan Perlengkapannya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Minyak Tanah
+Perdagangan Eceran Mobil Baru
+Perdagangan Eceran Mobil Bekas
+Perdagangan Eceran Obat Tradisional Untuk Hewan
+Perdagangan Eceran Obat Tradisional Untuk Manusia
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Pakaian
+Perdagangan Eceran Pakaian, Alas kaki dan Pelengkap Pakaian Bekas
+Perdagangan Eceran Pakan Ternak/Unggas/Ikan dan Hewan Piaraan
+Perdagangan Eceran Pelengkap Pakaian
+Perdagangan Eceran Pembungkus Dari Plastik
+Perdagangan Eceran Peralatan Listrik Rumah Tangga dan Peralatan Penerangan dan Perlengkapan
+Perdagangan Eceran Peralatan Video Game Dan Sejenisnya
+Perdagangan Eceran Peralatan dan Perlengkapan Rumah Tangga Lainnya YTDL
+Perdagangan Eceran Perlengkapan Jahit Menjahit
+Perdagangan Eceran Perlengkapan Pengendara Kendaraan Bermotor
+Perdagangan Eceran Perlengkapan Rumah Tangga Dari Tekstil
+Perdagangan Eceran Perlengkapan dan Media Tanaman Hias
+Perdagangan Eceran Piranti Lunak (Software)
+Perdagangan Eceran Pupuk dan Pemberantas Hama
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Semen, Kapur, Pasir dan Batu
+Perdagangan Eceran Sepatu, Sandal dan Alas Kaki Lainnya
+Perdagangan Eceran Sepeda Motor Baru
+Perdagangan Eceran Sepeda Motor Bekas
+Perdagangan Eceran Suku Cadang Sepeda Motor dan Aksesorinya
+Perdagangan Eceran Suku Cadang dan Aksesori mobil
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Tanaman dan Bibit Tanaman
+Perdagangan Eceran Tas, Dompet, Koper, Ransel dan Sejenisnya
+Perdagangan Eceran Tekstil
+Pergadaian Konvensional
+Pergadaian Syariah
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Perusahaan Efek Daerah (PED)
+Perusahaan Efek Selain Manajemen Investasi Lainnya
+Perusahaan Modal Ventura Konvensional
+Perusahaan Modal Ventura Syariah
+Perusahaan Pembiayaan Infrastruktur Konvensional
+Perusahaan Pembiayaan Infrastruktur Syariah
+Perusahaan Pembiayaan Konvensional
+Perusahaan Pembiayaan Sekunder Perumahan
+Perusahaan Pembiayaan Syariah
+Perusahaan Pemeringkat Efek
+Perusahaan Penjamin Konvensional
+Perusahaan Penjaminan Syariah
+Perusahaan Penjaminan Ulang Konvensional
+Perusahaan Penjaminan Ulang Syariah
+Pialang Perdagangan Berjangka
+Portal Web dan/atau Platform Digital Dengan Tujuan Komersil
+Portal Web dan/atau Platform Digital Tanpa Tujuan Komersil
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Reasuransi Konvensional
+Reasuransi Syariah
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Mobil
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Reparasi dan Perawatan Sepeda Motor
+Restoran
+Rumah Minum/Kafe
+Rumah Pijat
+Rumah Tinggal
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Taman Budaya
+Taman Rekreasi
+Transmisi Tenaga Listrik
+Trust, Pendanaan dan Entitas Keuangan Sejenis
+Unit Simpan Pinjam Koperasi Primer (USP Koperasi Primer)
+Unit Simpan Pinjam Koperasi Sekunder (USP Koperasi Sekunder)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Primer (USPPS Koperasi Primer)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Sekunder (USPPS Koperasi Sekunder)
+Unit Syariah Asuransi Jiwa
+Unit Syariah Asuransi Umum
+Unit Syariah Dana Pensiun Pemberi Kerja
+Unit Syariah Perusahaan Penjaminan
+Unit Syariah Reasuransi
+Unit Usaha Syariah Bank Umum
+Unit Usaha Syariah Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending)
+Unit Usaha Syariah Modal Ventura
+Unit Usaha Syariah Pegadaian
+Unit Usaha Syariah Perusahaan Pembiayaan
+Unit Usaha Syariah Perusahaan Pembiayaan Infrastruktur
+Usaha Arena Permainan
+Wali Amanat (Trustee)
+Wisata Budaya Lainnya
+Wisata Memancing</v>
       </c>
       <c r="M16" t="str">
         <v/>
@@ -2880,7 +4093,7 @@
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
         <v/>
@@ -2892,7 +4105,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>Perdagangan dan Jasa Skala WP</v>
+        <v>Perdagangan dan Jasa Skala SWP</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -2947,7 +4160,149 @@
       <c r="K17" t="str">
         <v/>
       </c>
-      <c r="L17" t="str" xml:space="preserve">
+      <c r="L17" t="str">
+        <v>Tidak ada kegiatan diizinkan</v>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <v/>
+      </c>
+      <c r="AG17" t="str">
+        <v/>
+      </c>
+      <c r="AH17" t="str">
+        <v/>
+      </c>
+      <c r="AI17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>Perdagangan dan Jasa Skala WP</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 80%
+Koefisien Lantai Bangunan
+KLB Maksimum: 2.4
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 20
+Luas Kaveling
+Minimum: -
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: 1 m
+Jarak Bebas Belakang (JBB)
+Minimum: 1 m
+Lantai Bangunan
+Maksimum Kolektor: -
+Maksimum Lokal: -</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str" xml:space="preserve">
         <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
 Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
 Administrasi Pelayanan Pemerintah Bidang Kesehatan
@@ -2998,98 +4353,903 @@
 Aktivitas Hosting dan YBDI
 Aktivitas Hukum Lainnya
 Aktivitas Jasa Informasi Lainnya YTDL
-... dan 700 kegiatan lainnya</v>
-      </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
-      <c r="R17" t="str">
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <v/>
-      </c>
-      <c r="W17" t="str">
-        <v/>
-      </c>
-      <c r="X17" t="str">
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <v/>
-      </c>
-      <c r="Z17" t="str">
-        <v/>
-      </c>
-      <c r="AA17" t="str">
-        <v/>
-      </c>
-      <c r="AB17" t="str">
-        <v/>
-      </c>
-      <c r="AC17" t="str">
-        <v/>
-      </c>
-      <c r="AD17" t="str">
-        <v/>
-      </c>
-      <c r="AE17" t="str">
-        <v/>
-      </c>
-      <c r="AF17" t="str">
-        <v/>
-      </c>
-      <c r="AG17" t="str">
-        <v/>
-      </c>
-      <c r="AH17" t="str">
-        <v/>
-      </c>
-      <c r="AI17" t="str">
+Aktivitas Jasa Keuangan Lainnya YDTL, Bukan Asuransi dan Dana Pensiun
+Aktivitas Jasa Penunjang Usaha Lainnya YTDL
+Aktivitas Jasa Perorangan Lainnya YTDL
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Berita Oleh Pemerintah
+Aktivitas Kantor Berita Oleh Swasta
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kebugaran Lainnya
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Konsultan Aktuaria
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Keamanan Informasi
+Aktivitas Konsultasi Komputer dan Manajemen Fasilitas Komputer Lainnya
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Konsultasi dan Perancangan Internet Of Things (IOT)
+Aktivitas Kurir
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Manajemen Dana Lainnya
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Pangkas Rambut
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Pemeringkat Usaha Mikro, Kecil, Menengah dan Koperasi
+Aktivitas Pemrograman Berbasis Kecerdasan Artifisial
+Aktivitas Pemrograman Komputer Lainnya
+Aktivitas Pemrograman dan Produksi Konten Media Imersif
+Aktivitas Pemutaran Film
+Aktivitas Penatu
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerbitan Lainnya
+Aktivitas Penerbitan Musik dan Buku Musik
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
+Aktivitas Pengembangan Teknologi Blockchain
+Aktivitas Pengembangan Video Game
+Aktivitas Pengepakan
+Aktivitas Pengolahan Data
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penilai Kerugian Asuransi
+Aktivitas Penilaian Risiko Asuransi
+Aktivitas Penunjang Asuransi, dan Dana Pensiun Lainnya
+Aktivitas Penunjang Jasa Keuangan Lainnya YTDL
+Aktivitas Penunjang Perdagangan Berjangka Komoditi Lainnya
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Identitas Digital
+Aktivitas Penyediaan Sertifikat Elektronik dan Layanan Yang Menggunakan Serfitikat Elektronik
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Penyewaan dan Sewa Guna Usaha Tanpa Hak Opsi Mesin dan Peralatan Industri
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perekaman Suara
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Perusahaan Holding
+Aktivitas Pialang Asuransi
+Aktivitas Pialang Reasuransi
+Aktivitas Pos
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
+Aktivitas Salon Kecantikan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Spa (Sante Par Aqua)
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Aktivitas Teknologi Informasi dan Jasa Komputer Lainnya
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Pertahanan Keamanan
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Sendiri
+Aktivitas Telekomunikasi Khusus Untuk Penyiaran
+Aktivitas Telekomunikasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Vermak Pakaian
+Aktivitas Wisata Air
+Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Analisis Dan Uji Teknis Lainnya
+Angkutan Multimoda
+Asuransi Jiwa Konvensional
+Asuransi Jiwa Syariah
+Asuransi Umum Konvensional
+Asuransi Umum Syariah
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Bank Pembiayaan Rakyat Syariah
+Bank Perkreditan Rakyat
+Bank Sentral
+Bank Umum Konvensional
+Bank Umum Syariah
+Biro Administrasi Efek
+Bursa Berjangka
+Bursa Berjangka Penyelenggara Pasar Fisik
+Bursa Efek
+Central Counterparty Transaksi Derivatif Suku Bunga dan Nilai Tukar
+Dana Pensiun Lembaga Keuangan Konvensional
+Dana Pensiun Lembaga Keuangan Syariah
+Dana Pensiun Pemberi Kerja Konvensional
+Dana Pensiun Pemberi Kerja Syariah
+Dekorasi Eksterior
+Dekorasi Interior
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Gerai Penjualan Efek Reksa Dana
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Mekanikal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Internet Service Provider
+Jajak Pendapat Masyarakat
+Jasa Boga Untuk Suatu Event Tertentu (Event Catering)
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interkoneksi Internet (NAP)
+Jasa Internet Telepon Untuk Keperluan Publik (ITKP)
+Jasa Interpreter Wisata
+Jasa Jual Kembali Jasa Telekomunikasi
+Jasa Kalibrasi/Metrologi
+Jasa Keagenan Kapal/Agen Perkapalan Perusahaan Pelayaran
+Jasa Klasifikasi Kapal
+Jasa Konten SMS Premium
+Jasa Multimedia Lainnya
+Jasa Nilai Tambah Telepon Lainnya
+Jasa Panggilan Premium (Premium Call)
+Jasa Panggilan Terkelola (Calling Card)
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pasca Panen Penangkapan Ikan Di Perairan Darat
+Jasa Pasca Panen Penangkapan Ikan di Laut
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengolahan Lahan
+Jasa Pengujian Laboratorium
+Jasa Penunjang Pertanian Lainnya
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Pramuwisata
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Produksi Penangkapan Ikan Di Laut
+Jasa Produksi Penangkapan Ikan Di Perairan Darat
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Penangkapan Ikan di Laut
+Jasa Sarana Produksi Penangkapan Ikan di Perairan Darat
+Jasa Sertifikasi
+Jasa Sistem Komunikasi Data
+Jasa Televisi Protokol Internet (IPTV)
+Kedai Makanan
+Kedai Minuman
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penukaran Valuta Asing (Money Changer)
+Kelompok ini mencakup usaha perdagangan eceran khusus macam-macam komputer, peralatan dan perlengkapannya.
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Gedung Perbelanjaan
+Konstruksi Gedung Perkantoran
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Khusus Lainnya YTDL
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Koperasi Simpan Pinjam Primer (KSP Primer)
+Koperasi Simpan Pinjam Sekunder (KSP Sekunder)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Primer (KSPPS Primer)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Sekunder (KSPPS Sekunder)
+Kustodian (Custodian)
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Konvensional
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Syariah
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Keuangan Mikro Konvensional
+Lembaga Keuangan Mikro Syariah
+Lembaga Kliring dan Penjaminan Berjangka
+Lembaga Kliring dan Penjaminan Berjangka Penyelenggara Pasar Fisik
+Lembaga Kliring dan Penjaminan Efek
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Pendanaan Efek
+Lembaga Penilaian Harga Efek (LPHE)
+Lembaga Penjamin Simpanan (LPS)
+Lembaga Penyimpanan dan Penyelesaian
+Lembagan Pembiayaan Ekspor Indonesia
+Manajer Investasi
+Manajer Investasi Syariah
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
+Otoritas Jasa Keuangan (OJK)
+Pedagang Berjangka
+Pedagang Fisik Komoditi
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pemasangan Kerangka Baja
+Pemasangan Perancah (Steiger)
+Pemasangan Pondasi dan Tiang Pancang
+Pemasangan Rangka dan Atap/Roof Covering
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembongkaran
+Penasihat Berjangka
+Penasihat Investasi Berbentuk Perusahaan
+Penasihat Investasi Perorangan
+Pencucian dan Salon Mobil
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak (Software)
+Penerbitan Surat Kabar, Jurnal dan Buletin atau Majalah
+Pengecatan
+Pengelola Sentra Dana Berjangka
+Pengelola Tempat Penyimpanan Fisik Komoditi
+Pengelolaan Fasilitas Olah Raga Lainnya
+Pengerjaan Lantai, Dinding, Peralatan Saniter dan Plafon
+Pengerjaan Pemasangan Kaca dan Aluminium
+Penginapan Remaja (Youth Hostel)
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penjamin Emisi efek (Underwriter)
+Penyedia Jasa Pembayaran (PJP)
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggara Dana Perlindungan Pemodal (PDPP)
+Penyelenggara Infrastruktur Perdagangan Di Pasar Modal Lainnya
+Penyelenggara Infrastruktur Sistem Pembayaran (PIP)
+Penyelenggara Kegiatan Jasa Pengolahan Uang Rupiah
+Penyelenggara Pasar Alternatif
+Penyelenggara Penawaran Efek Melalui Layanan Urun Dana Berbasis Teknologi Informasi (Securities Crowd Funding)
+Penyelenggara Penunjang Sistem Pembayaran
+Penyelenggara Sarana Pelaksanaan Transaksi Di Pasar Uang dan Pasar Valuta Asing
+Penyelenggara Sistem Perdagangan Alternatif
+Penyelenggaraan Infrastruktur Pasar Uang dan Pasar Valuta Asing
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Penyelesaian Konstruksi Bangunan Lainnya
+Penyewaaan Venue Penyelenggaraan Aktifitas MICE dan Event Khusus
+Penyewaan Alat Konstruksi dengan Operator
+Penyiapan Lahan
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perantara Moneter Lainnya
+Perantara Pedagang Efek (Broker Dealer)
+Perantara Pedagang Efek Bersifat Utang dan Suku (PPEEBUS)
+Perantara Perdagangan Berjangka Komoditi Lainnya
+Perantara Perdagangan Fisik Komoditi
+Perdagangan Besar Alas Kaki
+Perdagangan Besar Alat Fotografi dan Barang Optik
+Perdagangan Besar Alat Laboratorium, Alat Farmasi dan Alat Kedokteran Hewan
+Perdagangan Besar Alat Laboratorium, Alat Farmasi dan Alat Kedokteran Manusia
+Perdagangan Besar Alat Olahraga
+Perdagangan Besar Alat Permainan dan Mainan Anak-anak
+Perdagangan Besar Alat Transportasi Darat (Bukan Mobil, Sepeda Motor, dan Sejenisnya), Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Transportasi Laut, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Transportasi Udara, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Alat Tulis dan Gambar
+Perdagangan Besar Atas Dasar Balas Jasa (Fee) Atau Kontrak
+Perdagangan Besar Bahan Baku Obat Tradisional Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Berbahaya (B2)
+Perdagangan Besar Bahan Berbahaya dan Beracun (B3)
+Perdagangan Besar Bahan Farmasi Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Konstruksi Dari Kayu
+Perdagangan Besar Bahan Konstruksi Dari Porselen
+Perdagangan Besar Bahan Konstruksi Lainnya
+Perdagangan Besar Bahan Makanan dan Minuman Hasil Pertanian Lainnya
+Perdagangan Besar Bahan Makanan dan Minuman Hasil Peternakan dan Perikanan Lainnya
+Perdagangan Besar Bahan dan Barang Kimia
+Perdagangan Besar Barang Dari Kertas dan Karton
+Perdagangan Besar Barang Lainnya Dari Tekstil
+Perdagangan Besar Barang Logam Untuk Bahan Konstruksi
+Perdagangan Besar Barang Percetakan dan Penerbitan Dalam Berbagai Bentuk
+Perdagangan Besar Beras
+Perdagangan Besar Berbagai Barang dan Perlengkapan Rumah Tangga Lainnya YTDL
+Perdagangan Besar Berbagai Macam Barang
+Perdagangan Besar Berbagai Macam Material Bangunan
+Perdagangan Besar Binatang Hidup
+Perdagangan Besar Buah Yang Mengandung Minyak
+Perdagangan Besar Buah-buahan
+Perdagangan Besar Bunga dan Tanaman Hias
+Perdagangan Besar Cat
+Perdagangan Besar Daging Ayam dan Daging Ayam Olahan
+Perdagangan Besar Daging Sapi dan Daging Sapi Olahan
+Perdagangan Besar Daging dan Daging Olahan Lainnya
+Perdagangan Besar Disket, Flash Drive, Pita Audio dan Video, CD dan DVD Kosong
+Perdagangan Besar Genteng, Batu Bata, Ubin dan Sejenisnya Dari Tanah Liat, Kapur, Semen atau Kaca
+Perdagangan Besar Gula, Coklat dan Kembang Gula
+Perdagangan Besar Hasil Kehutanan dan Perburuan
+Perdagangan Besar Hasil Olahan Perikanan
+Perdagangan Besar Hasil Perikanan
+Perdagangan Besar Hasil Pertanian dan Hewan Hidup Lainnya
+Perdagangan Besar Kaca
+Perdagangan Besar Karet dan Plastik Dalam Bentuk Dasar
+Perdagangan Besar Kertas dan Karton
+Perdagangan Besar Komputer dan Perlengkapan Komputer
+Perdagangan Besar Kopi, Tea dan Kakao
+Perdagangan Besar Kosmetik untuk Hewan
+Perdagangan Besar Kosmetik untuk Manusia
+Perdagangan Besar Kulit dan Kulit Jangat
+Perdagangan Besar Makanan dan Minuman Lainnya
+Perdagangan Besar Mesin Kantor dan Industri Pengolahan, Suku Cadang dan Perlengkapannya
+Perdagangan Besar Mesin, Peralatan dan Perlengkapan Lainnya
+Perdagangan Besar Mesin, Peralatan dan Perlengkapan Pertanian
+Perdagangan Besar Mineral Bukan Logam
+Perdagangan Besar Minuman Non Alkohol  Bukan Susu
+Perdagangan Besar Minyak dan Lemak Hewani
+Perdagangan Besar Minyak dan Lemak Nabati
+Perdagangan Besar Mobil Bekas
+Perdagangan Besar Obat Farmasi Untuk Hewan
+Perdagangan Besar Obat Farmasi Untuk Manusia
+Perdagangan Besar Obat Tradisional Untuk Hewan
+Perdagangan Besar Obat Tradisional Untuk Manusia
+Perdagangan Besar Padi dan Palawija
+Perdagangan Besar Pakaian
+Perdagangan Besar Peralatan Telekomunikasi
+Perdagangan Besar Peralatan dan Perlengkapan Rumah Tangga
+Perdagangan Besar Perhiasan dan Jam
+Perdagangan Besar Piranti Lunak
+Perdagangan Besar Produk Lainnya YTDL
+Perdagangan Besar Produk Roti
+Perdagangan Besar Pupuk dan Produk Agrokimia
+Perdagangan Besar Rokok dan Tembakau
+Perdagangan Besar Sayuran
+Perdagangan Besar Semen, Kapur, Pasir dan Batu
+Perdagangan Besar Sepeda Motor Baru
+Perdagangan Besar Sepeda Motor Bekas
+Perdagangan Besar Suku Cadang Elektronik
+Perdagangan Besar Suku Cadang Sepeda Motor dan Aksesorinya
+Perdagangan Besar Suku Cadang dan Aksesori Mobil
+Perdagangan Besar Susu dan Produk Susu
+Perdagangan Besar Tekstil
+Perdagangan Besar Tekstil, Pakaian dan Alas Kaki Lainnya
+Perdagangan Besar Telur dan Hasil Olahan Telur
+Perdagangan Besar Tembakau Rajangan
+Perdagangan Besar dan Mobil Baru
+Perdagangan BesarAlat Musik
+Perdagangan Eceran Alat Fotografi dan Perlengkapannya
+Perdagangan Eceran Alat Laboratorium, Alat Farmasi dan Alat Kesehatan Untuk Manusia
+Perdagangan Eceran Alat Musik
+Perdagangan Eceran Alat Optik dan Perlengkapannya
+Perdagangan Eceran Alat Telekomunikasi
+Perdagangan Eceran Alat Transportasi Air dan Perlengkapannya
+Perdagangan Eceran Alat Transportasi Darat Tidak Bermotor dan Perlengkapannya
+Perdagangan Eceran Alat Tulis Menulis dan Gambar
+Perdagangan Eceran Alat-Alat Pertanian
+Perdagangan Eceran Alat-Alat Pertukangan
+Perdagangan Eceran Aromatik/Penyegar (Minyak Atsiri)
+Perdagangan Eceran Atas Dasar Balas Jasa (Fee) atau Kontrak
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Kimia
+Perdagangan Eceran Bahan Kimia, dan Aromatik/Penyegar (Minyak Atsiri), dan Bahan Bakar Bukan Bahan Bakar Untuk Kendaraan Bermotor Lainnya
+Perdagangan Eceran Bahan Konstruksi Dan Sanitasi Bekas
+Perdagangan Eceran Bahan Konstruksi Dari Kayu
+Perdagangan Eceran Bahan Konstruksi Dari Porselen
+Perdagangan Eceran Bahan dan Barang Konstruksi Lainnya
+Perdagangan Eceran Barang Antik
+Perdagangan Eceran Barang Bekas Lainnya
+Perdagangan Eceran Barang Bekas Perlengkapan Rumah Tangga
+Perdagangan Eceran Barang Kerajinan Dari Kayu, Bambu, Rotan, Pandan, Rumput dan Sejenisnya
+Perdagangan Eceran Barang Kerajinan Dari Keramik
+Perdagangan Eceran Barang Kerajinan Dari Kulit, Tulang, Tanduk, Gading, Bulu dan Binatang/Hewan yang Diawetkan
+Perdagangan Eceran Barang Kerajinan Dari Logam
+Perdagangan Eceran Barang Kerajinan dan Lukisan Lainnya
+Perdagangan Eceran Barang Listrik dan Elektronik Bekas
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Bukan Dari Plastik, Batu, Tanah Liat, Kayu, Bambu atau Rotan
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Batu Atau Tanah Liat
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Kayu, Bambu atau Rotan
+Perdagangan Eceran Barang Pecah Belah dan Perlengkapan Dapur Dari Plastik
+Perdagangan Eceran Barang Perhiasan
+Perdagangan Eceran Barang Perlengkapan Pribadi Bekas
+Perdagangan Eceran Barang dan Logam untuk Bahan Konstruksi
+Perdagangan Eceran Barang dan Obat Farmasi Untuk Manusia Bukan Di Apotik
+Perdagangan Eceran Barang dan Obat Farmasi Untuk Manusia Di Apotik
+Perdagangan Eceran Barang dan Obat Farmasi untuk Hewan di Apotik dan Bukan Apotik
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba (Department Store)
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba (Department Store)
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket (Tradisional)
+Perdagangan Eceran Berbagai Macam Material
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Bukan di Toko, Kios, Kaki Lima dan Los Pasar Lainnya YTDL
+Perdagangan Eceran Bunga Potong/Florist
+Perdagangan Eceran Cat, Pernis dan Lak
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Furnitur
+Perdagangan Eceran Gas Elpiji
+Perdagangan Eceran Genteng, Batu Bata, Ubin dan Sejenisnya Dari Tanah Liat, Kapur, Semen atau Kaca
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Pencetakan dan Penerbitan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Hewan Piaraan (Pet Animals)
+Perdagangan Eceran Hewan Ternak
+Perdagangan Eceran Ikan Hias
+Perdagangan Eceran Jam
+Perdagangan Eceran Kaca
+Perdagangan Eceran Kaca Mata
+Perdagangan Eceran Kaki Lima Dan Los Pasar Sepatu, Sandal dan Alas Kaki Lainnya
+Perdagangan Eceran Kaki Lima dan Loas Pasar Hasil Pencetakan dan Penerbitan
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Fotografi, Alat Optik dan Perlengkapannya
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Kebersihan
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Olahraga dan Alat Musik
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat Tulis Menulis dan Gambar
+Perdagangan Eceran Kaki Lima dan Los Pasar Alat dan Perlengkapan Listrik
+Perdagangan Eceran Kaki Lima dan Los Pasar Aromatik/Penyegar (Minyak Atsiri)
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Bakar Minyak, Gas,Minyak Pelumas dan Bahan Bakar Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Kimia
+Perdagangan Eceran Kaki Lima dan Los Pasar Bahan Kimia, Farmasi, Kosmetik dan Alat Laboratorium dan YBDT YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Antik
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Bekas Campuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Bekas Perlengkapan Rumah Tangga
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Elektronik
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Keperluan Pribadi Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Kerajinan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Listrik dan Elektronik Bekas
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah Dan Perlengkapan Dapur dari Plastik/Melamin
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah dan Perlengkapan Dapur Bukan Dari Plastik, Batu, Tanah Liat, Kayu, Bambu atau Rotan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Pecah Belah dan Perlengkapan Dapur dari Batu atau Tanah Liat
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang Perhiasan
+Perdagangan Eceran Kaki Lima dan Los Pasar Barang dan Perlengkapan Dapur dari Kayu, Bambu atau Rotan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Campuran Kertas, Karton, Barang dari Kertas, Alat Tulis-Menulis, Alat Gambar, Hasil Pencetakan, Penerbitan dan Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Farmasi
+Perdagangan Eceran Kaki Lima dan Los Pasar Hewan Hidup
+Perdagangan Eceran Kaki Lima dan Los Pasar Jam
+Perdagangan Eceran Kaki Lima dan Los Pasar Kaca Mata
+Perdagangan Eceran Kaki Lima dan Los Pasar Kertas, Karton dan Barang dari Kertas
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kosmetik
+Perdagangan Eceran Kaki Lima dan Los Pasar Lukisan
+Perdagangan Eceran Kaki Lima dan Los Pasar Mainan Anak-anak
+Perdagangan Eceran Kaki Lima dan Los Pasar Mesin Kantor
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Obat Tradisional
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakaian, Alas Kaki, Perlengkapan Pakaian dan Barang Perlengkapan Pribadi Bekas
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Pelengkap Pakaian dan Benang</v>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <v/>
+      </c>
+      <c r="AF18" t="str">
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <v/>
+      </c>
+      <c r="AH18" t="str">
+        <v/>
+      </c>
+      <c r="AI18" t="str">
         <v/>
       </c>
     </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18">
+    <row r="19" xml:space="preserve">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>Perdagangan dan Jasa Skala WP (Part 2)</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Perdagangan Eceran Kaki Lima dan Los Pasar Peralatan Telekomunikasi
+Perdagangan Eceran Kaki Lima dan Los Pasar Perlengkapan Pengendara Sepeda Motor
+Perdagangan Eceran Kaki Lima dan Los Pasar Perlengkapan Rumah Tangga Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Pupuk dan Pemberantas Hama
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tas, Dompet, Koper, Ransel dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Kaki Limta dan Los Pasar Pakaian
+Perdagangan Eceran Keliling Bahan Bakar dan Minyak Pelumas
+Perdagangan Eceran Keliling Bahan Kimia, Farmasi, Kosmetik dan Alat Laboratorium
+Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
+Perdagangan Eceran Keliling Kertas, Barang dari Kertas, Alat Tulis, Barang Cetakan, Alat Olahraga, Alat Musik, Alat Fotografi dan Komputer
+Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Perdagangan Eceran Kertas, Kertas Karton dan Barang Dari Kertas/Karton
+Perdagangan Eceran Khusus Alat Permainan dan Mainan Anak-Anak Di Toko
+Perdagangan Eceran Khusus Barang Baru Lainnya YTDL
+Perdagangan Eceran Khusus Barang dan Obat Farmasi, Alat Kedokteran, Parfum dan Kosmetik Lainnnya
+Perdagangan Eceran Khusus Karpet, Permadani dan Penutup Dinding dan Lantai di Toko
+Perdagangan Eceran Khusus Peralatan Audio dan Video di Toko
+Perdagangan Eceran Khusus Peralatan Olahraga di Toko
+Perdagangan Eceran Khusus Rekaman Musik dan Video di Toko
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Kosmetik Untuk Hewan
+Perdagangan Eceran Kosmetik Untuk Manusia
+Perdagangan Eceran Lukisan
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Melalui Media Untuk Barang Campuran Sebagaimana Tersebut Dalam 47911 s.d 47913
+Perdagangan Eceran Melalui Media Untuk Barang Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Melalui Media Untuk Berbagai Macam Barang Lainnya
+Perdagangan Eceran Melalui Media Untuk Komoditi Makanan, Minuman, Tembakau, Kimia, Farmasi, Kosmetik dan Alat Laboratorium
+Perdagangan Eceran Melalui Media Untuk Komoditi Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Perdagangan Eceran Mesin Jahit dan Perlengkapannya
+Perdagangan Eceran Mesin Kantor
+Perdagangan Eceran Mesin Lainnya dan Perlengkapannya
+Perdagangan Eceran Mesin Pertanian dan Perlengkapannya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Minyak Tanah
+Perdagangan Eceran Mobil Baru
+Perdagangan Eceran Mobil Bekas
+Perdagangan Eceran Obat Tradisional Untuk Hewan
+Perdagangan Eceran Obat Tradisional Untuk Manusia
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Pakaian
+Perdagangan Eceran Pakaian, Alas kaki dan Pelengkap Pakaian Bekas
+Perdagangan Eceran Pakan Ternak/Unggas/Ikan dan Hewan Piaraan
+Perdagangan Eceran Pelengkap Pakaian
+Perdagangan Eceran Pembungkus Dari Plastik
+Perdagangan Eceran Peralatan Listrik Rumah Tangga dan Peralatan Penerangan dan Perlengkapan
+Perdagangan Eceran Peralatan Video Game Dan Sejenisnya
+Perdagangan Eceran Peralatan dan Perlengkapan Rumah Tangga Lainnya YTDL
+Perdagangan Eceran Perlengkapan Jahit Menjahit
+Perdagangan Eceran Perlengkapan Pengendara Kendaraan Bermotor
+Perdagangan Eceran Perlengkapan Rumah Tangga Dari Tekstil
+Perdagangan Eceran Perlengkapan dan Media Tanaman Hias
+Perdagangan Eceran Piranti Lunak (Software)
+Perdagangan Eceran Pupuk dan Pemberantas Hama
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Semen, Kapur, Pasir dan Batu
+Perdagangan Eceran Sepatu, Sandal dan Alas Kaki Lainnya
+Perdagangan Eceran Sepeda Motor Baru
+Perdagangan Eceran Sepeda Motor Bekas
+Perdagangan Eceran Suku Cadang Sepeda Motor dan Aksesorinya
+Perdagangan Eceran Suku Cadang dan Aksesori mobil
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Tanaman dan Bibit Tanaman
+Perdagangan Eceran Tas, Dompet, Koper, Ransel dan Sejenisnya
+Perdagangan Eceran Tekstil
+Pergadaian Konvensional
+Pergadaian Syariah
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Perusahaan Efek Daerah (PED)
+Perusahaan Efek Selain Manajemen Investasi Lainnya
+Perusahaan Modal Ventura Konvensional
+Perusahaan Modal Ventura Syariah
+Perusahaan Pembiayaan Infrastruktur Konvensional
+Perusahaan Pembiayaan Infrastruktur Syariah
+Perusahaan Pembiayaan Konvensional
+Perusahaan Pembiayaan Sekunder Perumahan
+Perusahaan Pembiayaan Syariah
+Perusahaan Pemeringkat Efek
+Perusahaan Penjamin Konvensional
+Perusahaan Penjaminan Syariah
+Perusahaan Penjaminan Ulang Konvensional
+Perusahaan Penjaminan Ulang Syariah
+Pialang Perdagangan Berjangka
+Portal Web dan/atau Platform Digital Dengan Tujuan Komersil
+Portal Web dan/atau Platform Digital Tanpa Tujuan Komersil
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Reasuransi Konvensional
+Reasuransi Syariah
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Mobil
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Reparasi dan Perawatan Sepeda Motor
+Restoran
+Rumah Minum/Kafe
+Rumah Pijat
+Rumah Tinggal
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Taman Budaya
+Taman Rekreasi
+Transmisi Tenaga Listrik
+Trust, Pendanaan dan Entitas Keuangan Sejenis
+Unit Simpan Pinjam Koperasi Primer (USP Koperasi Primer)
+Unit Simpan Pinjam Koperasi Sekunder (USP Koperasi Sekunder)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Primer (USPPS Koperasi Primer)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Sekunder (USPPS Koperasi Sekunder)
+Unit Syariah Asuransi Jiwa
+Unit Syariah Asuransi Umum
+Unit Syariah Dana Pensiun Pemberi Kerja
+Unit Syariah Perusahaan Penjaminan
+Unit Syariah Reasuransi
+Unit Usaha Syariah Bank Umum
+Unit Usaha Syariah Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending)
+Unit Usaha Syariah Modal Ventura
+Unit Usaha Syariah Pegadaian
+Unit Usaha Syariah Perusahaan Pembiayaan
+Unit Usaha Syariah Perusahaan Pembiayaan Infrastruktur
+Usaha Arena Permainan
+Wali Amanat (Trustee)
+Wisata Budaya Lainnya
+Wisata Memancing</v>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <v/>
+      </c>
+      <c r="AF19" t="str">
+        <v/>
+      </c>
+      <c r="AG19" t="str">
+        <v/>
+      </c>
+      <c r="AH19" t="str">
+        <v/>
+      </c>
+      <c r="AI19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
         <v>Perikanan Budi Daya</v>
       </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str" xml:space="preserve">
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 60%
 Koefisien Lantai Bangunan
@@ -3127,111 +5287,111 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <v/>
-      </c>
-      <c r="L18" t="str">
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
         <v>Tidak ada kegiatan diizinkan</v>
       </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <v/>
-      </c>
-      <c r="P18" t="str">
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <v/>
-      </c>
-      <c r="R18" t="str">
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <v/>
-      </c>
-      <c r="V18" t="str">
-        <v/>
-      </c>
-      <c r="W18" t="str">
-        <v/>
-      </c>
-      <c r="X18" t="str">
-        <v/>
-      </c>
-      <c r="Y18" t="str">
-        <v/>
-      </c>
-      <c r="Z18" t="str">
-        <v/>
-      </c>
-      <c r="AA18" t="str">
-        <v/>
-      </c>
-      <c r="AB18" t="str">
-        <v/>
-      </c>
-      <c r="AC18" t="str">
-        <v/>
-      </c>
-      <c r="AD18" t="str">
-        <v/>
-      </c>
-      <c r="AE18" t="str">
-        <v/>
-      </c>
-      <c r="AF18" t="str">
-        <v/>
-      </c>
-      <c r="AG18" t="str">
-        <v/>
-      </c>
-      <c r="AH18" t="str">
-        <v/>
-      </c>
-      <c r="AI18" t="str">
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <v/>
+      </c>
+      <c r="AF20" t="str">
+        <v/>
+      </c>
+      <c r="AG20" t="str">
+        <v/>
+      </c>
+      <c r="AH20" t="str">
+        <v/>
+      </c>
+      <c r="AI20" t="str">
         <v/>
       </c>
     </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19">
+    <row r="21" xml:space="preserve">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
         <v>Perkantoran</v>
       </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="str" xml:space="preserve">
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 70%
 Koefisien Lantai Bangunan
@@ -3269,19 +5429,19 @@
 Maksimum Kolektor: 3 lantai
 Maksimum Lokal: 3 lantai</v>
       </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <v/>
-      </c>
-      <c r="L19" t="str" xml:space="preserve">
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str" xml:space="preserve">
         <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
 Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
 Administrasi Pelayanan Pemerintah Bidang Kesehatan
@@ -3332,98 +5492,502 @@
 Aktivitas Jasa Informasi Lainnya YTDL
 Aktivitas Jasa Keuangan Lainnya YDTL, Bukan Asuransi dan Dana Pensiun
 Aktivitas Jasa Penunjang Usaha Lainnya YTDL
-... dan 405 kegiatan lainnya</v>
-      </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <v/>
-      </c>
-      <c r="R19" t="str">
-        <v/>
-      </c>
-      <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <v/>
-      </c>
-      <c r="V19" t="str">
-        <v/>
-      </c>
-      <c r="W19" t="str">
-        <v/>
-      </c>
-      <c r="X19" t="str">
-        <v/>
-      </c>
-      <c r="Y19" t="str">
-        <v/>
-      </c>
-      <c r="Z19" t="str">
-        <v/>
-      </c>
-      <c r="AA19" t="str">
-        <v/>
-      </c>
-      <c r="AB19" t="str">
-        <v/>
-      </c>
-      <c r="AC19" t="str">
-        <v/>
-      </c>
-      <c r="AD19" t="str">
-        <v/>
-      </c>
-      <c r="AE19" t="str">
-        <v/>
-      </c>
-      <c r="AF19" t="str">
-        <v/>
-      </c>
-      <c r="AG19" t="str">
-        <v/>
-      </c>
-      <c r="AH19" t="str">
-        <v/>
-      </c>
-      <c r="AI19" t="str">
+Aktivitas Jasa Perorangan Lainnya YTDL
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Berita Oleh Pemerintah
+Aktivitas Kantor Berita Oleh Swasta
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kebugaran Lainnya
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Konsultan Aktuaria
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Keamanan Informasi
+Aktivitas Konsultasi Komputer dan Manajemen Fasilitas Komputer Lainnya
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Konsultasi dan Perancangan Internet Of Things (IOT)
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Manajemen Dana Lainnya
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Pangkas Rambut
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Pasca Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Pemeringkat Usaha Mikro, Kecil, Menengah dan Koperasi
+Aktivitas Pemrograman Berbasis Kecerdasan Artifisial
+Aktivitas Pemrograman Komputer Lainnya
+Aktivitas Pemrograman dan Produksi Konten Media Imersif
+Aktivitas Pemutaran Film
+Aktivitas Penatu
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerbitan Lainnya
+Aktivitas Penerbitan Musik dan Buku Musik
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
+Aktivitas Pengembangan Teknologi Blockchain
+Aktivitas Pengembangan Video Game
+Aktivitas Pengepakan
+Aktivitas Pengolahan Data
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penilai Kerugian Asuransi
+Aktivitas Penilaian Risiko Asuransi
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Asuransi, dan Dana Pensiun Lainnya
+Aktivitas Penunjang Jasa Keuangan Lainnya YTDL
+Aktivitas Penunjang Perdagangan Berjangka Komoditi Lainnya
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Identitas Digital
+Aktivitas Penyediaan Sertifikat Elektronik dan Layanan Yang Menggunakan Serfitikat Elektronik
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perekaman Suara
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Perusahaan Holding
+Aktivitas Pialang Asuransi
+Aktivitas Pialang Reasuransi
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Salon Kecantikan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif (Napza)
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Aktivitas Spa (Sante Par Aqua)
+Aktivitas Teknologi Informasi dan Jasa Komputer Lainnya
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Pertahanan Keamanan
+Aktivitas Telekomunikasi Khusus Untuk Keperluan Sendiri
+Aktivitas Telekomunikasi Khusus Untuk Penyiaran
+Aktivitas Telekomunikasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Aktivitas Vermak Pakaian
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Asuransi Jiwa Konvensional
+Asuransi Jiwa Syariah
+Asuransi Umum Konvensional
+Asuransi Umum Syariah
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Bangunan Pemerintahan
+Bank Pembiayaan Rakyat Syariah
+Bank Perkreditan Rakyat
+Bank Sentral
+Bank Umum Konvensional
+Bank Umum Syariah
+Biro Administrasi Efek
+Bursa Berjangka
+Bursa Berjangka Penyelenggara Pasar Fisik
+Bursa Efek
+Central Counterparty Transaksi Derivatif Suku Bunga dan Nilai Tukar
+Dana Pensiun Lembaga Keuangan Konvensional
+Dana Pensiun Lembaga Keuangan Syariah
+Dana Pensiun Pemberi Kerja Konvensional
+Dana Pensiun Pemberi Kerja Syariah
+Dekorasi Eksterior
+Dekorasi Interior
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Gerai Penjualan Efek Reksa Dana
+Hubungan Luar Negeri
+Instalasi Pendingin dan Ventilasi Udara
+Internet Service Provider
+Jajak Pendapat Masyarakat
+Jaminan Sosial Wajib
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interkoneksi Internet (NAP)
+Jasa Internet Telepon Untuk Keperluan Publik (ITKP)
+Jasa Interpreter Wisata
+Jasa Jual Kembali Jasa Telekomunikasi
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Konten SMS Premium
+Jasa Multimedia Lainnya
+Jasa Nilai Tambah Telepon Lainnya
+Jasa Panggilan Premium (Premium Call)
+Jasa Panggilan Terkelola (Calling Card)
+Jasa Pengujian Laboratorium
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
+Jasa Sistem Komunikasi Data
+Jasa Televisi Protokol Internet (IPTV)
+Jurnalis Berita Independen
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penukaran Valuta Asing (Money Changer)
+Kepolisian
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Perkantoran
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Khusus Lainnya YTDL
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Konstruksi Terowongan
+Koperasi Simpan Pinjam Primer (KSP Primer)
+Koperasi Simpan Pinjam Sekunder (KSP Sekunder)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Primer (KSPPS Primer)
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Sekunder (KSPPS Sekunder)
+Kustodian (Custodian)
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Konvensional
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Syariah
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Keuangan Mikro Konvensional
+Lembaga Keuangan Mikro Syariah
+Lembaga Kliring dan Penjaminan Berjangka
+Lembaga Kliring dan Penjaminan Berjangka Penyelenggara Pasar Fisik
+Lembaga Kliring dan Penjaminan Efek
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Pendanaan Efek
+Lembaga Penilaian Harga Efek (LPHE)
+Lembaga Penjamin Simpanan (LPS)
+Lembaga Penyimpanan dan Penyelesaian
+Lembaga Peradilan
+Lembaga Pertahanan Dan Angkatan Bersenjata
+Lembagan Pembiayaan Ekspor Indonesia
+Manajer Investasi
+Manajer Investasi Syariah
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Otoritas Jasa Keuangan (OJK)
+Pedagang Berjangka
+Pedagang Fisik Komoditi
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pemasangan Kerangka Baja
+Pemasangan Perancah (Steiger)
+Pemasangan Pondasi dan Tiang Pancang
+Pemasangan Rangka dan Atap/Roof Covering
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Penasihat Berjangka
+Penasihat Investasi Berbentuk Perusahaan
+Penasihat Investasi Perorangan
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak (Software)
+Penerbitan Surat Kabar, Jurnal dan Buletin atau Majalah
+Pengecatan
+Pengelola Sentra Dana Berjangka
+Pengelola Tempat Penyimpanan Fisik Komoditi
+Pengerjaan Lantai, Dinding, Peralatan Saniter dan Plafon
+Pengerjaan Pemasangan Kaca dan Aluminium
+Pengumpulan Limbah dan Sampah Tidak Berbahaya
+Penjamin Emisi efek (Underwriter)
+Penjualan Tenaga Listrik
+Penyedia Jasa Pembayaran (PJP)
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggara Dana Perlindungan Pemodal (PDPP)
+Penyelenggara Infrastruktur Perdagangan Di Pasar Modal Lainnya
+Penyelenggara Infrastruktur Sistem Pembayaran (PIP)
+Penyelenggara Kegiatan Jasa Pengolahan Uang Rupiah
+Penyelenggara Pasar Alternatif
+Penyelenggara Penawaran Efek Melalui Layanan Urun Dana Berbasis Teknologi Informasi (Securities Crowd Funding)
+Penyelenggara Penunjang Sistem Pembayaran
+Penyelenggara Sarana Pelaksanaan Transaksi Di Pasar Uang dan Pasar Valuta Asing
+Penyelenggara Sistem Perdagangan Alternatif
+Penyelenggaraan Infrastruktur Pasar Uang dan Pasar Valuta Asing
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Penyelesaian Konstruksi Bangunan Lainnya
+Penyewaaan Venue Penyelenggaraan Aktifitas MICE dan Event Khusus
+Penyewaan Alat Konstruksi dengan Operator
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perantara Moneter Lainnya
+Perantara Pedagang Efek (Broker Dealer)
+Perantara Pedagang Efek Bersifat Utang dan Suku (PPEEBUS)
+Perantara Perdagangan Berjangka Komoditi Lainnya
+Perantara Perdagangan Fisik Komoditi
+Perdagangan Eceran Alat Tulis Menulis dan Gambar
+Perdagangan Eceran Hasil Pencetakan dan Penerbitan
+Pergadaian Konvensional
+Pergadaian Syariah
+Periklanan
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pertahanan Sipil
+Perusahaan Efek Daerah (PED)
+Perusahaan Efek Selain Manajemen Investasi Lainnya
+Perusahaan Modal Ventura Konvensional
+Perusahaan Modal Ventura Syariah
+Perusahaan Pembiayaan Infrastruktur Konvensional
+Perusahaan Pembiayaan Infrastruktur Syariah
+Perusahaan Pembiayaan Konvensional
+Perusahaan Pembiayaan Sekunder Perumahan
+Perusahaan Pembiayaan Syariah
+Perusahaan Pemeringkat Efek
+Perusahaan Penjamin Konvensional
+Perusahaan Penjaminan Syariah
+Perusahaan Penjaminan Ulang Konvensional
+Perusahaan Penjaminan Ulang Syariah
+Pialang Perdagangan Berjangka
+Portal Web dan/atau Platform Digital Dengan Tujuan Komersil
+Portal Web dan/atau Platform Digital Tanpa Tujuan Komersil
+Reasuransi Konvensional
+Reasuransi Syariah
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Rumah Pijat
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Transmisi Tenaga Listrik
+Trust, Pendanaan dan Entitas Keuangan Sejenis
+Unit Simpan Pinjam Koperasi Primer (USP Koperasi Primer)
+Unit Simpan Pinjam Koperasi Sekunder (USP Koperasi Sekunder)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Primer (USPPS Koperasi Primer)
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Sekunder (USPPS Koperasi Sekunder)
+Unit Syariah Asuransi Jiwa
+Unit Syariah Asuransi Umum
+Unit Syariah Dana Pensiun Pemberi Kerja
+Unit Syariah Perusahaan Penjaminan
+Unit Syariah Reasuransi
+Unit Usaha Syariah Bank Umum
+Unit Usaha Syariah Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending)
+Unit Usaha Syariah Modal Ventura
+Unit Usaha Syariah Pegadaian
+Unit Usaha Syariah Perusahaan Pembiayaan
+Unit Usaha Syariah Perusahaan Pembiayaan Infrastruktur
+Wali Amanat (Trustee)</v>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <v/>
+      </c>
+      <c r="AF21" t="str">
+        <v/>
+      </c>
+      <c r="AG21" t="str">
+        <v/>
+      </c>
+      <c r="AH21" t="str">
+        <v/>
+      </c>
+      <c r="AI21" t="str">
         <v/>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20">
+    <row r="22" xml:space="preserve">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B20" t="str">
-        <v/>
-      </c>
-      <c r="C20" t="str">
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-      <c r="E20" t="str">
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
         <v>Perkebunan</v>
       </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str" xml:space="preserve">
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 40%
 Koefisien Lantai Bangunan
@@ -3461,19 +6025,19 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <v/>
-      </c>
-      <c r="J20" t="str">
-        <v/>
-      </c>
-      <c r="K20" t="str">
-        <v/>
-      </c>
-      <c r="L20" t="str" xml:space="preserve">
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str" xml:space="preserve">
         <v xml:space="preserve">Distribusi Tenaga Listrik
 Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
 Konstruksi Reservoir Pembangkit Listrik Tenaga Air
@@ -3507,96 +6071,96 @@
 Pertanian Tanaman Untuk Bahan Minuman
 Transmisi Tenaga Listrik</v>
       </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <v/>
-      </c>
-      <c r="P20" t="str">
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <v/>
-      </c>
-      <c r="R20" t="str">
-        <v/>
-      </c>
-      <c r="S20" t="str">
-        <v/>
-      </c>
-      <c r="T20" t="str">
-        <v/>
-      </c>
-      <c r="U20" t="str">
-        <v/>
-      </c>
-      <c r="V20" t="str">
-        <v/>
-      </c>
-      <c r="W20" t="str">
-        <v/>
-      </c>
-      <c r="X20" t="str">
-        <v/>
-      </c>
-      <c r="Y20" t="str">
-        <v/>
-      </c>
-      <c r="Z20" t="str">
-        <v/>
-      </c>
-      <c r="AA20" t="str">
-        <v/>
-      </c>
-      <c r="AB20" t="str">
-        <v/>
-      </c>
-      <c r="AC20" t="str">
-        <v/>
-      </c>
-      <c r="AD20" t="str">
-        <v/>
-      </c>
-      <c r="AE20" t="str">
-        <v/>
-      </c>
-      <c r="AF20" t="str">
-        <v/>
-      </c>
-      <c r="AG20" t="str">
-        <v/>
-      </c>
-      <c r="AH20" t="str">
-        <v/>
-      </c>
-      <c r="AI20" t="str">
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v/>
+      </c>
+      <c r="AC22" t="str">
+        <v/>
+      </c>
+      <c r="AD22" t="str">
+        <v/>
+      </c>
+      <c r="AE22" t="str">
+        <v/>
+      </c>
+      <c r="AF22" t="str">
+        <v/>
+      </c>
+      <c r="AG22" t="str">
+        <v/>
+      </c>
+      <c r="AH22" t="str">
+        <v/>
+      </c>
+      <c r="AI22" t="str">
         <v/>
       </c>
     </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21">
+    <row r="23" xml:space="preserve">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B21" t="str">
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
         <v>Perlindungan Setempat</v>
       </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str" xml:space="preserve">
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 10%
 Koefisien Lantai Bangunan
@@ -3634,112 +6198,112 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <v/>
-      </c>
-      <c r="L21" t="str" xml:space="preserve">
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str" xml:space="preserve">
         <v xml:space="preserve">Jurnalis Berita Independen
 Pemungutan Madu</v>
       </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <v/>
-      </c>
-      <c r="O21" t="str">
-        <v/>
-      </c>
-      <c r="P21" t="str">
-        <v/>
-      </c>
-      <c r="Q21" t="str">
-        <v/>
-      </c>
-      <c r="R21" t="str">
-        <v/>
-      </c>
-      <c r="S21" t="str">
-        <v/>
-      </c>
-      <c r="T21" t="str">
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <v/>
-      </c>
-      <c r="V21" t="str">
-        <v/>
-      </c>
-      <c r="W21" t="str">
-        <v/>
-      </c>
-      <c r="X21" t="str">
-        <v/>
-      </c>
-      <c r="Y21" t="str">
-        <v/>
-      </c>
-      <c r="Z21" t="str">
-        <v/>
-      </c>
-      <c r="AA21" t="str">
-        <v/>
-      </c>
-      <c r="AB21" t="str">
-        <v/>
-      </c>
-      <c r="AC21" t="str">
-        <v/>
-      </c>
-      <c r="AD21" t="str">
-        <v/>
-      </c>
-      <c r="AE21" t="str">
-        <v/>
-      </c>
-      <c r="AF21" t="str">
-        <v/>
-      </c>
-      <c r="AG21" t="str">
-        <v/>
-      </c>
-      <c r="AH21" t="str">
-        <v/>
-      </c>
-      <c r="AI21" t="str">
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <v/>
+      </c>
+      <c r="AE23" t="str">
+        <v/>
+      </c>
+      <c r="AF23" t="str">
+        <v/>
+      </c>
+      <c r="AG23" t="str">
+        <v/>
+      </c>
+      <c r="AH23" t="str">
+        <v/>
+      </c>
+      <c r="AI23" t="str">
         <v/>
       </c>
     </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22">
+    <row r="24" xml:space="preserve">
+      <c r="A24">
         <v>20</v>
       </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
         <v>Pertahanan dan Keamanan</v>
       </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str" xml:space="preserve">
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: -
 Koefisien Lantai Bangunan
@@ -3777,19 +6341,19 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <v/>
-      </c>
-      <c r="L22" t="str" xml:space="preserve">
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str" xml:space="preserve">
         <v xml:space="preserve">Aktivitas Telekomunikasi Khusus Untuk Keperluan Pertahanan Keamanan
 Angkatan Darat
 Angkatan Laut
@@ -3827,96 +6391,96 @@
 Pertahanan Sipil
 Transmisi Tenaga Listrik</v>
       </c>
-      <c r="M22" t="str">
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <v/>
-      </c>
-      <c r="O22" t="str">
-        <v/>
-      </c>
-      <c r="P22" t="str">
-        <v/>
-      </c>
-      <c r="Q22" t="str">
-        <v/>
-      </c>
-      <c r="R22" t="str">
-        <v/>
-      </c>
-      <c r="S22" t="str">
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <v/>
-      </c>
-      <c r="V22" t="str">
-        <v/>
-      </c>
-      <c r="W22" t="str">
-        <v/>
-      </c>
-      <c r="X22" t="str">
-        <v/>
-      </c>
-      <c r="Y22" t="str">
-        <v/>
-      </c>
-      <c r="Z22" t="str">
-        <v/>
-      </c>
-      <c r="AA22" t="str">
-        <v/>
-      </c>
-      <c r="AB22" t="str">
-        <v/>
-      </c>
-      <c r="AC22" t="str">
-        <v/>
-      </c>
-      <c r="AD22" t="str">
-        <v/>
-      </c>
-      <c r="AE22" t="str">
-        <v/>
-      </c>
-      <c r="AF22" t="str">
-        <v/>
-      </c>
-      <c r="AG22" t="str">
-        <v/>
-      </c>
-      <c r="AH22" t="str">
-        <v/>
-      </c>
-      <c r="AI22" t="str">
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <v/>
+      </c>
+      <c r="AE24" t="str">
+        <v/>
+      </c>
+      <c r="AF24" t="str">
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <v/>
+      </c>
+      <c r="AH24" t="str">
+        <v/>
+      </c>
+      <c r="AI24" t="str">
         <v/>
       </c>
     </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23">
+    <row r="25" xml:space="preserve">
+      <c r="A25">
         <v>21</v>
       </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
         <v>Perumahan Kepadatan Rendah</v>
       </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str" xml:space="preserve">
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 60%
 Koefisien Lantai Bangunan
@@ -3926,390 +6490,6 @@
 Minimum: 30
 Luas Kaveling
 Minimum: 120 m²
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: 1 m
-Jarak Bebas Belakang (JBB)
-Minimum: 1 m
-Lantai Bangunan
-Maksimum Kolektor: -
-Maksimum Lokal: -</v>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v/>
-      </c>
-      <c r="L23" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aktivitas Jasa Perorangan Lainnya YTDL
-Aktivitas Kebugaran Lainnya
-Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
-Aktivitas Olahraga Tradisional
-Aktivitas Organisasi Bisnis Dan Pengusaha
-Aktivitas Organisasi Buruh
-Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
-Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
-Aktivitas Organisasi Keagamaan
-Aktivitas Organisasi Keanggotaan Lainnya YTDL
-Aktivitas Organisasi Politik
-Aktivitas Pangkas Rambut
-Aktivitas Penatu
-Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
-Aktivitas Pengembangan Video Game
-Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
-Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
-Aktivitas Salon Kecantikan
-Aktivitas Spa (Sante Par Aqua)
-Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
-Aktivitas Vermak Pakaian
-Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
-Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
-Badan Regulasi Dan Liga Olahraga
-Distribusi Tenaga Listrik
-Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
-Fasilitas Gelanggang/Arena
-Fasilitas Lapangan
-Fasilitas Olahraga Beladiri
-Fasilitas Pusat Kebugaran/ Fitness Center
-Industri Air Minum dan Air Mineral
-Instalasi Sinyal dan Rambu-rambu Jalan Raya
-Klub Bela Diri
-Klub Bowling
-Klub Golf
-Klub Kebugaran/Fitness Dan Binaraga
-Klub Olahraga Lainnya
-Klub Renang
-Klub Sepak Bola
-Klub Tenis Lapangan
-Klub Tinju
-Kolam Pemancingan
-Konstruksi Bangunan Sipil Jalan
-Konstruksi Gedung Hunian
-Konstruksi Jaringan Irigasi dan Drainase
-Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
-Konstruksi Reservoir Pembangkit Listrik Tenaga Air
-Konstruksi Sentral Telekomunikasi
-Olahragawan, Juri Dan Wasit Profesional
-Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
-... dan 35 kegiatan lainnya</v>
-      </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <v/>
-      </c>
-      <c r="O23" t="str">
-        <v/>
-      </c>
-      <c r="P23" t="str">
-        <v/>
-      </c>
-      <c r="Q23" t="str">
-        <v/>
-      </c>
-      <c r="R23" t="str">
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <v/>
-      </c>
-      <c r="V23" t="str">
-        <v/>
-      </c>
-      <c r="W23" t="str">
-        <v/>
-      </c>
-      <c r="X23" t="str">
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <v/>
-      </c>
-      <c r="Z23" t="str">
-        <v/>
-      </c>
-      <c r="AA23" t="str">
-        <v/>
-      </c>
-      <c r="AB23" t="str">
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <v/>
-      </c>
-      <c r="AD23" t="str">
-        <v/>
-      </c>
-      <c r="AE23" t="str">
-        <v/>
-      </c>
-      <c r="AF23" t="str">
-        <v/>
-      </c>
-      <c r="AG23" t="str">
-        <v/>
-      </c>
-      <c r="AH23" t="str">
-        <v/>
-      </c>
-      <c r="AI23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="str">
-        <v/>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <v>Perumahan Kepadatan Sedang</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 70%
-Koefisien Lantai Bangunan
-KLB Maksimum: 2.1
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 20
-Luas Kaveling
-Minimum: 120 m²
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 9; dan
-c.: Jalan Lokal = 9.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: 1 m
-Jarak Bebas Belakang (JBB)
-Minimum: 1 m
-Lantai Bangunan
-Maksimum Kolektor: -
-Maksimum Lokal: -</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <v/>
-      </c>
-      <c r="L24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aktivitas Jasa Perorangan Lainnya YTDL
-Aktivitas Kebugaran Lainnya
-Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
-Aktivitas Olahraga Tradisional
-Aktivitas Organisasi Bisnis Dan Pengusaha
-Aktivitas Organisasi Buruh
-Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
-Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
-Aktivitas Organisasi Keagamaan
-Aktivitas Organisasi Keanggotaan Lainnya YTDL
-Aktivitas Organisasi Politik
-Aktivitas Pangkas Rambut
-Aktivitas Penatu
-Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
-Aktivitas Pengembangan Video Game
-Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
-Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
-Aktivitas Salon Kecantikan
-Aktivitas Spa (Sante Par Aqua)
-Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
-Aktivitas Vermak Pakaian
-Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
-Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
-Badan Regulasi Dan Liga Olahraga
-Distribusi Tenaga Listrik
-Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
-Fasilitas Gelanggang/Arena
-Fasilitas Lapangan
-Fasilitas Olahraga Beladiri
-Fasilitas Pusat Kebugaran/ Fitness Center
-Industri Air Minum dan Air Mineral
-Instalasi Sinyal dan Rambu-rambu Jalan Raya
-Klub Bela Diri
-Klub Bowling
-Klub Golf
-Klub Kebugaran/Fitness Dan Binaraga
-Klub Olahraga Lainnya
-Klub Renang
-Klub Sepak Bola
-Klub Tenis Lapangan
-Klub Tinju
-Kolam Pemancingan
-Konstruksi Bangunan Sipil Jalan
-Konstruksi Gedung Hunian
-Konstruksi Jaringan Irigasi dan Drainase
-Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
-Konstruksi Reservoir Pembangkit Listrik Tenaga Air
-Konstruksi Sentral Telekomunikasi
-Olahragawan, Juri Dan Wasit Profesional
-Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
-... dan 35 kegiatan lainnya</v>
-      </c>
-      <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <v/>
-      </c>
-      <c r="O24" t="str">
-        <v/>
-      </c>
-      <c r="P24" t="str">
-        <v/>
-      </c>
-      <c r="Q24" t="str">
-        <v/>
-      </c>
-      <c r="R24" t="str">
-        <v/>
-      </c>
-      <c r="S24" t="str">
-        <v/>
-      </c>
-      <c r="T24" t="str">
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <v/>
-      </c>
-      <c r="V24" t="str">
-        <v/>
-      </c>
-      <c r="W24" t="str">
-        <v/>
-      </c>
-      <c r="X24" t="str">
-        <v/>
-      </c>
-      <c r="Y24" t="str">
-        <v/>
-      </c>
-      <c r="Z24" t="str">
-        <v/>
-      </c>
-      <c r="AA24" t="str">
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <v/>
-      </c>
-      <c r="AC24" t="str">
-        <v/>
-      </c>
-      <c r="AD24" t="str">
-        <v/>
-      </c>
-      <c r="AE24" t="str">
-        <v/>
-      </c>
-      <c r="AF24" t="str">
-        <v/>
-      </c>
-      <c r="AG24" t="str">
-        <v/>
-      </c>
-      <c r="AH24" t="str">
-        <v/>
-      </c>
-      <c r="AI24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v>Perumahan Kepadatan Tinggi</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 80%
-Koefisien Lantai Bangunan
-KLB Maksimum: 2.4
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 20
-Luas Kaveling
-Minimum: 90 m²
 Ketinggian Bangunan
 Persil disebelah barat jalan Nasional:
 a.: Jalan Arteri = -;
@@ -4401,7 +6581,41 @@
 Konstruksi Sentral Telekomunikasi
 Olahragawan, Juri Dan Wasit Profesional
 Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
-... dan 35 kegiatan lainnya</v>
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Rumah Pijat
+Rumah Tinggal
+Taman Budaya
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Wisata Memancing</v>
       </c>
       <c r="M25" t="str">
         <v/>
@@ -4475,24 +6689,476 @@
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>Perumahan Kepadatan Sedang</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 70%
+Koefisien Lantai Bangunan
+KLB Maksimum: 2.1
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 20
+Luas Kaveling
+Minimum: 120 m²
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: 1 m
+Jarak Bebas Belakang (JBB)
+Minimum: 1 m
+Lantai Bangunan
+Maksimum Kolektor: -
+Maksimum Lokal: -</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Jasa Perorangan Lainnya YTDL
+Aktivitas Kebugaran Lainnya
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Olahraga Tradisional
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Pangkas Rambut
+Aktivitas Penatu
+Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
+Aktivitas Pengembangan Video Game
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
+Aktivitas Salon Kecantikan
+Aktivitas Spa (Sante Par Aqua)
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Aktivitas Vermak Pakaian
+Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Badan Regulasi Dan Liga Olahraga
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Industri Air Minum dan Air Mineral
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Kolam Pemancingan
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Gedung Hunian
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Olahragawan, Juri Dan Wasit Profesional
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Rumah Pijat
+Rumah Tinggal
+Taman Budaya
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Wisata Memancing</v>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <v/>
+      </c>
+      <c r="AE26" t="str">
+        <v/>
+      </c>
+      <c r="AF26" t="str">
+        <v/>
+      </c>
+      <c r="AG26" t="str">
+        <v/>
+      </c>
+      <c r="AH26" t="str">
+        <v/>
+      </c>
+      <c r="AI26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>Perumahan Kepadatan Tinggi</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 80%
+Koefisien Lantai Bangunan
+KLB Maksimum: 2.4
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 20
+Luas Kaveling
+Minimum: 90 m²
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 9; dan
+c.: Jalan Lokal = 9.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: 1 m
+Jarak Bebas Belakang (JBB)
+Minimum: 1 m
+Lantai Bangunan
+Maksimum Kolektor: -
+Maksimum Lokal: -</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Jasa Perorangan Lainnya YTDL
+Aktivitas Kebugaran Lainnya
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Olahraga Tradisional
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Pangkas Rambut
+Aktivitas Penatu
+Aktivitas Pengembangan Aplikasi Perdagangan Melalui Internet (E-Commerce)
+Aktivitas Pengembangan Video Game
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Rumah Tangga Sebagai Pemberi Kerja Dari Personil Domestik
+Aktivitas Salon Kecantikan
+Aktivitas Spa (Sante Par Aqua)
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Aktivitas Vermak Pakaian
+Aktivitas Yang Menghasilkan Barang Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Aktivitas Yang Menghasilkan Jasa Oleh Rumah Tangga Yang Digunakan Untuk Memenuhi Kebutuhan Sendiri
+Badan Regulasi Dan Liga Olahraga
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Industri Air Minum dan Air Mineral
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Kolam Pemancingan
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Gedung Hunian
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Olahragawan, Juri Dan Wasit Profesional
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Reparasi Alas Kaki dan Barang dari Kulit
+Reparasi Alat-Alat Elektronik Konsumen
+Reparasi Barang Rumah Tangga dan Pribadi Lainnya
+Reparasi Furnitur Dan Perlengkapan Rumah
+Reparasi Komputer Dan Peralatan Sejenisnya
+Reparasi Peralatan Komunikasi
+Reparasi Peralatan Rumah Tangga dan Peralatan Rumah dan Kebun
+Rumah Pijat
+Rumah Tinggal
+Taman Budaya
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Wisata Memancing</v>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <v/>
+      </c>
+      <c r="AF27" t="str">
+        <v/>
+      </c>
+      <c r="AG27" t="str">
+        <v/>
+      </c>
+      <c r="AH27" t="str">
+        <v/>
+      </c>
+      <c r="AI27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B26" t="str">
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
         <v>Ruang Terbuka Non Hijau</v>
       </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str" xml:space="preserve">
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 20%
 Koefisien Lantai Bangunan
@@ -4530,19 +7196,19 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H26" t="str">
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <v/>
-      </c>
-      <c r="L26" t="str" xml:space="preserve">
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str" xml:space="preserve">
         <v xml:space="preserve">Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
 Aktivitas Impresariat Bidang Seni Dan Festival Seni
 Aktivitas Operasional Fasilitas Seni
@@ -4570,390 +7236,6 @@
 Transmisi Tenaga Listrik
 Wisata Budaya Lainnya</v>
       </c>
-      <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <v/>
-      </c>
-      <c r="O26" t="str">
-        <v/>
-      </c>
-      <c r="P26" t="str">
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <v/>
-      </c>
-      <c r="R26" t="str">
-        <v/>
-      </c>
-      <c r="S26" t="str">
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <v/>
-      </c>
-      <c r="V26" t="str">
-        <v/>
-      </c>
-      <c r="W26" t="str">
-        <v/>
-      </c>
-      <c r="X26" t="str">
-        <v/>
-      </c>
-      <c r="Y26" t="str">
-        <v/>
-      </c>
-      <c r="Z26" t="str">
-        <v/>
-      </c>
-      <c r="AA26" t="str">
-        <v/>
-      </c>
-      <c r="AB26" t="str">
-        <v/>
-      </c>
-      <c r="AC26" t="str">
-        <v/>
-      </c>
-      <c r="AD26" t="str">
-        <v/>
-      </c>
-      <c r="AE26" t="str">
-        <v/>
-      </c>
-      <c r="AF26" t="str">
-        <v/>
-      </c>
-      <c r="AG26" t="str">
-        <v/>
-      </c>
-      <c r="AH26" t="str">
-        <v/>
-      </c>
-      <c r="AI26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="str">
-        <v/>
-      </c>
-      <c r="C27" t="str">
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v>SPU Skala Kecamatan</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 80%
-Koefisien Lantai Bangunan
-KLB Maksimum: 2.4
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 20
-Luas Kaveling
-Minimum: -
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 12; dan
-c.: Jalan Lokal = 12.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 12; dan
-c.: Jalan Lokal = 12.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: 1 m
-Jarak Bebas Belakang (JBB)
-Minimum: 1 m
-Lantai Bangunan
-Maksimum Kolektor: 2 lantai
-Maksimum Lokal: 2 lantai</v>
-      </c>
-      <c r="H27" t="str">
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <v/>
-      </c>
-      <c r="L27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
-Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
-Administrasi Pelayanan Pemerintah Bidang Kesehatan
-Administrasi Pelayanan Pemerintah Bidang Kesejahteraan Sosial
-Administrasi Pelayanan Pemerintah Bidang Lingkungan Hidup
-Administrasi Pelayanan Pemerintah Bidang Pendidikan
-Administrasi Pelayanan Pemerintah Bidang Perumahan
-Administrasi Pelayanan Pemerintah Bidang Sosial Lainnya Bukan Kesehatan, Pendidikan, Keagamaan Dan Kebudayaan
-Aktivitas Agen Kurir
-Aktivitas Agen Perjalanan Ibadah Umroh Dan Haji Khusus
-Aktivitas Agen Perjalanan Lainnya
-Aktivitas Agen Perjalanan Wisata
-Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
-Aktivitas Angkutan Khusus Pengangkutan Orang Sakit (Medical Evacuation)
-Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
-Aktivitas Arsitektur
-Aktivitas Biro Perjalanan Ibadah Umroh Dan Haji Khusus
-Aktivitas Biro Perjalanan Lainnya
-Aktivitas Biro Perjalanan Wisata
-Aktivitas Call Centre
-Aktivitas Debt Collection
-Aktivitas Desain Alat Komunikasi Dan Elektronika
-Aktivitas Desain Alat Transportasi Dan Permesinan
-Aktivitas Desain Industri Lainnya
-Aktivitas Desain Industri Strategis Dan Pertahanan
-Aktivitas Desain Interior
-Aktivitas Desain Khusus Film, Video, Program Tv, Animasi Dan Komik
-Aktivitas Desain Komunikasi Visual/ Desain Grafis
-Aktivitas Desain Konten Game
-Aktivitas Desain Konten Kreatif Lainya
-Aktivitas Desain Pengemasan
-Aktivitas Desain Peralatan Olahraga Dan Permainan
-Aktivitas Desain Peralatan Rumah Tangga Dan Furnitur
-Aktivitas Desain Produk Kesehatan, Kosmetik Dan Perlengkapan Laboratorium
-Aktivitas Desain Tekstil, Fashion Dan Apparel
-Aktivitas Fotografi
-Aktivitas Fotokopi, Penyiapan Dokumen Dan Aktivitas Khusus Penunjang Kantor Lainnya
-Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
-Aktivitas Hukum Lainnya
-Aktivitas Impresariat Bidang Seni Dan Festival Seni
-Aktivitas Jasa Penunjang Usaha Lainnya YTDL
-Aktivitas Jasa Sistem Keamanan
-Aktivitas Kantor Pusat
-Aktivitas Keamanan Swasta
-Aktivitas Kebersihan Bangunan Dan Industri Lainnya
-Aktivitas Kebersihan Umum Bangunan
-Aktivitas Kehumasan
-Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
-Aktivitas Kesehatan Hewan
-Aktivitas Konsultan Hukum
-... dan 286 kegiatan lainnya</v>
-      </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <v/>
-      </c>
-      <c r="P27" t="str">
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <v/>
-      </c>
-      <c r="R27" t="str">
-        <v/>
-      </c>
-      <c r="S27" t="str">
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <v/>
-      </c>
-      <c r="V27" t="str">
-        <v/>
-      </c>
-      <c r="W27" t="str">
-        <v/>
-      </c>
-      <c r="X27" t="str">
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <v/>
-      </c>
-      <c r="Z27" t="str">
-        <v/>
-      </c>
-      <c r="AA27" t="str">
-        <v/>
-      </c>
-      <c r="AB27" t="str">
-        <v/>
-      </c>
-      <c r="AC27" t="str">
-        <v/>
-      </c>
-      <c r="AD27" t="str">
-        <v/>
-      </c>
-      <c r="AE27" t="str">
-        <v/>
-      </c>
-      <c r="AF27" t="str">
-        <v/>
-      </c>
-      <c r="AG27" t="str">
-        <v/>
-      </c>
-      <c r="AH27" t="str">
-        <v/>
-      </c>
-      <c r="AI27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="str">
-        <v/>
-      </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <v>SPU Skala Kelurahan</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 70%
-Koefisien Lantai Bangunan
-KLB Maksimum: 2.1
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 20
-Luas Kaveling
-Minimum: -
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 12; dan
-c.: Jalan Lokal = 12.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 12; dan
-c.: Jalan Lokal = 12.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: 1 m
-Jarak Bebas Belakang (JBB)
-Minimum: 1 m
-Lantai Bangunan
-Maksimum Kolektor: 2 lantai
-Maksimum Lokal: 2 lantai</v>
-      </c>
-      <c r="H28" t="str">
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <v/>
-      </c>
-      <c r="L28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
-Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
-Administrasi Pelayanan Pemerintah Bidang Kesehatan
-Administrasi Pelayanan Pemerintah Bidang Kesejahteraan Sosial
-Administrasi Pelayanan Pemerintah Bidang Lingkungan Hidup
-Administrasi Pelayanan Pemerintah Bidang Pendidikan
-Administrasi Pelayanan Pemerintah Bidang Perumahan
-Administrasi Pelayanan Pemerintah Bidang Sosial Lainnya Bukan Kesehatan, Pendidikan, Keagamaan Dan Kebudayaan
-Aktivitas Agen Kurir
-Aktivitas Agen Perjalanan Ibadah Umroh Dan Haji Khusus
-Aktivitas Agen Perjalanan Lainnya
-Aktivitas Agen Perjalanan Wisata
-Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
-Aktivitas Angkutan Khusus Pengangkutan Orang Sakit (Medical Evacuation)
-Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
-Aktivitas Arsitektur
-Aktivitas Biro Perjalanan Ibadah Umroh Dan Haji Khusus
-Aktivitas Biro Perjalanan Lainnya
-Aktivitas Biro Perjalanan Wisata
-Aktivitas Call Centre
-Aktivitas Debt Collection
-Aktivitas Desain Alat Komunikasi Dan Elektronika
-Aktivitas Desain Alat Transportasi Dan Permesinan
-Aktivitas Desain Industri Lainnya
-Aktivitas Desain Industri Strategis Dan Pertahanan
-Aktivitas Desain Interior
-Aktivitas Desain Khusus Film, Video, Program Tv, Animasi Dan Komik
-Aktivitas Desain Komunikasi Visual/ Desain Grafis
-Aktivitas Desain Konten Game
-Aktivitas Desain Konten Kreatif Lainya
-Aktivitas Desain Pengemasan
-Aktivitas Desain Peralatan Olahraga Dan Permainan
-Aktivitas Desain Peralatan Rumah Tangga Dan Furnitur
-Aktivitas Desain Produk Kesehatan, Kosmetik Dan Perlengkapan Laboratorium
-Aktivitas Desain Tekstil, Fashion Dan Apparel
-Aktivitas Fotografi
-Aktivitas Fotokopi, Penyiapan Dokumen Dan Aktivitas Khusus Penunjang Kantor Lainnya
-Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
-Aktivitas Hukum Lainnya
-Aktivitas Impresariat Bidang Seni Dan Festival Seni
-Aktivitas Jasa Penunjang Usaha Lainnya YTDL
-Aktivitas Jasa Sistem Keamanan
-Aktivitas Kantor Pusat
-Aktivitas Keamanan Swasta
-Aktivitas Kebersihan Bangunan Dan Industri Lainnya
-Aktivitas Kebersihan Umum Bangunan
-Aktivitas Kehumasan
-Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
-Aktivitas Kesehatan Hewan
-Aktivitas Konsultan Hukum
-... dan 286 kegiatan lainnya</v>
-      </c>
       <c r="M28" t="str">
         <v/>
       </c>
@@ -5026,7 +7308,7 @@
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="str">
         <v/>
@@ -5038,7 +7320,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v>SPU Skala Kota</v>
+        <v>SPU Skala Kecamatan</v>
       </c>
       <c r="F29" t="str">
         <v/>
@@ -5144,7 +7426,292 @@
 Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
 Aktivitas Kesehatan Hewan
 Aktivitas Konsultan Hukum
-... dan 286 kegiatan lainnya</v>
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Kurir
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengepakan
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perburuan
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Pos
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Seni Pertunjukan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif (Napza)
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Hubungan Luar Negeri
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Jajak Pendapat Masyarakat
+Jaminan Sosial Wajib
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interpreter Wisata
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Pengujian Laboratorium
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
+Jurnalis Berita Independen
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penunjang Pendidikan
+Kepolisian
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Perkantoran
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Peradilan
+Lembaga Pertahanan Dan Angkatan Bersenjata
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kelompok Bermain
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Pesantren Tinggi (Ma’had Aly)
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Teknik Swasta
+Pendidikan Tinggi Akademik Pemerintah
+Pendidikan Tinggi Akademik Swasta
+Pendidikan Tinggi Keagamaan Pemerintah
+Pendidikan Tinggi Keagamaan Swasta
+Pendidikan Tinggi Vokasi Dan Profesi Pemerintah
+Pendidikan Tinggi Vokasi Dan Profesi Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pertahanan Sipil
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Taman Budaya
+Taman Rekreasi
+Tempat Peribadatan
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Yayasan Pendidikan</v>
       </c>
       <c r="M29" t="str">
         <v/>
@@ -5218,7 +7785,7 @@
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="str">
         <v/>
@@ -5230,19 +7797,19 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>SPU Skala RW</v>
+        <v>SPU Skala Kelurahan</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 60%
+Maksimum: 70%
 Koefisien Lantai Bangunan
-KLB Maksimum: 1.8
+KLB Maksimum: 2.1
 KLB Minimum: -
 Koefisien Dasar Hijau (%)
-Minimum: 30
+Minimum: 20
 Luas Kaveling
 Minimum: -
 Ketinggian Bangunan
@@ -5336,162 +7903,149 @@
 Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
 Aktivitas Kesehatan Hewan
 Aktivitas Konsultan Hukum
-... dan 286 kegiatan lainnya</v>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
-      </c>
-      <c r="O30" t="str">
-        <v/>
-      </c>
-      <c r="P30" t="str">
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <v/>
-      </c>
-      <c r="R30" t="str">
-        <v/>
-      </c>
-      <c r="S30" t="str">
-        <v/>
-      </c>
-      <c r="T30" t="str">
-        <v/>
-      </c>
-      <c r="U30" t="str">
-        <v/>
-      </c>
-      <c r="V30" t="str">
-        <v/>
-      </c>
-      <c r="W30" t="str">
-        <v/>
-      </c>
-      <c r="X30" t="str">
-        <v/>
-      </c>
-      <c r="Y30" t="str">
-        <v/>
-      </c>
-      <c r="Z30" t="str">
-        <v/>
-      </c>
-      <c r="AA30" t="str">
-        <v/>
-      </c>
-      <c r="AB30" t="str">
-        <v/>
-      </c>
-      <c r="AC30" t="str">
-        <v/>
-      </c>
-      <c r="AD30" t="str">
-        <v/>
-      </c>
-      <c r="AE30" t="str">
-        <v/>
-      </c>
-      <c r="AF30" t="str">
-        <v/>
-      </c>
-      <c r="AG30" t="str">
-        <v/>
-      </c>
-      <c r="AH30" t="str">
-        <v/>
-      </c>
-      <c r="AI30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="str">
-        <v/>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v>Taman Kecamatan</v>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str" xml:space="preserve">
-        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 20%
-Koefisien Lantai Bangunan
-KLB Maksimum: 0.2
-KLB Minimum: -
-Koefisien Dasar Hijau (%)
-Minimum: 80
-Luas Kaveling
-Minimum: -
-Ketinggian Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 5; dan
-c.: Jalan Lokal = 5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 5; dan
-c.: Jalan Lokal = 5.
-Koefisien Tapak Basement
--
-Garis Sempadan Bangunan
-Persil disebelah barat jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Persil disebelah timur jalan Nasional:
-a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 17.5; dan
-c.: Jalan Lokal = 12.5.
-Jarak Bebas Samping (JBS)
-Minimum: -
-Jarak Bebas Belakang (JBB)
-Minimum: -
-Lantai Bangunan
-Maksimum Kolektor: -
-Maksimum Lokal: -</v>
-      </c>
-      <c r="H31" t="str">
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <v/>
-      </c>
-      <c r="L31" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
-Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Kurir
 Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
 Aktivitas Olahraga Tradisional
 Aktivitas Operasional Fasilitas Seni
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
 Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
 Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengepakan
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
 Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
 Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perburuan
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Pos
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
 Aktivitas Seni Pertunjukan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif (Napza)
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
 Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Hubungan Luar Negeri
 Instalasi Sinyal dan Rambu-rambu Jalan Raya
 Jajak Pendapat Masyarakat
+Jaminan Sosial Wajib
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interpreter Wisata
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Pengujian Laboratorium
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
 Jurnalis Berita Independen
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penunjang Pendidikan
+Kepolisian
 Klub Bela Diri
 Klub Bowling
 Klub Golf
@@ -5501,133 +8055,249 @@
 Klub Sepak Bola
 Klub Tenis Lapangan
 Klub Tinju
-Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Perkantoran
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Peradilan
+Lembaga Pertahanan Dan Angkatan Bersenjata
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
 Pelaku Kreatif Seni Musik
 Pelaku Kreatif Seni Pertunjukan
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kelompok Bermain
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Pesantren Tinggi (Ma’had Aly)
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Teknik Swasta
+Pendidikan Tinggi Akademik Pemerintah
+Pendidikan Tinggi Akademik Swasta
+Pendidikan Tinggi Keagamaan Pemerintah
+Pendidikan Tinggi Keagamaan Swasta
+Pendidikan Tinggi Vokasi Dan Profesi Pemerintah
+Pendidikan Tinggi Vokasi Dan Profesi Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
 Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
 Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
 Penelitian Pasar
+Penelitian dan Pengembangan Seni
 Pengelolaan Fasilitas Olah Raga Lainnya
 Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
 Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
-Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
-Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
-Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pertahanan Sipil
 Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
 Taman Budaya
 Taman Rekreasi
-Taman Rekreasi/Taman Wisata
-Usaha Arena Permainan
-Wisata Budaya Lainnya</v>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
-      </c>
-      <c r="O31" t="str">
-        <v/>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
-      <c r="Q31" t="str">
-        <v/>
-      </c>
-      <c r="R31" t="str">
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <v/>
-      </c>
-      <c r="U31" t="str">
-        <v/>
-      </c>
-      <c r="V31" t="str">
-        <v/>
-      </c>
-      <c r="W31" t="str">
-        <v/>
-      </c>
-      <c r="X31" t="str">
-        <v/>
-      </c>
-      <c r="Y31" t="str">
-        <v/>
-      </c>
-      <c r="Z31" t="str">
-        <v/>
-      </c>
-      <c r="AA31" t="str">
-        <v/>
-      </c>
-      <c r="AB31" t="str">
-        <v/>
-      </c>
-      <c r="AC31" t="str">
-        <v/>
-      </c>
-      <c r="AD31" t="str">
-        <v/>
-      </c>
-      <c r="AE31" t="str">
-        <v/>
-      </c>
-      <c r="AF31" t="str">
-        <v/>
-      </c>
-      <c r="AG31" t="str">
-        <v/>
-      </c>
-      <c r="AH31" t="str">
-        <v/>
-      </c>
-      <c r="AI31" t="str">
+Tempat Peribadatan
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Yayasan Pendidikan</v>
+      </c>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <v/>
+      </c>
+      <c r="AE30" t="str">
+        <v/>
+      </c>
+      <c r="AF30" t="str">
+        <v/>
+      </c>
+      <c r="AG30" t="str">
+        <v/>
+      </c>
+      <c r="AH30" t="str">
+        <v/>
+      </c>
+      <c r="AI30" t="str">
         <v/>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <v>Taman Kelurahan</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str" xml:space="preserve">
+    <row r="31" xml:space="preserve">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>SPU Skala Kota</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
-Maksimum: 20%
+Maksimum: 80%
 Koefisien Lantai Bangunan
-KLB Maksimum: 0.2
+KLB Maksimum: 2.4
 KLB Minimum: -
 Koefisien Dasar Hijau (%)
-Minimum: 80
+Minimum: 20
 Luas Kaveling
 Minimum: -
 Ketinggian Bangunan
 Persil disebelah barat jalan Nasional:
 a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 5; dan
-c.: Jalan Lokal = 5.
+b.: Jalan Kolektor = 12; dan
+c.: Jalan Lokal = 12.
 Persil disebelah timur jalan Nasional:
 a.: Jalan Arteri = -;
-b.: Jalan Kolektor = 5; dan
-c.: Jalan Lokal = 5.
+b.: Jalan Kolektor = 12; dan
+c.: Jalan Lokal = 12.
 Koefisien Tapak Basement
 -
 Garis Sempadan Bangunan
@@ -5640,40 +8310,219 @@
 b.: Jalan Kolektor = 17.5; dan
 c.: Jalan Lokal = 12.5.
 Jarak Bebas Samping (JBS)
-Minimum: -
+Minimum: 1 m
 Jarak Bebas Belakang (JBB)
-Minimum: -
+Minimum: 1 m
 Lantai Bangunan
-Maksimum Kolektor: -
-Maksimum Lokal: -</v>
-      </c>
-      <c r="H32" t="str">
-        <v/>
-      </c>
-      <c r="I32" t="str">
-        <v/>
-      </c>
-      <c r="J32" t="str">
-        <v/>
-      </c>
-      <c r="K32" t="str">
-        <v/>
-      </c>
-      <c r="L32" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Maksimum Kolektor: 2 lantai
+Maksimum Lokal: 2 lantai</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
+Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
+Administrasi Pelayanan Pemerintah Bidang Kesehatan
+Administrasi Pelayanan Pemerintah Bidang Kesejahteraan Sosial
+Administrasi Pelayanan Pemerintah Bidang Lingkungan Hidup
+Administrasi Pelayanan Pemerintah Bidang Pendidikan
+Administrasi Pelayanan Pemerintah Bidang Perumahan
+Administrasi Pelayanan Pemerintah Bidang Sosial Lainnya Bukan Kesehatan, Pendidikan, Keagamaan Dan Kebudayaan
+Aktivitas Agen Kurir
+Aktivitas Agen Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Agen Perjalanan Lainnya
+Aktivitas Agen Perjalanan Wisata
+Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
+Aktivitas Angkutan Khusus Pengangkutan Orang Sakit (Medical Evacuation)
+Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Arsitektur
+Aktivitas Biro Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Biro Perjalanan Lainnya
+Aktivitas Biro Perjalanan Wisata
+Aktivitas Call Centre
+Aktivitas Debt Collection
+Aktivitas Desain Alat Komunikasi Dan Elektronika
+Aktivitas Desain Alat Transportasi Dan Permesinan
+Aktivitas Desain Industri Lainnya
+Aktivitas Desain Industri Strategis Dan Pertahanan
+Aktivitas Desain Interior
+Aktivitas Desain Khusus Film, Video, Program Tv, Animasi Dan Komik
+Aktivitas Desain Komunikasi Visual/ Desain Grafis
+Aktivitas Desain Konten Game
+Aktivitas Desain Konten Kreatif Lainya
+Aktivitas Desain Pengemasan
+Aktivitas Desain Peralatan Olahraga Dan Permainan
+Aktivitas Desain Peralatan Rumah Tangga Dan Furnitur
+Aktivitas Desain Produk Kesehatan, Kosmetik Dan Perlengkapan Laboratorium
+Aktivitas Desain Tekstil, Fashion Dan Apparel
+Aktivitas Fotografi
+Aktivitas Fotokopi, Penyiapan Dokumen Dan Aktivitas Khusus Penunjang Kantor Lainnya
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Hukum Lainnya
 Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Jasa Penunjang Usaha Lainnya YTDL
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Kurir
 Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
 Aktivitas Olahraga Tradisional
 Aktivitas Operasional Fasilitas Seni
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
 Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
 Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengepakan
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
 Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
 Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perburuan
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Pos
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
 Aktivitas Seni Pertunjukan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif (Napza)
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
 Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Hubungan Luar Negeri
 Instalasi Sinyal dan Rambu-rambu Jalan Raya
 Jajak Pendapat Masyarakat
+Jaminan Sosial Wajib
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interpreter Wisata
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Pengujian Laboratorium
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
 Jurnalis Berita Independen
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penunjang Pendidikan
+Kepolisian
 Klub Bela Diri
 Klub Bowling
 Klub Golf
@@ -5683,23 +8532,617 @@
 Klub Sepak Bola
 Klub Tenis Lapangan
 Klub Tinju
-Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Perkantoran
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Peradilan
+Lembaga Pertahanan Dan Angkatan Bersenjata
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
 Pelaku Kreatif Seni Musik
 Pelaku Kreatif Seni Pertunjukan
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kelompok Bermain
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Pesantren Tinggi (Ma’had Aly)
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Teknik Swasta
+Pendidikan Tinggi Akademik Pemerintah
+Pendidikan Tinggi Akademik Swasta
+Pendidikan Tinggi Keagamaan Pemerintah
+Pendidikan Tinggi Keagamaan Swasta
+Pendidikan Tinggi Vokasi Dan Profesi Pemerintah
+Pendidikan Tinggi Vokasi Dan Profesi Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
 Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
 Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
 Penelitian Pasar
+Penelitian dan Pengembangan Seni
 Pengelolaan Fasilitas Olah Raga Lainnya
 Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
 Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
-Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
-Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
-Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pertahanan Sipil
 Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
 Taman Budaya
 Taman Rekreasi
-Taman Rekreasi/Taman Wisata
-Wisata Budaya Lainnya</v>
+Tempat Peribadatan
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Yayasan Pendidikan</v>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <v/>
+      </c>
+      <c r="AE31" t="str">
+        <v/>
+      </c>
+      <c r="AF31" t="str">
+        <v/>
+      </c>
+      <c r="AG31" t="str">
+        <v/>
+      </c>
+      <c r="AH31" t="str">
+        <v/>
+      </c>
+      <c r="AI31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>SPU Skala RW</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 60%
+Koefisien Lantai Bangunan
+KLB Maksimum: 1.8
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 30
+Luas Kaveling
+Minimum: -
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 12; dan
+c.: Jalan Lokal = 12.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 12; dan
+c.: Jalan Lokal = 12.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: 1 m
+Jarak Bebas Belakang (JBB)
+Minimum: 1 m
+Lantai Bangunan
+Maksimum Kolektor: 2 lantai
+Maksimum Lokal: 2 lantai</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Administrasi Pelayanan Pemerintah Bidang Keagamaan
+Administrasi Pelayanan Pemerintah Bidang Kebudayaan/Kesenian/Rekreasi/Olahraga
+Administrasi Pelayanan Pemerintah Bidang Kesehatan
+Administrasi Pelayanan Pemerintah Bidang Kesejahteraan Sosial
+Administrasi Pelayanan Pemerintah Bidang Lingkungan Hidup
+Administrasi Pelayanan Pemerintah Bidang Pendidikan
+Administrasi Pelayanan Pemerintah Bidang Perumahan
+Administrasi Pelayanan Pemerintah Bidang Sosial Lainnya Bukan Kesehatan, Pendidikan, Keagamaan Dan Kebudayaan
+Aktivitas Agen Kurir
+Aktivitas Agen Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Agen Perjalanan Lainnya
+Aktivitas Agen Perjalanan Wisata
+Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
+Aktivitas Angkutan Khusus Pengangkutan Orang Sakit (Medical Evacuation)
+Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Arsitektur
+Aktivitas Biro Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Biro Perjalanan Lainnya
+Aktivitas Biro Perjalanan Wisata
+Aktivitas Call Centre
+Aktivitas Debt Collection
+Aktivitas Desain Alat Komunikasi Dan Elektronika
+Aktivitas Desain Alat Transportasi Dan Permesinan
+Aktivitas Desain Industri Lainnya
+Aktivitas Desain Industri Strategis Dan Pertahanan
+Aktivitas Desain Interior
+Aktivitas Desain Khusus Film, Video, Program Tv, Animasi Dan Komik
+Aktivitas Desain Komunikasi Visual/ Desain Grafis
+Aktivitas Desain Konten Game
+Aktivitas Desain Konten Kreatif Lainya
+Aktivitas Desain Pengemasan
+Aktivitas Desain Peralatan Olahraga Dan Permainan
+Aktivitas Desain Peralatan Rumah Tangga Dan Furnitur
+Aktivitas Desain Produk Kesehatan, Kosmetik Dan Perlengkapan Laboratorium
+Aktivitas Desain Tekstil, Fashion Dan Apparel
+Aktivitas Fotografi
+Aktivitas Fotokopi, Penyiapan Dokumen Dan Aktivitas Khusus Penunjang Kantor Lainnya
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Hukum Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Jasa Penunjang Usaha Lainnya YTDL
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Kurir
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Lembaga Pengelola Informasi Perkreditan
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Organisasi Bisnis Dan Pengusaha
+Aktivitas Organisasi Buruh
+Aktivitas Organisasi Ilmu Pengetahuan Alam Dan Teknologi
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Organisasi Keagamaan
+Aktivitas Organisasi Keanggotaan Lainnya YTDL
+Aktivitas Organisasi Politik
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring (Job Portal)
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengepakan
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perburuan
+Aktivitas Perparkiran Di Luar Badan Jalan (Off Street Parking)
+Aktivitas Pos
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Seni Pertunjukan
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif (Napza)
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Badan Regulasi Dan Liga Olahraga
+Bangunan Pemerintahan
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Hubungan Luar Negeri
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Jajak Pendapat Masyarakat
+Jaminan Sosial Wajib
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control (Qc)
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interpreter Wisata
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Pengujian Laboratorium
+Jasa Penyelenggara Event Khusus (Special Event)
+Jasa Penyelenggara Pertemuan, Perjalanan Insentif, Konferensi Dan Pameran (Mice)
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
+Jurnalis Berita Independen
+Kegiatan Administrasi Pemerintahan Lainnya
+Kegiatan Lembaga Pemerintahan Bidang Ketenagakerjaan
+Kegiatan Lembaga Pemerintahan Bidang Komunikasi Dan Informatika
+Kegiatan Lembaga Pemerintahan Bidang Konstruksi
+Kegiatan Lembaga Pemerintahan Bidang Perdagangan Dan Pariwisata
+Kegiatan Lembaga Pemerintahan Bidang Perhubungan
+Kegiatan Lembaga Pemerintahan Bidang Perindustrian
+Kegiatan Lembaga Pemerintahan Bidang Pertambangan Dan Penggalian, Listrik, Air Dan Gas
+Kegiatan Lembaga Pemerintahan Bidang Pertanian
+Kegiatan Lembaga Pemerintahan Untuk Menciptakan Efisiensi Produksi Dan Bisnis Lainnya
+Kegiatan Penunjang Pendidikan
+Kepolisian
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Perkantoran
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Lembaga Eksekutif Keuangan, Perpajakan Dan Bea Cukai
+Lembaga Eksekutif Perencanaan
+Lembaga Legislatif
+Lembaga Pemerintah Non Kementrian Dengan Tugas Khusus
+Lembaga Peradilan
+Lembaga Pertahanan Dan Angkatan Bersenjata
+Museum Yang Dikelola Pemerintah
+Museum Yang Dikelola Swasta
+Olahragawan, Juri Dan Wasit Profesional
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kelompok Bermain
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Pesantren Tinggi (Ma’had Aly)
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Teknik Swasta
+Pendidikan Tinggi Akademik Pemerintah
+Pendidikan Tinggi Akademik Swasta
+Pendidikan Tinggi Keagamaan Pemerintah
+Pendidikan Tinggi Keagamaan Swasta
+Pendidikan Tinggi Vokasi Dan Profesi Pemerintah
+Pendidikan Tinggi Vokasi Dan Profesi Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Penyelenggaraan Pemerintah Negara Dan Kesekretariatan Negara
+Perpustakaan Dan Arsip Pemerintah
+Perpustakaan Dan Arsip Swasta
+Pertahanan Sipil
+Produksi Kompos Sampah Organik
+Promotor Kegiatan Olahraga
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Taman Budaya
+Taman Rekreasi
+Tempat Peribadatan
+Transmisi Tenaga Listrik
+Wisata Budaya Lainnya
+Yayasan Pendidikan</v>
       </c>
       <c r="M32" t="str">
         <v/>
@@ -5773,7 +9216,7 @@
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="str">
         <v/>
@@ -5785,7 +9228,7 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <v>Taman Kota</v>
+        <v>Taman Kecamatan</v>
       </c>
       <c r="F33" t="str">
         <v/>
@@ -5955,7 +9398,7 @@
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="str">
         <v/>
@@ -5967,7 +9410,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>Taman RT</v>
+        <v>Taman Kelurahan</v>
       </c>
       <c r="F34" t="str">
         <v/>
@@ -6023,6 +9466,369 @@
         <v/>
       </c>
       <c r="L34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Olahraga Tradisional
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Seni Pertunjukan
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Jajak Pendapat Masyarakat
+Jurnalis Berita Independen
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Jaringan Irigasi dan Drainase
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Pasar
+Pengelolaan Fasilitas Olah Raga Lainnya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
+Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
+Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Produksi Kompos Sampah Organik
+Taman Budaya
+Taman Rekreasi
+Taman Rekreasi/Taman Wisata
+Wisata Budaya Lainnya</v>
+      </c>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <v/>
+      </c>
+      <c r="AA34" t="str">
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <v/>
+      </c>
+      <c r="AD34" t="str">
+        <v/>
+      </c>
+      <c r="AE34" t="str">
+        <v/>
+      </c>
+      <c r="AF34" t="str">
+        <v/>
+      </c>
+      <c r="AG34" t="str">
+        <v/>
+      </c>
+      <c r="AH34" t="str">
+        <v/>
+      </c>
+      <c r="AI34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>Taman Kota</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 20%
+Koefisien Lantai Bangunan
+KLB Maksimum: 0.2
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 80
+Luas Kaveling
+Minimum: -
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 5; dan
+c.: Jalan Lokal = 5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 5; dan
+c.: Jalan Lokal = 5.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: -
+Jarak Bebas Belakang (JBB)
+Minimum: -
+Lantai Bangunan
+Maksimum Kolektor: -
+Maksimum Lokal: -</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Olahraga Tradisional
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Seni Pertunjukan
+Aktivitas Taman Bertema Atau Taman Hiburan Lainnya
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Jajak Pendapat Masyarakat
+Jurnalis Berita Independen
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Jaringan Irigasi dan Drainase
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Pasar
+Pengelolaan Fasilitas Olah Raga Lainnya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Perdagangan Eceran Keliling Barang Kerajinan, Mainan Anak-anak dan Lukisan
+Perdagangan Eceran Keliling Komoditi Makanan dari Hasil Pertanian
+Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
+Produksi Kompos Sampah Organik
+Taman Budaya
+Taman Rekreasi
+Taman Rekreasi/Taman Wisata
+Usaha Arena Permainan
+Wisata Budaya Lainnya</v>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <v/>
+      </c>
+      <c r="AD35" t="str">
+        <v/>
+      </c>
+      <c r="AE35" t="str">
+        <v/>
+      </c>
+      <c r="AF35" t="str">
+        <v/>
+      </c>
+      <c r="AG35" t="str">
+        <v/>
+      </c>
+      <c r="AH35" t="str">
+        <v/>
+      </c>
+      <c r="AI35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>Taman RT</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Koefisien Dasar Bangunan (%)
+Maksimum: 20%
+Koefisien Lantai Bangunan
+KLB Maksimum: 0.2
+KLB Minimum: -
+Koefisien Dasar Hijau (%)
+Minimum: 80
+Luas Kaveling
+Minimum: -
+Ketinggian Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 5; dan
+c.: Jalan Lokal = 5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 5; dan
+c.: Jalan Lokal = 5.
+Koefisien Tapak Basement
+-
+Garis Sempadan Bangunan
+Persil disebelah barat jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Persil disebelah timur jalan Nasional:
+a.: Jalan Arteri = -;
+b.: Jalan Kolektor = 17.5; dan
+c.: Jalan Lokal = 12.5.
+Jarak Bebas Samping (JBS)
+Minimum: -
+Jarak Bebas Belakang (JBB)
+Minimum: -
+Lantai Bangunan
+Maksimum Kolektor: -
+Maksimum Lokal: -</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str" xml:space="preserve">
         <v xml:space="preserve">Aktivitas Perawatan Dan Pemeliharaan Taman
 Instalasi Sinyal dan Rambu-rambu Jalan Raya
 Jajak Pendapat Masyarakat
@@ -6036,96 +9842,96 @@
 Perdagangan Eceran Keliling Tekstil, Pakaian, Alas Kaki dan Barang Keperluan Pribadi
 Produksi Kompos Sampah Organik</v>
       </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v/>
-      </c>
-      <c r="O34" t="str">
-        <v/>
-      </c>
-      <c r="P34" t="str">
-        <v/>
-      </c>
-      <c r="Q34" t="str">
-        <v/>
-      </c>
-      <c r="R34" t="str">
-        <v/>
-      </c>
-      <c r="S34" t="str">
-        <v/>
-      </c>
-      <c r="T34" t="str">
-        <v/>
-      </c>
-      <c r="U34" t="str">
-        <v/>
-      </c>
-      <c r="V34" t="str">
-        <v/>
-      </c>
-      <c r="W34" t="str">
-        <v/>
-      </c>
-      <c r="X34" t="str">
-        <v/>
-      </c>
-      <c r="Y34" t="str">
-        <v/>
-      </c>
-      <c r="Z34" t="str">
-        <v/>
-      </c>
-      <c r="AA34" t="str">
-        <v/>
-      </c>
-      <c r="AB34" t="str">
-        <v/>
-      </c>
-      <c r="AC34" t="str">
-        <v/>
-      </c>
-      <c r="AD34" t="str">
-        <v/>
-      </c>
-      <c r="AE34" t="str">
-        <v/>
-      </c>
-      <c r="AF34" t="str">
-        <v/>
-      </c>
-      <c r="AG34" t="str">
-        <v/>
-      </c>
-      <c r="AH34" t="str">
-        <v/>
-      </c>
-      <c r="AI34" t="str">
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <v/>
+      </c>
+      <c r="AA36" t="str">
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <v/>
+      </c>
+      <c r="AD36" t="str">
+        <v/>
+      </c>
+      <c r="AE36" t="str">
+        <v/>
+      </c>
+      <c r="AF36" t="str">
+        <v/>
+      </c>
+      <c r="AG36" t="str">
+        <v/>
+      </c>
+      <c r="AH36" t="str">
+        <v/>
+      </c>
+      <c r="AI36" t="str">
         <v/>
       </c>
     </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35">
+    <row r="37" xml:space="preserve">
+      <c r="A37">
         <v>33</v>
       </c>
-      <c r="B35" t="str">
-        <v/>
-      </c>
-      <c r="C35" t="str">
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <v/>
-      </c>
-      <c r="E35" t="str">
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
         <v>Taman RW</v>
       </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str" xml:space="preserve">
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 20%
 Koefisien Lantai Bangunan
@@ -6163,19 +9969,19 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H35" t="str">
-        <v/>
-      </c>
-      <c r="I35" t="str">
-        <v/>
-      </c>
-      <c r="J35" t="str">
-        <v/>
-      </c>
-      <c r="K35" t="str">
-        <v/>
-      </c>
-      <c r="L35" t="str" xml:space="preserve">
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str" xml:space="preserve">
         <v xml:space="preserve">Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
 Aktivitas Olahraga Tradisional
 Aktivitas Perawatan Dan Pemeliharaan Taman
@@ -6208,96 +10014,96 @@
 Taman Rekreasi/Taman Wisata
 Wisata Budaya Lainnya</v>
       </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <v/>
-      </c>
-      <c r="O35" t="str">
-        <v/>
-      </c>
-      <c r="P35" t="str">
-        <v/>
-      </c>
-      <c r="Q35" t="str">
-        <v/>
-      </c>
-      <c r="R35" t="str">
-        <v/>
-      </c>
-      <c r="S35" t="str">
-        <v/>
-      </c>
-      <c r="T35" t="str">
-        <v/>
-      </c>
-      <c r="U35" t="str">
-        <v/>
-      </c>
-      <c r="V35" t="str">
-        <v/>
-      </c>
-      <c r="W35" t="str">
-        <v/>
-      </c>
-      <c r="X35" t="str">
-        <v/>
-      </c>
-      <c r="Y35" t="str">
-        <v/>
-      </c>
-      <c r="Z35" t="str">
-        <v/>
-      </c>
-      <c r="AA35" t="str">
-        <v/>
-      </c>
-      <c r="AB35" t="str">
-        <v/>
-      </c>
-      <c r="AC35" t="str">
-        <v/>
-      </c>
-      <c r="AD35" t="str">
-        <v/>
-      </c>
-      <c r="AE35" t="str">
-        <v/>
-      </c>
-      <c r="AF35" t="str">
-        <v/>
-      </c>
-      <c r="AG35" t="str">
-        <v/>
-      </c>
-      <c r="AH35" t="str">
-        <v/>
-      </c>
-      <c r="AI35" t="str">
+      <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <v/>
+      </c>
+      <c r="AD37" t="str">
+        <v/>
+      </c>
+      <c r="AE37" t="str">
+        <v/>
+      </c>
+      <c r="AF37" t="str">
+        <v/>
+      </c>
+      <c r="AG37" t="str">
+        <v/>
+      </c>
+      <c r="AH37" t="str">
+        <v/>
+      </c>
+      <c r="AI37" t="str">
         <v/>
       </c>
     </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36">
+    <row r="38" xml:space="preserve">
+      <c r="A38">
         <v>34</v>
       </c>
-      <c r="B36" t="str">
-        <v/>
-      </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-      <c r="E36" t="str">
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
         <v>Tanaman Pangan</v>
       </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="str" xml:space="preserve">
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
         <v xml:space="preserve">Koefisien Dasar Bangunan (%)
 Maksimum: 10%
 Koefisien Lantai Bangunan
@@ -6335,19 +10141,19 @@
 Maksimum Kolektor: -
 Maksimum Lokal: -</v>
       </c>
-      <c r="H36" t="str">
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <v/>
-      </c>
-      <c r="J36" t="str">
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <v/>
-      </c>
-      <c r="L36" t="str" xml:space="preserve">
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str" xml:space="preserve">
         <v xml:space="preserve">Distribusi Tenaga Listrik
 Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
 Konstruksi Reservoir Pembangkit Listrik Tenaga Air
@@ -6369,79 +10175,79 @@
 Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
 Transmisi Tenaga Listrik</v>
       </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <v/>
-      </c>
-      <c r="O36" t="str">
-        <v/>
-      </c>
-      <c r="P36" t="str">
-        <v/>
-      </c>
-      <c r="Q36" t="str">
-        <v/>
-      </c>
-      <c r="R36" t="str">
-        <v/>
-      </c>
-      <c r="S36" t="str">
-        <v/>
-      </c>
-      <c r="T36" t="str">
-        <v/>
-      </c>
-      <c r="U36" t="str">
-        <v/>
-      </c>
-      <c r="V36" t="str">
-        <v/>
-      </c>
-      <c r="W36" t="str">
-        <v/>
-      </c>
-      <c r="X36" t="str">
-        <v/>
-      </c>
-      <c r="Y36" t="str">
-        <v/>
-      </c>
-      <c r="Z36" t="str">
-        <v/>
-      </c>
-      <c r="AA36" t="str">
-        <v/>
-      </c>
-      <c r="AB36" t="str">
-        <v/>
-      </c>
-      <c r="AC36" t="str">
-        <v/>
-      </c>
-      <c r="AD36" t="str">
-        <v/>
-      </c>
-      <c r="AE36" t="str">
-        <v/>
-      </c>
-      <c r="AF36" t="str">
-        <v/>
-      </c>
-      <c r="AG36" t="str">
-        <v/>
-      </c>
-      <c r="AH36" t="str">
-        <v/>
-      </c>
-      <c r="AI36" t="str">
+      <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <v/>
+      </c>
+      <c r="AA38" t="str">
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <v/>
+      </c>
+      <c r="AD38" t="str">
+        <v/>
+      </c>
+      <c r="AE38" t="str">
+        <v/>
+      </c>
+      <c r="AF38" t="str">
+        <v/>
+      </c>
+      <c r="AG38" t="str">
+        <v/>
+      </c>
+      <c r="AH38" t="str">
+        <v/>
+      </c>
+      <c r="AI38" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/data/uji titik/uji-titik-bsb.xlsx
+++ b/app/data/uji titik/uji-titik-bsb.xlsx
@@ -752,8 +752,165 @@
       <c r="U3" t="str">
         <v/>
       </c>
-      <c r="V3" t="str">
-        <v/>
+      <c r="V3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Ekspedisi Muatan Kapal
+Aktivitas Kawasan Alam Lainnya
+Aktivitas Telekomunikasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Aktivitas Wisata Air
+Analisis Dan Uji Teknis Lainnya
+Arung Jeram
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Laut
+Budidaya Ikan Hias Air Tawar
+Budidaya Karang
+Daya Tarik Wisata Alam Lainnya
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Internet Service Provider
+Jasa Instalasi Konstruksi Navigasi Laut, Sungai, dan Udara
+Jasa Pekerjaan Konstruksi Pelindung Pantai
+Kawasan Pariwisata
+Kolam Pemancingan
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Pemandian Alam
+Pembangkitan Tenaga Listrik
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembenihan Ikan Laut
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Mollusca Laut
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Pisces/Ikan Bersirip Laut
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penangkapan Biota Air Lainnya Di Laut
+Penangkapan Biota Air Lainnya Di Perairan Darat
+Penangkapan Coelenterata Di Laut
+Penangkapan Crustacea Di Laut
+Penangkapan Crustacea Di Perairan Darat
+Penangkapan Echinodermata Di Laut
+Penangkapan Ikan Hias Laut
+Penangkapan Ikan Hias di Perairan Darat
+Penangkapan Mollusca Di Laut
+Penangkapan Mollusca Di Perairan Darat
+Penangkapan Pisces/Ikan Bersirip Di Laut
+Penangkapan Pisces/Ikan Bersirip Di Perairan Darat
+Penangkapan/Pengambilan Induk/Benih Ikan Di Laut
+Penangkapan/Pengambilan Induk/Benih Ikan Di Perairan darat
+Penangkapan/Pengambilan Tumbuhan Air Di Laut
+Penangkapan/Pengambilan Tumbuhan Air Di Perairan Darat
+Penangkaran Ikan dan Coral/Karang
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengembangbiakan Algae Dan Biota Perairan Lainnya Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Amphibia Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Coelenterata Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Crustacea Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Echinodermata Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Ikan Bersirip (Pisces) Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Mamalia Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Mollusca Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengembangbiakan Reptilia Yang Dilindungi Dan/Atau Termasuk Dalam Appendiks CITES
+Pengerukan
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Kerikil/Sirtu
+Penggalian Pasir
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Perbenihan Tanaman Pakan Ternak dan Pembibitan Bit
+Perkebunan Cengkeh
+Perkebunan Lada
+Perkebunan Tanaman Aromatik/Penyegar
+Pertanian Aneka Kacang Holtikultura
+Pertanian Aneka Umbi Palawija
+Pertanian Biji-Bijian Penghasil Bukan Minyak Makan
+Pertanian Biji-Bijian Penghasil Minyak Makan
+Pertanian Bit Gula Dan Tanaman Pemanis Bukan Tebu
+Pertanian Buah Anggur
+Pertanian Buah Apel dan Buah Batu
+Pertanian Buah Beri
+Pertanian Buah Biji Kacang-Kacangan
+Pertanian Buah Jeruk
+Pertanian Buah Semak Lainnya
+Pertanian Buah-Buahan Tropis dan Subtropis
+Pertanian Cabai
+Pertanian Gandum
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Holtikultura Sayuran Umbi
+Pertanian Jagung
+Pertanian Jamur
+Pertanian Kacang Hijau
+Pertanian Kacang Tanah
+Pertanian Kedelai
+Pertanian Padi Hibrida
+Pertanian Padi Inbrida
+Pertanian Pembibitan Tanaman Bunga
+Pertanian Sayuran Tahunan
+Pertanian Sayuran, Buah dan Aneka Umbi Lainnya
+Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
+Pertanian Tanaman Bunga
+Pertanian Tanaman Hias
+Pertanian Tanaman Obat Atau Biofarma Non Rimpang
+Pertanian Tanaman Obat atau Biofarma Rimpang
+Pertanian Tanaman Pakan Ternak
+Pertanian Tanaman Rempah-Rempah, Aromatik/Penyegar dan Obat Lainnya
+Pertanian Tanaman Semusim Lainnya ytdl
+Pertanian Tanaman Untuk Bahan Minuman
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Taman Rekreasi
+Taman Rekreasi/Taman Wisata
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Wisata Agro
+Wisata Memancing
+Wisata Petualangan Alam
+Wisata Tirta Lainnya</v>
       </c>
       <c r="W3" t="str">
         <v/>
@@ -911,8 +1068,26 @@
       <c r="U4" t="str">
         <v/>
       </c>
-      <c r="V4" t="str">
-        <v/>
+      <c r="V4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Jalan Tol
+Aktivitas Perparkiran Di Badan Jalan
+Aktivitas Stasiun Kereta Api
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Aktivitas Terminal Darat
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Jalan Rel</v>
       </c>
       <c r="W4" t="str">
         <v/>
@@ -1060,8 +1235,19 @@
       <c r="U5" t="str">
         <v/>
       </c>
-      <c r="V5" t="str">
-        <v/>
+      <c r="V5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Perekaman Suara
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W5" t="str">
         <v/>
@@ -1202,8 +1388,85 @@
       <c r="U6" t="str">
         <v/>
       </c>
-      <c r="V6" t="str">
-        <v/>
+      <c r="V6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Cold Storage
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Laut
+Budidaya Ikan Hias Air Tawar
+Budidaya Karang
+Daya Tarik Wisata Alam Lainnya
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Telekomunikasi
+Jasa Instalasi Konstruksi Navigasi Laut, Sungai, dan Udara
+Kolam Pemancingan
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Pemanfaatan Hasil Hutan Bukan Kayu
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembenihan Ikan Laut
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Mollusca Laut
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Pisces/Ikan Bersirip Laut
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Penangkapan Biota Air Lainnya Di Laut
+Penangkapan Biota Air Lainnya Di Perairan Darat
+Penangkapan Coelenterata Di Laut
+Penangkapan Crustacea Di Laut
+Penangkapan Crustacea Di Perairan Darat
+Penangkapan Echinodermata Di Laut
+Penangkapan Ikan Hias Laut
+Penangkapan Ikan Hias di Perairan Darat
+Penangkapan Mollusca Di Laut
+Penangkapan Mollusca Di Perairan Darat
+Penangkapan Pisces/Ikan Bersirip Di Laut
+Penangkapan Pisces/Ikan Bersirip Di Perairan Darat
+Penangkapan/Pengambilan Induk/Benih Ikan Di Laut
+Penangkapan/Pengambilan Induk/Benih Ikan Di Perairan darat
+Penangkapan/Pengambilan Tumbuhan Air Di Laut
+Penangkapan/Pengambilan Tumbuhan Air Di Perairan Darat
+Penangkaran Ikan dan Coral/Karang
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Taman Rekreasi
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Wisata Memancing</v>
       </c>
       <c r="W6" t="str">
         <v/>
@@ -1403,8 +1666,27 @@
       <c r="U7" t="str">
         <v/>
       </c>
-      <c r="V7" t="str">
-        <v/>
+      <c r="V7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Instalasi Elektronika
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Minyak dan Gas
+Instalasi Pemanas dan Geotermal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan</v>
       </c>
       <c r="W7" t="str">
         <v/>
@@ -1545,8 +1827,110 @@
       <c r="U8" t="str">
         <v/>
       </c>
-      <c r="V8" t="str">
-        <v/>
+      <c r="V8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Kawasan Alam Lainnya
+Analisis Dan Uji Teknis Lainnya
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Daya Tarik Wisata Alam Lainnya
+Distribusi Tenaga Listrik
+Hutan Lindung
+Instalasi Listrik
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Penggunaan Kawasan Hutan Di Luar Sektor Kehutanan
+Jasa Penunjang Kehutanan Lainnya
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Jurnalis Berita Independen
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pemandian Alam
+Pemanfaatan Hasil Hutan Bukan Kayu
+Pemungutan Bambu
+Pemungutan Bukan Kayu Lainnya
+Pemungutan Damar
+Pemungutan Daun Kayu Putih
+Pemungutan Getah Karet
+Pemungutan Getah Pinus
+Pemungutan Kokon/Kepompong Ulat Sutera
+Pemungutan Madu
+Pemungutan Rotan
+Penangkaran Burung
+Penangkaran Insekta
+Penangkaran Mamalia
+Penangkaran Primata
+Penangkaran Reptil
+Penangkaran Tumbuhan/Satwa Liar Lainnya
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Perbenihan Tanaman Pakan Ternak dan Pembibitan Bit
+Perburuan dan Penangkapan Burung
+Perburuan dan Penangkapan Insekta
+Perburuan dan Penangkapan Reptil
+Perburuan dan Penangkapan Satwa Liar Lainnya
+Perkebunan Cengkeh
+Perkebunan Lada
+Perkebunan Tanaman Aromatik/Penyegar
+Pertanian Aneka Kacang Holtikultura
+Pertanian Aneka Umbi Palawija
+Pertanian Biji-Bijian Penghasil Bukan Minyak Makan
+Pertanian Biji-Bijian Penghasil Minyak Makan
+Pertanian Bit Gula Dan Tanaman Pemanis Bukan Tebu
+Pertanian Buah Anggur
+Pertanian Buah Apel dan Buah Batu
+Pertanian Buah Beri
+Pertanian Buah Biji Kacang-Kacangan
+Pertanian Buah Jeruk
+Pertanian Buah Semak Lainnya
+Pertanian Buah-Buahan Tropis dan Subtropis
+Pertanian Cabai
+Pertanian Gandum
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Holtikultura Sayuran Umbi
+Pertanian Jagung
+Pertanian Jamur
+Pertanian Kacang Hijau
+Pertanian Kacang Tanah
+Pertanian Kedelai
+Pertanian Padi Hibrida
+Pertanian Padi Inbrida
+Pertanian Pembibitan Tanaman Bunga
+Pertanian Sayuran Tahunan
+Pertanian Sayuran, Buah dan Aneka Umbi Lainnya
+Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
+Pertanian Tanaman Bunga
+Pertanian Tanaman Hias
+Pertanian Tanaman Obat Atau Biofarma Non Rimpang
+Pertanian Tanaman Obat atau Biofarma Rimpang
+Pertanian Tanaman Pakan Ternak
+Pertanian Tanaman Rempah-Rempah, Aromatik/Penyegar dan Obat Lainnya
+Pertanian Tanaman Semusim Lainnya ytdl
+Pertanian Tanaman Untuk Bahan Minuman
+Suaka Margasatwa
+Taman Hutan Raya
+Taman Nasional
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Wisata Agro</v>
       </c>
       <c r="W8" t="str">
         <v/>
@@ -1687,8 +2071,173 @@
       <c r="U9" t="str">
         <v/>
       </c>
-      <c r="V9" t="str">
-        <v/>
+      <c r="V9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Kawasan Alam Lainnya
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Perburuan
+Aktivitas Telekomunikasi Tanpa Kabel
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Daya Tarik Wisata Alam Lainnya
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Hutan Lindung
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Penggunaan Kawasan Hutan Di Luar Sektor Kehutanan
+Jasa Pengolahan Lahan
+Jasa Penunjang Kehutanan Lainnya
+Jasa Penunjang Pertanian Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Kawasan Buru
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Pemanenan Kayu
+Pemanfaatan Hasil Hutan Bukan Kayu
+Pemanfaatan Hutan Kayu Tanaman Hasil Rehabilitasi Pada Hutan Produksi
+Pemanfaatan Hutan Kayu Tanaman Lainnya
+Pemanfaatan Hutan Kayu Tanaman Pada Hutan Produksi
+Pemanfaatan Hutan Kayu Tanaman Rakyat
+Pemanfaatan Kayu Hasil Restorasi Ekosistem Pada Hutan Alam
+Pemanfaatan Kayu Hutan Alam
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Cacing
+Pembibitan dan Budidaya Kelinci
+Pembibitan dan Budidaya Lebah
+Pembibitan dan Budidaya Rusa
+Pemungutan Bambu
+Pemungutan Bukan Kayu Lainnya
+Pemungutan Damar
+Pemungutan Daun Kayu Putih
+Pemungutan Getah Karet
+Pemungutan Getah Pinus
+Pemungutan Kokon/Kepompong Ulat Sutera
+Pemungutan Madu
+Pemungutan Rotan
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penangkaran Anggrek
+Penangkaran Burung
+Penangkaran Ikan dan Coral/Karang
+Penangkaran Insekta
+Penangkaran Mamalia
+Penangkaran Primata
+Penangkaran Reptil
+Penangkaran Tumbuhan/Satwa Liar Lainnya
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengerukan
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Kerikil/Sirtu
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengusahaan Perbenihan Tanaman Kehutanan
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Perbenihan Tanaman Pakan Ternak dan Pembibitan Bit
+Perkebunan Buah Kelapa
+Perkebunan Buah Kelapa Sawit
+Perkebunan Buah Oleaginous Lainnya
+Perkebunan Cengkeh
+Perkebunan Karet dan Tanaman Penghasil Getah Lainnya
+Perkebunan Lada
+Perkebunan Tanaman Aromatik/Penyegar
+Perkebunan Tebu
+Perkebunan Tembakau
+Pertanian Aneka Kacang Holtikultura
+Pertanian Aneka Umbi Palawija
+Pertanian Biji-Bijian Penghasil Bukan Minyak Makan
+Pertanian Biji-Bijian Penghasil Minyak Makan
+Pertanian Bit Gula Dan Tanaman Pemanis Bukan Tebu
+Pertanian Buah Anggur
+Pertanian Buah Apel dan Buah Batu
+Pertanian Buah Beri
+Pertanian Buah Biji Kacang-Kacangan
+Pertanian Buah Jeruk
+Pertanian Buah Semak Lainnya
+Pertanian Buah-Buahan Tropis dan Subtropis
+Pertanian Cabai
+Pertanian Cemara dan Tanaman Tahunan Lainnya
+Pertanian Gandum
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Holtikultura Sayuran Umbi
+Pertanian Jagung
+Pertanian Jamur
+Pertanian Kacang Hijau
+Pertanian Kacang Tanah
+Pertanian Kedelai
+Pertanian Padi Hibrida
+Pertanian Padi Inbrida
+Pertanian Pembibitan Tanaman Bunga
+Pertanian Pengembangbiakan Tanaman
+Pertanian Sayuran Tahunan
+Pertanian Sayuran, Buah dan Aneka Umbi Lainnya
+Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
+Pertanian Tanaman Berserat
+Pertanian Tanaman Bunga
+Pertanian Tanaman Hias
+Pertanian Tanaman Obat Atau Biofarma Non Rimpang
+Pertanian Tanaman Obat atau Biofarma Rimpang
+Pertanian Tanaman Pakan Ternak
+Pertanian Tanaman Rempah-Rempah, Aromatik/Penyegar dan Obat Lainnya
+Pertanian Tanaman Semusim Lainnya ytdl
+Pertanian Tanaman Untuk Bahan Minuman
+Suaka Margasatwa
+Taman Hutan Raya
+Taman Konservasi Di Luar Habitat Alami
+Taman Nasional
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Usaha Kehutanan Lainnya
+Usaha Pemungutan Kayu
+Wisata Agro
+Wisata Petualangan Alam</v>
       </c>
       <c r="W9" t="str">
         <v/>
@@ -1829,8 +2378,172 @@
       <c r="U10" t="str">
         <v/>
       </c>
-      <c r="V10" t="str">
-        <v/>
+      <c r="V10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Kawasan Alam Lainnya
+Aktivitas Perburuan
+Aktivitas Telekomunikasi Tanpa Kabel
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Daya Tarik Wisata Alam Lainnya
+Distribusi Tenaga Listrik
+Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Hutan Lindung
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Penggunaan Kawasan Hutan Di Luar Sektor Kehutanan
+Jasa Pengolahan Lahan
+Jasa Penunjang Kehutanan Lainnya
+Jasa Penunjang Pertanian Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Kawasan Buru
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Pemanenan Kayu
+Pemanfaatan Hasil Hutan Bukan Kayu
+Pemanfaatan Hutan Kayu Tanaman Hasil Rehabilitasi Pada Hutan Produksi
+Pemanfaatan Hutan Kayu Tanaman Lainnya
+Pemanfaatan Hutan Kayu Tanaman Pada Hutan Produksi
+Pemanfaatan Hutan Kayu Tanaman Rakyat
+Pemanfaatan Kayu Hasil Restorasi Ekosistem Pada Hutan Alam
+Pemanfaatan Kayu Hutan Alam
+Pembangkit, Distribusi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, Distribusi dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkit, Transmisi, dan Penjualan Tenaga Listrik Dalam Satu Kesatuan Usaha
+Pembangkitan Tenaga Listrik
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Cacing
+Pembibitan dan Budidaya Kelinci
+Pembibitan dan Budidaya Lebah
+Pembibitan dan Budidaya Rusa
+Pemungutan Bambu
+Pemungutan Bukan Kayu Lainnya
+Pemungutan Damar
+Pemungutan Daun Kayu Putih
+Pemungutan Getah Karet
+Pemungutan Getah Pinus
+Pemungutan Kokon/Kepompong Ulat Sutera
+Pemungutan Madu
+Pemungutan Rotan
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penangkaran Anggrek
+Penangkaran Burung
+Penangkaran Ikan dan Coral/Karang
+Penangkaran Insekta
+Penangkaran Mamalia
+Penangkaran Primata
+Penangkaran Reptil
+Penangkaran Tumbuhan/Satwa Liar Lainnya
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengerukan
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Kerikil/Sirtu
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengusahaan Perbenihan Tanaman Kehutanan
+Perbenihan Tanaman Pakan Ternak dan Pembibitan Bit
+Perkebunan Buah Kelapa
+Perkebunan Buah Kelapa Sawit
+Perkebunan Buah Oleaginous Lainnya
+Perkebunan Cengkeh
+Perkebunan Karet dan Tanaman Penghasil Getah Lainnya
+Perkebunan Lada
+Perkebunan Tanaman Aromatik/Penyegar
+Perkebunan Tebu
+Perkebunan Tembakau
+Pertanian Aneka Kacang Holtikultura
+Pertanian Aneka Umbi Palawija
+Pertanian Biji-Bijian Penghasil Bukan Minyak Makan
+Pertanian Biji-Bijian Penghasil Minyak Makan
+Pertanian Bit Gula Dan Tanaman Pemanis Bukan Tebu
+Pertanian Buah Anggur
+Pertanian Buah Apel dan Buah Batu
+Pertanian Buah Beri
+Pertanian Buah Biji Kacang-Kacangan
+Pertanian Buah Jeruk
+Pertanian Buah Semak Lainnya
+Pertanian Buah-Buahan Tropis dan Subtropis
+Pertanian Cabai
+Pertanian Cemara dan Tanaman Tahunan Lainnya
+Pertanian Gandum
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Holtikultura Sayuran Umbi
+Pertanian Jagung
+Pertanian Jamur
+Pertanian Kacang Hijau
+Pertanian Kacang Tanah
+Pertanian Kedelai
+Pertanian Padi Hibrida
+Pertanian Padi Inbrida
+Pertanian Pembibitan Tanaman Bunga
+Pertanian Pengembangbiakan Tanaman
+Pertanian Sayuran Tahunan
+Pertanian Sayuran, Buah dan Aneka Umbi Lainnya
+Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
+Pertanian Tanaman Berserat
+Pertanian Tanaman Bunga
+Pertanian Tanaman Hias
+Pertanian Tanaman Obat Atau Biofarma Non Rimpang
+Pertanian Tanaman Obat atau Biofarma Rimpang
+Pertanian Tanaman Pakan Ternak
+Pertanian Tanaman Rempah-Rempah, Aromatik/Penyegar dan Obat Lainnya
+Pertanian Tanaman Semusim Lainnya ytdl
+Pertanian Tanaman Untuk Bahan Minuman
+Produksi Kompos Sampah Organik
+Suaka Margasatwa
+Taman Hutan Raya
+Taman Konservasi Di Luar Habitat Alami
+Taman Nasional
+Taman Wisata Alam
+Transmisi Tenaga Listrik
+Usaha Kehutanan Lainnya
+Usaha Pemungutan Kayu
+Wisata Agro
+Wisata Petualangan Alam</v>
       </c>
       <c r="W10" t="str">
         <v/>
@@ -1984,8 +2697,23 @@
       <c r="U11" t="str">
         <v/>
       </c>
-      <c r="V11" t="str">
-        <v/>
+      <c r="V11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W11" t="str">
         <v/>
@@ -2652,8 +3380,119 @@
       <c r="U12" t="str">
         <v/>
       </c>
-      <c r="V12" t="str">
-        <v/>
+      <c r="V12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Iindustri Pemberantas Hama
+Industri Air Minum Isi Ulang
+Industri Alat Kesehatan Dalam Subgolongan 2101
+Industri Alat Laboratorium Klinis Dari Kaca
+Industri Alat Laboratorium dan Alat Listrik/Teknik dari Porselen
+Industri Alat-Alat Laboratorium Non Klinis, Farmasi dan Kesehatan Dari Kaca
+Industri Bahan Amelioran
+Industri Bahan Bakar dari Pemurnian dan Pengilangan Minyak Bumi
+Industri Bahan Baku Pemberantas Hama
+Industri Bahan Bangunan Dari Tanah Liat/Keramik Bukan Batu Bata Dan Genteng
+Industri Bahan Farmasi Untuk Hewan
+Industri Bahan Farmasi Untuk Manusia
+Industri Barang Dari Karet Lainnya YTDL
+Industri Barang Dari Karet Untuk Keperluan Industri
+Industri Barang Dari Karet Untuk Keperluan Rumah Tangga
+Industri Barang Dari Karet Untuk Kesehatan
+Industri Barang Dari Plastik Untuk Bangunan
+Industri Barang Dari Plastik Untuk Pengemasan
+Industri Barang Kimia Lainnya YTDL
+Industri Barang Lainnya Dari Kaca
+Industri Barang Plastik Lainnya YTDL
+Industri Barang Plastik Lembaran
+Industri Barang Tahan Api dari Tanah Liat/Keramik Lainnya
+Industri Barang dan Peralatan Teknik/Industri Dari Plastik
+Industri Barang dari Karet Untuk Keperluan Infrastruktur
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batu Bata dari Tanah Liat/Keramik
+Industri Briket Batu Bara
+Industri Bumbu Rokok Serta Kelengkapan Rokok Lainnya
+Industri Cat dan Tinta Cetak
+Industri Genteng Dari Tanah Liat/Keramik
+Industri Kaca Lainnya
+Industri Kaca Lembaran
+Industri Kaca Pengaman
+Industri Karet Buatan
+Industri Karet Remah
+Industri Kemacan Dari Kaca
+Industri Kendaraan Perang
+Industri Kimia Dasar Anorganik Gas Industri
+Industri Kimia Dasar Anorganik Khlor dan Alkali
+Industri Kimia Dasar Anorganik Lainnya
+Industri Kimia Dasar Anorganik Pigmen
+Industri Kimia Dasar Organik Lainnya
+Industri Kimia Dasar Organik Untuk Bahan Baku Zat Warna Dan Pigmen, Zat Warna dan Pigmen
+Industri Kimia Dasar Organik Yang Bersumber Dari Hasil Pertanian
+Industri Kimia Dasar Organik Yang Bersumber Dari Minyak Bumi, Gas Alam dan Batu Bara
+Industri Kimia Dasar Organik Yang Menghasilkan Bahan Kimia Khusus
+Industri Kopra
+Industri Lak
+Industri Lokomotif dan Gerbong Kereta
+Industri Malt
+Industri Margarine
+Industri Minuman Beralkohol Hasil Destilasi
+Industri Minuman Beralkohol Hasil Fermentasi Anggur dan Hasil Pertanian Lainnya
+Industri Minuman Beralkohol Hasil Fermentasi Malt
+Industri Minyak Goreng Bukan Minyak Kelapa dan Minyak Kelapa Sawit
+Industri Minyak Goreng Kelapa
+Industri Minyak Goreng Kelapa Sawit
+Industri Minyak Ikan
+Industri Minyak Mentah dan Lemak Hewani Selain Ikan
+Industri Minyak Mentah dan Lemak Nabati
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Pelet Kelapa
+Industri Pembuatan Minyak Pelumas
+Industri Pengasapan Karet
+Industri Pengeringan dan Pengolahan Tembakau
+Industri Pengolahan Kembali Minyak Pelumas
+Industri Pengolahan Lainnya YTDL
+Industri Pengolahan Minyak Pelumas Bekas Menjadi Bahan Bakar
+Industri Peralatan Saniter Dari Porselen
+Industri Perlengkapan Dan Peralatan Rumah Tangga
+Industri Perlengkapan dan Peralatan Rumah Tangga Dari Kaca
+Industri Pernis
+Industri Pesawat Terbang dan Perlengkapannya
+Industri Pipa Plastik dan Perlengkapannya
+Industri Produk Dari Hasil Kilang Minyak Bumi
+Industri Produk Farmasi Untuk Hewan
+Industri Produk Farmasi Untuk Manusia
+Industri Produk dari Batu Bara
+Industri Remiling Karet
+Industri Rokok Lainnya
+Industri Rokok Putih
+Industri Sigaret Kretek Mesin
+Industri Sigaret Kretek Tangan
+Industri Vulkanisir Ban
+Industri Zat Pengatur Tumbuh
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Minyak dan Gas
+Instalasi Pemanas dan Geotermal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Konstruksi Jalan Rel
+Pengerukan
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Lokomotif dan Gerbong Kereta
+Reparasi Peralatan Lainnya
+Reparasi Pesawat Terbang</v>
       </c>
       <c r="W12" t="str">
         <v/>
@@ -2947,8 +3786,108 @@
       <c r="U13" t="str">
         <v/>
       </c>
-      <c r="V13" t="str">
-        <v/>
+      <c r="V13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Badan Internasional dan badan Ekstra Internasional Lainnya
+Aktivitas Cold Storage
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Pelabuhan Perikanan
+Aktivitas Penunjang Angkutan Perairan Lainnya
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Swasta
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Wisata Air
+Angkutan Antarkota Dalam Provinsi (AKDP) Bukan Bus, Dalam Trayek
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Bus Antarkota Antar provinsi
+Angkutan Bus Antarkota Dalam Provinsi
+Angkutan Bus Dalam Trayek Lainnya
+Angkutan Bus Khusus
+Angkutan Bus Kota
+Angkutan Bus Pariwisata
+Angkutan Bus Perbatasan
+Angkutan Bus Tidak Dalam Trayek Lainnya
+Angkutan Darat Khusus Bukan Bus
+Angkutan Darat Lainnya Untuk Penumpang
+Angkutan Darat Wisata
+Angkutan Jalan Rel Wisata
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Barang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Barang Khusus
+Angkutan Laut Dalam Negeri Untuk Barang Umum
+Angkutan Laut Dalam Negeri Untuk Pelayaran Rakyat
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Luar Negeri Pelayaran Rakyat
+Angkutan Laut Luar Negeri Untuk Barang Khusus
+Angkutan Laut Luar Negeri Untuk Barang Umum
+Angkutan Laut Luar Negeri Untuk Wisata
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Barang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Ojek Motor
+Angkutan Penyeberangan Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Dalam Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Lainnya Untuk Barang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Lainnya Untuk Penumpang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Perintis Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Perintis Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Umum Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Umum Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Umum Dalam Kabupaten/Kota Untuk Barang
+Angkutan Perkotaan Bukan Bus, Dalam Trayek
+Angkutan Sewa
+Angkutan Sewa Khusus
+Angkutan Sungai dan Danau Liner (Trayek Tetap dan Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Tramper (Trayek Tidak Tetap dan Tidak Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Untuk Barang Berbahaya
+Angkutan Sungai dan Danau Untuk Barang Khusus
+Angkutan Sungai dan Danau Untuk Barang Umum dan/atau Hewan
+Angkutan Sungai dan Danau Untuk Wisata dan YBDI
+Angkutan Taksi
+Angkutan Tidak Bermotor Untuk Barang Umum
+Angkutan Tidak Bermotor Untuk Penumpang
+Bangunan Pemerintahan
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Dermaga Marina
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Pemanas dan Geotermal
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Telekomunikasi
+Konstruksi Bangunan Pelabuhan Perikanan
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pemandian Alam
+Pembesaran Ikan Air Tawar Di Kolam
+Pembuatan/Pengeboran Sumur Air Tanah
+Pengerukan
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Perdagangan Eceran Barang Kerajinan Dari Kayu, Bambu, Rotan, Pandan, Rumput dan Sejenisnya
+Perdagangan Eceran Barang Kerajinan Dari Keramik
+Perdagangan Eceran Lukisan
+Pergudangan dan Penyimpanan
+Pergudangan dan Penyimpanan Lainnya
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Wisata Gua
+Wisata Pantai
+Wisata Petualangan Alam
+Wisata Selam
+Wisata Tirta Lainnya</v>
       </c>
       <c r="W13" t="str">
         <v/>
@@ -3097,8 +4036,22 @@
       <c r="U14" t="str">
         <v/>
       </c>
-      <c r="V14" t="str">
-        <v/>
+      <c r="V14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W14" t="str">
         <v/>
@@ -3955,8 +4908,117 @@
       <c r="U15" t="str">
         <v/>
       </c>
-      <c r="V15" t="str">
-        <v/>
+      <c r="V15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Cold Storage
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Perparkiran Di Badan Jalan
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Seni Pertunjukan
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Aktivitas Terminal Darat
+Angkutan Antarkota Dalam Provinsi (AKDP) Bukan Bus, Dalam Trayek
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Bus Antarkota Antar provinsi
+Angkutan Bus Antarkota Dalam Provinsi
+Angkutan Bus Dalam Trayek Lainnya
+Angkutan Bus Khusus
+Angkutan Bus Kota
+Angkutan Bus Lintas Batas Negara
+Angkutan Bus Pariwisata
+Angkutan Bus Perbatasan
+Angkutan Bus Tidak Dalam Trayek Lainnya
+Angkutan Darat Bukan Bus Untuk Penumpang Lainnya Dalam Trayek
+Angkutan Darat Khusus Bukan Bus
+Angkutan Darat Lainnya Untuk Penumpang
+Angkutan Darat Wisata
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Melalui Saluran Pipa
+Angkutan Ojek Motor
+Angkutan Perbatasan Bukan Bus Dalam Trayek
+Angkutan Perdesaan Bukan Bus, Dalam Trayek
+Angkutan Perkotaan Bukan Bus, Dalam Trayek
+Angkutan Sewa
+Angkutan Sewa Khusus
+Angkutan Taksi
+Angkutan Tidak Bermotor Untuk Barang Umum
+Angkutan Tidak Bermotor Untuk Penumpang
+Apartemen Hotel
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Hotel Bintang
+Hotel Melati
+Industri Air Minum Isi Ulang
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pengetasan Telur
+Jasa Penunjang Kehutanan Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Perkawinan Ternak
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Jurnalis Berita Independen
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Lainnya YTDL
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jalan Rel
+Kontruksi Gedung Penginapan
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pembuatan/Pengeboran Sumur Air Tanah
+Pengelola Gudang Sistem Resi Gudang
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Penyimpanan Yang Termasuk Dalam Natturally Occuring Radioactive Material
+Pergudangan dan Penyimpanan Lainnya
+Pondok Wisata
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Villa</v>
       </c>
       <c r="W15" t="str">
         <v/>
@@ -4163,7 +5225,7 @@
         <v/>
       </c>
       <c r="V16" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="W16" t="str">
         <v/>
@@ -4305,7 +5367,7 @@
         <v/>
       </c>
       <c r="V17" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="W17" t="str">
         <v/>
@@ -5162,8 +6224,117 @@
       <c r="U18" t="str">
         <v/>
       </c>
-      <c r="V18" t="str">
-        <v/>
+      <c r="V18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Cold Storage
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Perparkiran Di Badan Jalan
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Seni Pertunjukan
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Aktivitas Terminal Darat
+Angkutan Antarkota Dalam Provinsi (AKDP) Bukan Bus, Dalam Trayek
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Bus Antarkota Antar provinsi
+Angkutan Bus Antarkota Dalam Provinsi
+Angkutan Bus Dalam Trayek Lainnya
+Angkutan Bus Khusus
+Angkutan Bus Kota
+Angkutan Bus Lintas Batas Negara
+Angkutan Bus Pariwisata
+Angkutan Bus Perbatasan
+Angkutan Bus Tidak Dalam Trayek Lainnya
+Angkutan Darat Bukan Bus Untuk Penumpang Lainnya Dalam Trayek
+Angkutan Darat Khusus Bukan Bus
+Angkutan Darat Lainnya Untuk Penumpang
+Angkutan Darat Wisata
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Melalui Saluran Pipa
+Angkutan Ojek Motor
+Angkutan Perbatasan Bukan Bus Dalam Trayek
+Angkutan Perdesaan Bukan Bus, Dalam Trayek
+Angkutan Perkotaan Bukan Bus, Dalam Trayek
+Angkutan Sewa
+Angkutan Sewa Khusus
+Angkutan Taksi
+Angkutan Tidak Bermotor Untuk Barang Umum
+Angkutan Tidak Bermotor Untuk Penumpang
+Apartemen Hotel
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Hotel Bintang
+Hotel Melati
+Industri Air Minum Isi Ulang
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pengetasan Telur
+Jasa Penunjang Kehutanan Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Perkawinan Ternak
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Jurnalis Berita Independen
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Lainnya YTDL
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jalan Rel
+Kontruksi Gedung Penginapan
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pembuatan/Pengeboran Sumur Air Tanah
+Pengelola Gudang Sistem Resi Gudang
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Penyimpanan Yang Termasuk Dalam Natturally Occuring Radioactive Material
+Pergudangan dan Penyimpanan Lainnya
+Pondok Wisata
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Villa</v>
       </c>
       <c r="W18" t="str">
         <v/>
@@ -5370,7 +6541,7 @@
         <v/>
       </c>
       <c r="V19" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="W19" t="str">
         <v/>
@@ -5512,7 +6683,7 @@
         <v/>
       </c>
       <c r="V20" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="W20" t="str">
         <v/>
@@ -6107,8 +7278,52 @@
       <c r="U21" t="str">
         <v/>
       </c>
-      <c r="V21" t="str">
-        <v/>
+      <c r="V21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Badan Internasional dan badan Ekstra Internasional Lainnya
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Penunjang Tenaga Listrik Lainnya
+Angkutan Bus Khusus
+Angkutan Darat Lainnya Untuk Penumpang
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Fasilitas Lapangan
+Fasilitas Stadion
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Pemanas dan Geotermal
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Telekomunikasi
+Jasa Pendidikan Olahraga Dan Rekreasi
+Klub Sepak Bola
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Gedung Pendidikan
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Olahragawan, Juri Dan Wasit Profesional
+Pembuatan/Pengeboran Sumur Air Tanah
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Penitipan Anak
+Pendidikan Tinggi Akademik Pemerintah
+Pengelolaan Fasilitas Olah Raga Lainnya
+Pengerukan
+Penyediaan Akomodasi Lainnya
+Penyediaan Minuman Keliling/Tempat Tidak Tetap</v>
       </c>
       <c r="W21" t="str">
         <v/>
@@ -6307,8 +7522,29 @@
       <c r="U22" t="str">
         <v/>
       </c>
-      <c r="V22" t="str">
-        <v/>
+      <c r="V22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel untuk Penumpang
+Instalasi Elektronika
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Minyak dan Gas
+Instalasi Pemanas dan Geotermal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan</v>
       </c>
       <c r="W22" t="str">
         <v/>
@@ -6450,8 +7686,140 @@
       <c r="U23" t="str">
         <v/>
       </c>
-      <c r="V23" t="str">
-        <v/>
+      <c r="V23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Analisis Dan Uji Teknis Lainnya
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Laut
+Budidaya Ikan Hias Air Tawar
+Budidaya Karang
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Instalasi Konstruksi Navigasi Laut, Sungai, dan Udara
+Jasa Pekerjaan Konstruksi Pelindung Pantai
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Konstruksi Jaringan Irigasi, Komunikasi dan Limbah Lainnya
+Konstruksi Reservoir Pembangkit Listrik Tenaga Air
+Konstruksi Sentral Telekomunikasi
+Pembangkitan Tenaga Listrik
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembenihan Ikan Laut
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Mollusca Laut
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Pisces/Ikan Bersirip Laut
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Penangkapan Biota Air Lainnya Di Laut
+Penangkapan Biota Air Lainnya Di Perairan Darat
+Penangkapan Coelenterata Di Laut
+Penangkapan Crustacea Di Laut
+Penangkapan Crustacea Di Perairan Darat
+Penangkapan Echinodermata Di Laut
+Penangkapan Ikan Hias Laut
+Penangkapan Ikan Hias di Perairan Darat
+Penangkapan Mollusca Di Laut
+Penangkapan Mollusca Di Perairan Darat
+Penangkapan Pisces/Ikan Bersirip Di Laut
+Penangkapan Pisces/Ikan Bersirip Di Perairan Darat
+Penangkapan/Pengambilan Induk/Benih Ikan Di Laut
+Penangkapan/Pengambilan Induk/Benih Ikan Di Perairan darat
+Penangkapan/Pengambilan Tumbuhan Air Di Laut
+Penangkapan/Pengambilan Tumbuhan Air Di Perairan Darat
+Penangkaran Anggrek
+Penangkaran Ikan dan Coral/Karang
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Perbenihan Tanaman Pakan Ternak dan Pembibitan Bit
+Perkebunan Buah Kelapa
+Perkebunan Buah Kelapa Sawit
+Perkebunan Buah Oleaginous Lainnya
+Perkebunan Cengkeh
+Perkebunan Lada
+Perkebunan Tanaman Aromatik/Penyegar
+Perkebunan Tebu
+Perkebunan Tembakau
+Pertanian Aneka Kacang Holtikultura
+Pertanian Aneka Umbi Palawija
+Pertanian Biji-Bijian Penghasil Bukan Minyak Makan
+Pertanian Biji-Bijian Penghasil Minyak Makan
+Pertanian Bit Gula Dan Tanaman Pemanis Bukan Tebu
+Pertanian Buah Anggur
+Pertanian Buah Apel dan Buah Batu
+Pertanian Buah Beri
+Pertanian Buah Biji Kacang-Kacangan
+Pertanian Buah Jeruk
+Pertanian Buah Semak Lainnya
+Pertanian Buah-Buahan Tropis dan Subtropis
+Pertanian Cabai
+Pertanian Cemara dan Tanaman Tahunan Lainnya
+Pertanian Gandum
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Holtikultura Sayuran Umbi
+Pertanian Jagung
+Pertanian Jamur
+Pertanian Kacang Hijau
+Pertanian Kacang Tanah
+Pertanian Kedelai
+Pertanian Padi Hibrida
+Pertanian Padi Inbrida
+Pertanian Pembibitan Tanaman Bunga
+Pertanian Pengembangbiakan Tanaman
+Pertanian Sayuran Tahunan
+Pertanian Sayuran, Buah dan Aneka Umbi Lainnya
+Pertanian Serealia Lainnya, Aneka Kacang dan Biji-Bijian Penghasil Minyak Lainnya
+Pertanian Tanaman Berserat
+Pertanian Tanaman Bunga
+Pertanian Tanaman Hias
+Pertanian Tanaman Obat Atau Biofarma Non Rimpang
+Pertanian Tanaman Obat atau Biofarma Rimpang
+Pertanian Tanaman Pakan Ternak
+Pertanian Tanaman Rempah-Rempah, Aromatik/Penyegar dan Obat Lainnya
+Pertanian Tanaman Semusim Lainnya ytdl
+Pertanian Tanaman Untuk Bahan Minuman
+Taman Rekreasi
+Taman Wisata Alam
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W23" t="str">
         <v/>
@@ -6627,8 +7995,22 @@
       <c r="U24" t="str">
         <v/>
       </c>
-      <c r="V24" t="str">
-        <v/>
+      <c r="V24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Instalasi Elektronika
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Pemanas dan Geotermal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Telekomunikasi
+Jasa Instalasi Konstruksi Navigasi Laut, Sungai, dan Udara
+Konstruksi Bangunan Sipil Telekomunikasi Untuk Prasarana Transportasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pengerukan
+Penyediaan Jasa Boga Periode Tertentu</v>
       </c>
       <c r="W24" t="str">
         <v/>
@@ -7526,8 +8908,95 @@
       <c r="U25" t="str">
         <v/>
       </c>
-      <c r="V25" t="str">
-        <v/>
+      <c r="V25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Cold Storage
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Seni Pertunjukan
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Bangunan Pemerintahan
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pekerjaan Konstruksi Pelindung Pantai
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pengurusan Transportasi
+Jasa Penunjang Kehutanan Lainnya
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Jurnalis Berita Independen
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Lainnya YTDL
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Gedung Lainnya
+Konstruksi Jalan Rel
+Kontruksi Gedung Penginapan
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pembongkaran
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengelola Gudang Sistem Resi Gudang
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Pemerintah
+Peninggalan Sejarah/Cagar Budaya Yang Dikelola Swasta
+Penjualan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Penyiapan Lahan
+Pergudangan dan Penyimpanan
+Pergudangan dan Penyimpanan Lainnya
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Tempat Peribadatan
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W25" t="str">
         <v/>
@@ -8423,8 +9892,93 @@
       <c r="U26" t="str">
         <v/>
       </c>
-      <c r="V26" t="str">
-        <v/>
+      <c r="V26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Cold Storage
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Seni Pertunjukan
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Bangunan Pemerintahan
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Kehutanan Bidang Perencanaan Kehutanan
+Jasa Pekerjaan Konstruksi Pelindung Pantai
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pengurusan Transportasi
+Jasa Penunjang Kehutanan Lainnya
+Jasa Perlindungan Hutan dan Konservasi Alam
+Jasa Rehabilitasi Dan Restorasi Kehutanan Sosial
+Jurnalis Berita Independen
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Lainnya YTDL
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Gedung Lainnya
+Konstruksi Jalan Rel
+Kontruksi Gedung Penginapan
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pembongkaran
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengelola Gudang Sistem Resi Gudang
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Penyiapan Lahan
+Pergudangan dan Penyimpanan
+Pergudangan dan Penyimpanan Lainnya
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Tempat Peribadatan
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W26" t="str">
         <v/>
@@ -9273,8 +10827,89 @@
       <c r="U27" t="str">
         <v/>
       </c>
-      <c r="V27" t="str">
-        <v/>
+      <c r="V27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Cold Storage
+Aktivitas Hiburan, Seni Dan Kreativitas Lainnya
+Aktivitas Impresariat Bidang Seni Dan Festival Seni
+Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Operasional Fasilitas Seni
+Aktivitas Pekerja Seni Dan Pekerja Kreatif Lainnya
+Aktivitas Pelaku Kreatif Seni Rupa
+Aktivitas Pemakaman Dan Kegiatan YBDI
+Aktivitas Penulis Dan Pekerja Sastra
+Aktivitas Penunjang Seni Pertunjukan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Seni Pertunjukan
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Lainnya YTDL
+Aktivitas Sosial Pengumpulan Dana Keislaman
+Aktivitas Sosial Pengumpulan Dana Lainnya
+Aktivitas Sosial Swasta Tanpa Akomodasi Lainnya YTDL
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Bangunan Pemerintahan
+Daya Tarik Wisata Buatan/Binaan Manusia Lainnya
+Fasilitas Stadion
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Mekanikal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Jasa Pekerjaan Konstruksi Pelindung Pantai
+Jasa Pekerjaan Konstruksi Prapabrikasi Bangunan Gedung
+Jasa Pengurusan Transportasi
+Jurnalis Berita Independen
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Bangunan Sipil Jembatan, Jalan Layang, Fly Over dan Underpass
+Konstruksi Bangunan Sipil Lainnya YTDL
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Gedung Lainnya
+Konstruksi Jalan Rel
+Kontruksi Gedung Penginapan
+Pelaku Kreatif Seni Musik
+Pelaku Kreatif Seni Pertunjukan
+Pembongkaran
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengelola Gudang Sistem Resi Gudang
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Penyiapan Lahan
+Pergudangan dan Penyimpanan
+Pergudangan dan Penyimpanan Lainnya
+Restoran dan Penyediaan Makanan Keliling Lainnya
+Tempat Peribadatan
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W27" t="str">
         <v/>
@@ -9440,8 +11075,21 @@
       <c r="U28" t="str">
         <v/>
       </c>
-      <c r="V28" t="str">
-        <v/>
+      <c r="V28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Pemerintah
+Aktivitas Produksi Film, Video dan Program Televisi Oleh Swasta
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Pemanas dan Geotermal
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Telekomunikasi
+Jasa Instalasi Konstruksi Navigasi Laut, Sungai, dan Udara
+Konstruksi Bangunan Sipil Panas Bumi
+Konstruksi Jalan Rel</v>
       </c>
       <c r="W28" t="str">
         <v/>
@@ -9939,8 +11587,49 @@
       <c r="U29" t="str">
         <v/>
       </c>
-      <c r="V29" t="str">
-        <v/>
+      <c r="V29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W29" t="str">
         <v/>
@@ -10438,8 +12127,49 @@
       <c r="U30" t="str">
         <v/>
       </c>
-      <c r="V30" t="str">
-        <v/>
+      <c r="V30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W30" t="str">
         <v/>
@@ -10937,8 +12667,50 @@
       <c r="U31" t="str">
         <v/>
       </c>
-      <c r="V31" t="str">
-        <v/>
+      <c r="V31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Industri Peralatan Iradiasi/Sinar X, Perlengkapan dan Sejenisnya
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W31" t="str">
         <v/>
@@ -11432,8 +13204,48 @@
       <c r="U32" t="str">
         <v/>
       </c>
-      <c r="V32" t="str">
-        <v/>
+      <c r="V32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Klinik Pemerintah
+Aktivitas Klinik Swasta
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyimpanan B3
+Aktivitas Puskesmas
+Aktivitas Rumah Sakit Lainnya
+Aktivitas Rumah Sakit Pemerintah
+Aktivitas Rumah Sakit Swasta
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Angkutan Jalan Rel Lainnya
+Angkutan Jalan Rel Perkotaan
+Angkutan Jalan Rel Untuk Barang
+Angkutan Jalan Rel Wisata
+Angkutan Jalan Rel untuk Penumpang
+Instalasi Elektronika
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Saluran Air
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Bangunan Prasarana Sumber Daya Air
+Konstruksi Bangunan Sipil Elektrikal
+Konstruksi Bangunan Sipil Pengolahan Air Bersih
+Konstruksi Bangunan Sipil Prasarana dan Sarana Sistem Pengolahan Limbah Padat, Cair dan Gas
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Pembuatan/Pengeboran Sumur Air Tanah
+Penampungan dan Penyaluran Air Baku
+Penampungan, Penjernihan dan Penyaluran Air Minum
+Pengerukan
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Pengumpulan Air Limbah Tidak Berbahaya
+Penjualan Tenaga Listrik
+Treatment dan Pembuangan Air Limbah Tidak Berbahaya</v>
       </c>
       <c r="W32" t="str">
         <v/>
@@ -11620,8 +13432,27 @@
       <c r="U33" t="str">
         <v/>
       </c>
-      <c r="V33" t="str">
-        <v/>
+      <c r="V33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Pemutaran Film
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W33" t="str">
         <v/>
@@ -11807,8 +13638,27 @@
       <c r="U34" t="str">
         <v/>
       </c>
-      <c r="V34" t="str">
-        <v/>
+      <c r="V34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Pemutaran Film
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W34" t="str">
         <v/>
@@ -11995,8 +13845,27 @@
       <c r="U35" t="str">
         <v/>
       </c>
-      <c r="V35" t="str">
-        <v/>
+      <c r="V35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Pemutaran Film
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W35" t="str">
         <v/>
@@ -12149,8 +14018,22 @@
       <c r="U36" t="str">
         <v/>
       </c>
-      <c r="V36" t="str">
-        <v/>
+      <c r="V36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W36" t="str">
         <v/>
@@ -12327,8 +14210,25 @@
       <c r="U37" t="str">
         <v/>
       </c>
-      <c r="V37" t="str">
-        <v/>
+      <c r="V37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Aktivitas Perekaman Suara
+Aktivitas Telekomunikasi Satelit
+Aktivitas Telekomunikasi Tanpa Kabel
+Aktivitas Telekomunikasi dengan Kabel
+Distribusi Tenaga Listrik
+Instalasi Listrik
+Instalasi Saluran Air
+Instalasi Telekomunikasi
+Konstruksi Bangunan Sipil Jalan
+Konstruksi Jalan Rel
+Konstruksi Sentral Telekomunikasi
+Pengoperasian Instalasi Pemanfaatan Tenaga Listrik
+Pengoperasian Instalasi Penyediaan Tenaga Listrik
+Penyediaan Jasa Boga Periode Tertentu
+Penyediaan Makanan Keliling/Tempat Tidak Tetap
+Penyediaan Minuman Keliling/Tempat Tidak Tetap
+Transmisi Tenaga Listrik</v>
       </c>
       <c r="W37" t="str">
         <v/>
@@ -12488,8 +14388,29 @@
       <c r="U38" t="str">
         <v/>
       </c>
-      <c r="V38" t="str">
-        <v/>
+      <c r="V38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Angkutan Udara Khusus Pemotretan, Survei Dan Pemetaan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Industri Penggilingan Padi dan Penyosohan Beras
+Instalasi Elektronika
+Instalasi Konstruksi Lainnya YTDL
+Instalasi Listrik
+Instalasi Meteorologi, Klimatologi dan Geofisika
+Instalasi Minyak dan Gas
+Instalasi Pemanas dan Geotermal
+Instalasi Pendingin dan Ventilasi Udara
+Instalasi Saluran Air
+Instalasi Sinyal dan Rambu-rambu Jalan Raya
+Instalasi Sinyal dan Telekomunikasi Kereta Api
+Instalasi Telekomunikasi
+Konstruksi Jalan Rel
+Konstruksi Jaringan Irigasi dan Drainase
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Wisata Agro</v>
       </c>
       <c r="W38" t="str">
         <v/>

--- a/app/data/uji titik/uji-titik-bsb.xlsx
+++ b/app/data/uji titik/uji-titik-bsb.xlsx
@@ -924,8 +924,49 @@
       <c r="Z3" t="str">
         <v/>
       </c>
-      <c r="AA3" t="str">
-        <v/>
+      <c r="AA3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Pelabuhan Perikanan
+Aktivitas Pelayanan Kepelabuhanan Laut
+Aktivitas Pelayanan Kepelabuhanan Penyeberangan
+Aktivitas Pelayanan Kepelabuhanan Sungai dan Danau
+Aktivitas Pengelolaan Kapal
+Aktivitas Penunjang Angkutan Perairan Lainnya
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Barang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Barang Khusus
+Angkutan Laut Dalam Negeri Untuk Barang Umum
+Angkutan Laut Dalam Negeri Untuk Pelayaran Rakyat
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Luar Negeri Pelayaran Rakyat
+Angkutan Laut Luar Negeri Untuk Barang Khusus
+Angkutan Laut Luar Negeri Untuk Barang Umum
+Angkutan Laut Luar Negeri Untuk Wisata
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Barang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Penyeberangan Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Dalam Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Lainnya Untuk Barang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Lainnya Untuk Penumpang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Perintis Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Perintis Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Umum Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Umum Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Umum Dalam Kabupaten/Kota Untuk Barang
+Angkutan Sungai dan Danau Liner (Trayek Tetap dan Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Tramper (Trayek Tidak Tetap dan Tidak Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Untuk Barang Berbahaya
+Angkutan Sungai dan Danau Untuk Barang Khusus
+Angkutan Sungai dan Danau Untuk Barang Umum dan/atau Hewan
+Angkutan Sungai dan Danau Untuk Wisata dan YBDI
+Jasa Pengurusan Transportasi
+Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Penanganan Kargo</v>
       </c>
       <c r="AB3" t="str">
         <v/>
@@ -1101,8 +1142,10 @@
       <c r="Z4" t="str">
         <v/>
       </c>
-      <c r="AA4" t="str">
-        <v/>
+      <c r="AA4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Periklanan</v>
       </c>
       <c r="AB4" t="str">
         <v/>
@@ -1262,7 +1305,7 @@
         <v/>
       </c>
       <c r="AA5" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB5" t="str">
         <v/>
@@ -1481,7 +1524,7 @@
         <v/>
       </c>
       <c r="AA6" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB6" t="str">
         <v/>
@@ -1700,8 +1743,91 @@
       <c r="Z7" t="str">
         <v/>
       </c>
-      <c r="AA7" t="str">
-        <v/>
+      <c r="AA7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Tawar
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Payau
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengetasan Telur
+Jasa Pengolahan Lahan
+Jasa Penunjang Pertanian Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perkawinan Ternak
+Jasa Produksi Budidaya Ikan Air Payau
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Budidaya Ikan Air Payau
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Lebah
+Pemilihan Benih Tanaman Untuk Pengembangbiakan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Rumah Tinggal
+Tempat Peribadatan</v>
       </c>
       <c r="AB7" t="str">
         <v/>
@@ -1945,7 +2071,7 @@
         <v/>
       </c>
       <c r="AA8" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB8" t="str">
         <v/>
@@ -2251,8 +2377,45 @@
       <c r="Z9" t="str">
         <v/>
       </c>
-      <c r="AA9" t="str">
-        <v/>
+      <c r="AA9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Instalasi Elektronika
+Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Penggalian Asbes
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium</v>
       </c>
       <c r="AB9" t="str">
         <v/>
@@ -2557,8 +2720,51 @@
       <c r="Z10" t="str">
         <v/>
       </c>
-      <c r="AA10" t="str">
-        <v/>
+      <c r="AA10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Pelabuhan Perikanan
+Aktivitas Pelayanan Kepelabuhanan Laut
+Aktivitas Pelayanan Kepelabuhanan Penyeberangan
+Aktivitas Pelayanan Kepelabuhanan Sungai dan Danau
+Aktivitas Penunjang Angkutan Perairan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Instalasi Elektronika
+Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Penggalian Asbes
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Tras
+Pengumpulan Limbah dan Sampah Tidak Berbahaya
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium</v>
       </c>
       <c r="AB10" t="str">
         <v/>
@@ -2727,8 +2933,9 @@
       <c r="Z11" t="str">
         <v/>
       </c>
-      <c r="AA11" t="str">
-        <v/>
+      <c r="AA11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Periklanan
+Taman Rekreasi</v>
       </c>
       <c r="AB11" t="str">
         <v/>
@@ -3506,8 +3713,264 @@
       <c r="Z12" t="str">
         <v/>
       </c>
-      <c r="AA12" t="str">
-        <v/>
+      <c r="AA12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Agen Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Agen Perjalanan Lainnya
+Aktivitas Agen Perjalanan Wisata
+Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
+Aktivitas Arsitektur
+Aktivitas Biro Perjalanan Ibadah Umroh Dan Haji Khusus
+Aktivitas Biro Perjalanan Lainnya
+Aktivitas Biro Perjalanan Wisata
+Aktivitas Desain Alat Komunikasi Dan Elektronika
+Aktivitas Desain Alat Transportasi Dan Permesinan
+Aktivitas Desain Industri Lainnya
+Aktivitas Desain Industri Strategis Dan Pertahanan
+Aktivitas Desain Interior
+Aktivitas Desain Khusus Film, Video, Program Tv, Animasi Dan Komik
+Aktivitas Desain Komunikasi Visual/ Desain Grafis
+Aktivitas Desain Konten Game
+Aktivitas Desain Konten Kreatif Lainya
+Aktivitas Desain Pengemasan
+Aktivitas Desain Peralatan Olahraga Dan Permainan
+Aktivitas Desain Peralatan Rumah Tangga Dan Furnitur
+Aktivitas Desain Produk Kesehatan, Kosmetik Dan Perlengkapan Laboratorium
+Aktivitas Desain Tekstil, Fashion Dan Apparel
+Aktivitas Fotografi
+Aktivitas Fotokopi, Penyiapan Dokumen Dan Aktivitas Khusus Penunjang Kantor Lainnya
+Aktivitas Hukum Lainnya
+Aktivitas Jasa Sistem Keamanan
+Aktivitas Kantor Berita Oleh Pemerintah
+Aktivitas Kantor Berita Oleh Swasta
+Aktivitas Kantor Pusat
+Aktivitas Keamanan Swasta
+Aktivitas Kebersihan Bangunan Dan Industri Lainnya
+Aktivitas Kebersihan Umum Bangunan
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Kesehatan Hewan
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Bisnis Dan Broker Bisnis
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Organisasi Ilmu Pengetahuan Sosial Dan Masyarakat
+Aktivitas Penempatan Pekerja Rumah Tangga
+Aktivitas Penempatan Tenaga Kerja Daring
+Aktivitas Penerjemah Atau Interpreter
+Aktivitas Pengacara
+Aktivitas Pengujian Dan Atau Kalibrasi Alat Kesehatan Dan Inspeksi Sarana Prasarana Kesehatan
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Penyedia Gabungan Jasa Administrasi Kantor
+Aktivitas Penyedia Gabungan Jasa Penunjang Fasilitas
+Aktivitas Penyediaan Tenaga Kerja Waktu Tertentu
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Dalam Negeri
+Aktivitas Penyeleksian Dan Penempatan Tenaga Kerja Luar Negeri
+Aktivitas Penyelidikan
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Alat Bantu Teknologi Digital
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Kebutuhan MICE
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Alat Perekaman Gambar &amp; Editing
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Dan Peralatan Industri Kreatif Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Tanpa Hak Opsi Mesin Pertambangan Dan Energi Serta Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Musik
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Pesta
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Rekreasi Dan Olahraga
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Air
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Darat Bukan Kendaraan Bermotor Roda Empat Atau Lebih
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Lainnya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Alat Transportasi Udara
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Hasil Pencetakan Dan Penerbitan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Barang Keperluan Rumah Tangga Dan Pribadi Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Bunga Dan Tanaman Hias
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Industri Pengolahan
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Dan Peralatan Konstruksi Dan Teknik Sipil
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Kantor Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin Pertanian Dan Peralatannya
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mesin, Peralatan Dan Barang Berwujud Lainnya YTDL
+Aktivitas Penyewaan Dan Sewa Guna Usaha Tanpa Hak Opsi Mobil, Bus, Truk Dan Sejenisnya
+Aktivitas Penyewaan Kaset Video, Cd, Vcd/Dvd Dan Sejenisnya
+Aktivitas Perawatan Dan Pemeliharaan Taman
+Aktivitas Profesional, Ilmiah Dan Teknis Lainnya YTDL
+Aktivitas Puskesmas
+Aktivitas Sertifikasi Personel Independen
+Aktivitas Sertifikasi Profesi Pihak 1
+Aktivitas Sertifikasi Profesi Pihak 2
+Aktivitas Sertifikasi Profesi Pihak 3
+Analisis Dan Uji Teknis Lainnya
+Angkutan Bus Khusus
+Apartemen Hotel
+Badan Regulasi Dan Liga Olahraga
+Bank Pembiayaan Rakyat Syariah
+Bank Perkreditan Rakyat
+Bank Sentral
+Bank Umum Konvensional
+Bank Umum Syariah
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Hotel Bintang
+Hotel Melati
+Industri Minyak Mentah Inti Kelapa Sawit
+Industri Minyak Mentah Kelapa
+Industri Minyak Mentah Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Kelapa Sawit
+Industri Pemurnian Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Jajak Pendapat Masyarakat
+Jasa Commissioning Proses Industrial, Quality Assurance (Qa), Dan Quality Control
+Jasa Informasi Daya Tarik Wisata
+Jasa Informasi Pariwisata
+Jasa Inspeksi Periodik
+Jasa Inspeksi Teknik Instalasi
+Jasa Interpreter Wisata
+Jasa Kalibrasi/Metrologi
+Jasa Klasifikasi Kapal
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Pramuwisata
+Jasa Reservasi Lainnya YBDI YTDL
+Jasa Sertifikasi
+Kegiatan Penunjang Pendidikan
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Gedung Hunian
+Konstruksi Gedung Perbelanjaan
+Konstruksi Gedung Perkantoran
+Koperasi Simpan Pinjam Primer
+Koperasi Simpan Pinjam Sekunder
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Primer
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Sekunder
+Lembaga Keuangan Mikro Konvensional
+Lembaga Keuangan Mikro Syariah
+Pelatihan Kerja Bisnis Dan Manajemen Pemerintah
+Pelatihan Kerja Bisnis Dan Manajemen Perusahaan
+Pelatihan Kerja Bisnis Dan Manajemen Swasta
+Pelatihan Kerja Industri Kreatif Pemerintah
+Pelatihan Kerja Industri Kreatif Perusahaan
+Pelatihan Kerja Industri Kreatif Swasta
+Pelatihan Kerja Pariwisata Dan Perhotelan Pemerintah
+Pelatihan Kerja Pariwisata Dan Perhotelan Perusahaan
+Pelatihan Kerja Pariwisata Dan Perhotelan Swasta
+Pelatihan Kerja Pekerjaan Domestik Pemerintah
+Pelatihan Kerja Pekerjaan Domestik Perusahaan
+Pelatihan Kerja Pekerjaan Domestik Swasta
+Pelatihan Kerja Pemerintah Lainnya
+Pelatihan Kerja Pertanian Dan Perikanan Pemerintah
+Pelatihan Kerja Pertanian Dan Perikanan Perusahaan
+Pelatihan Kerja Pertanian Dan Perikanan Swasta
+Pelatihan Kerja Perusahaan Lainnya
+Pelatihan Kerja Swasta Lainnya
+Pelatihan Kerja Teknik Pemerintah
+Pelatihan Kerja Teknik Perusahaan
+Pelatihan Kerja Teknik Swasta
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Pemerintah
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Perusahaan
+Pelatihan Kerja Teknologi Informasi Dan Komunikasi Swasta
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Walet
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Pesantren Tinggi
+Pendidikan Teknik Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Sejarah/Cagar Budaya
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian Pasar
+Penelitian dan Pengembangan Seni
+Pengelolaan Fasilitas Olah Raga Lainnya
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Penginapan Remaja
+Pengusahaaan Tenaga Panas Bumi
+Penyediaan Sumber Daya Manusia Dan Manajemen Fungsi Sumber Daya Manusia
+Perdagangan Besar Buah Yang Mengandung Minyak
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Pondok Wisata
+Rumah Tinggal
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Sewa Guna Usaha Tanpa Hak Opsi Intelektual Properti, Bukan Karya Hak Cipta
+Tempat Peribadatan
+Unit Simpan Pinjam Koperasi Primer
+Unit Simpan Pinjam Koperasi Sekunder
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Primer
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Sekunder
+Unit Usaha Syariah Bank Umum
+Villa</v>
       </c>
       <c r="AB12" t="str">
         <v/>
@@ -3901,8 +4364,362 @@
       <c r="Z13" t="str">
         <v/>
       </c>
-      <c r="AA13" t="str">
-        <v/>
+      <c r="AA13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Agen Penjual Efek Reksa Dana
+Agen Perantara Pedagang Efek
+Ahli Syariah Pasar Modal
+Aktivitas Agen Asuransi
+Aktivitas Agen Penjamin
+Aktivitas Akuntansi, Pembukuan Dan Pemeriksa
+Aktivitas Arsitektur
+Aktivitas Broker Penjaminan
+Aktivitas Broker Penjaminan Ulang
+Aktivitas Hiburan dan Rekreasi Lainnya YTDL
+Aktivitas Hukum Lainnya
+Aktivitas Jasa Keuangan Lainnya YDTL, Bukan Asuransi dan Dana Pensiun
+Aktivitas Kantor Pusat
+Aktivitas Kehumasan
+Aktivitas Keinsinyuran Dan Konsultasi Teknis Ybdi
+Aktivitas Konsultan Aktuaria
+Aktivitas Konsultan Hukum
+Aktivitas Konsultan Kekayaan Intelektual
+Aktivitas Konsultansi Manajemen Industri
+Aktivitas Konsultansi Pariwisata
+Aktivitas Konsultansi Transportasi
+Aktivitas Konsultasi Manajemen Lainnya
+Aktivitas Konsultasi Pajak
+Aktivitas Lainnya Yang Berkaitan Dengan Olahraga
+Aktivitas Manajemen Dana Lainnya
+Aktivitas Notaris Dan Pejabat Pembuat Akta Tanah
+Aktivitas Olahraga Tradisional
+Aktivitas Pelayanan Kepelabuhanan Laut
+Aktivitas Pelayanan Kesehatan Tradisional
+Aktivitas Pelayanan Kesehatan yang Dilakukan Oleh Tenaga Kesehatan Selain Dokter dan Dokter Gigi
+Aktivitas Pelayanan Penunjang Kesehatan
+Aktivitas Pemeringkat Usaha Mikro, Kecil, Menengah dan Koperasi
+Aktivitas Pengacara
+Aktivitas Penilai Kerugian Asuransi
+Aktivitas Penilaian Risiko Asuransi
+Aktivitas Penunjang Asuransi, dan Dana Pensiun Lainnya
+Aktivitas Penunjang Jasa Keuangan Lainnya YTDL
+Aktivitas Penunjang Perdagangan Berjangka Komoditi Lainnya
+Aktivitas Perancangan Khusus
+Aktivitas Perusahaan Holding
+Aktivitas Pialang Asuransi
+Aktivitas Pialang Reasuransi
+Aktivitas Praktik Dokter
+Aktivitas Praktik Dokter Gigi
+Aktivitas Praktik Dokter Spesialis
+Angkutan Udara Untuk Wisata
+Asuransi Jiwa Konvensional
+Asuransi Jiwa Syariah
+Asuransi Umum Konvensional
+Asuransi Umum Syariah
+Bank Pembiayaan Rakyat Syariah
+Bank Perkreditan Rakyat
+Bank Sentral
+Bank Umum Konvensional
+Bank Umum Syariah
+Biro Administrasi Efek
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Tawar
+Bursa Berjangka
+Bursa Berjangka Penyelenggara Pasar Fisik
+Bursa Efek
+Central Counterparty Transaksi Derivatif Suku Bunga dan Nilai Tukar
+Dana Pensiun Lembaga Keuangan Konvensional
+Dana Pensiun Lembaga Keuangan Syariah
+Dana Pensiun Pemberi Kerja Konvensional
+Dana Pensiun Pemberi Kerja Syariah
+Diskotek
+Fasilitas Gelanggang/Arena
+Fasilitas Lapangan
+Fasilitas Olahraga Beladiri
+Fasilitas Pusat Kebugaran/ Fitness Center
+Fasilitas Stadion
+Gerai Penjualan Efek Reksa Dana
+Industri Air Kemasan
+Industri Air Minum Isi Ulang
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Dodol
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Kakao
+Industri Kecap
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Sirop
+Industri Tahu Kedelai
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Jasa Pasca Panen Budidaya Ikan Air Payau
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pendidikan Komputer (Teknologi Informasi Dan Komunikasi) Swasta
+Jasa Pendidikan Manajemen Dan Perbankan
+Jasa Pendidikan Olahraga Dan Rekreasi
+Jasa Produksi Budidaya Ikan Air Payau
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Budidaya Ikan Air Payau
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Kegiatan Penukaran Valuta Asing
+Kegiatan Penunjang Pendidikan
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Klub Bela Diri
+Klub Bowling
+Klub Golf
+Klub Kebugaran/Fitness Dan Binaraga
+Klub Malam
+Klub Olahraga Lainnya
+Klub Renang
+Klub Sepak Bola
+Klub Tenis Lapangan
+Klub Tinju
+Konstruksi Gedung Hunian
+Konstruksi Gedung Industri
+Konstruksi Gedung Perkantoran
+Koperasi Simpan Pinjam Primer
+Koperasi Simpan Pinjam Sekunder
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Primer
+Koperasi Simpan Pinjam dan Pembiayaan Syariah Sekunder
+Kustodian
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Konvensional
+Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi (Fintech P2P Lending) Syariah
+Lembaga Keuangan Mikro Konvensional
+Lembaga Keuangan Mikro Syariah
+Lembaga Kliring dan Penjaminan Berjangka
+Lembaga Kliring dan Penjaminan Berjangka Penyelenggara Pasar Fisik
+Lembaga Kliring dan Penjaminan Efek
+Lembaga Pendanaan Efek
+Lembaga Penilaian Harga Efek
+Lembaga Penjamin Simpanan
+Lembaga Penyimpanan dan Penyelesaian
+Lembagan Pembiayaan Ekspor Indonesia
+Manajer Investasi
+Manajer Investasi Syariah
+Olahragawan, Juri Dan Wasit Profesional
+Otoritas Jasa Keuangan
+Pedagang Berjangka
+Pedagang Fisik Komoditi
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Mollusca Laut
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Lebah
+Penasihat Berjangka
+Penasihat Investasi Berbentuk Perusahaan
+Penasihat Investasi Perorangan
+Pendidikan Anak Usia Dini Sejenis Lainnya
+Pendidikan Awak Pesawat Dan Jasa Angkutan Udara Khusus
+Pendidikan Bahasa Swasta
+Pendidikan Bimbingan Belajar Dan Konseling Swasta
+Pendidikan Dasar/Ibtidaiyah Pemerintah
+Pendidikan Dasar/Ibtidaiyah Swasta
+Pendidikan Keagamaan Islam Non Formal
+Pendidikan Keagamaan Lainnya YTDL
+Pendidikan Kebudayaan
+Pendidikan Kelompok Bermain
+Pendidikan Kerajinan Dan Industri
+Pendidikan Kesehatan Swasta
+Pendidikan Lainnya Pemerintah
+Pendidikan Lainnya Swasta
+Pendidikan Menengah Atas/Aliyah Pemerintah
+Pendidikan Menengah Kejuruan Dan Teknis/Aliyah Kejuruan Pemerintah
+Pendidikan Menengah Kejuruan/Aliyah Kejuruan Swasta
+Pendidikan Menengah Pertama/Tsanawiyah Pemerintah
+Pendidikan Menengah Pertama/Tsanawiyah Swasta
+Pendidikan Menengah/Aliyah Swasta
+Pendidikan Pesantren Lainnya
+Pendidikan Taman Kanak-Kanak Luar Biasa
+Pendidikan Taman Kanak-Kanak Pemerintah
+Pendidikan Taman Kanak-Kanak Swasta/Raudatul Athfal/Bustanul Athfal
+Pendidikan Taman Penitipan Anak
+Pendidikan Teknik Swasta
+Penelitian Dan Pengembangan Agama
+Penelitian Dan Pengembangan Bioteknologi
+Penelitian Dan Pengembangan Ilmu Kedokteran
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam
+Penelitian Dan Pengembangan Ilmu Pengetahuan Alam Dan Teknologi Rekayasa Lainnya
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial
+Penelitian Dan Pengembangan Ilmu Pengetahuan Sosial Dan Humaniora Lainnya
+Penelitian Dan Pengembangan Ilmu Perikanan Dan Kelautan
+Penelitian Dan Pengembangan Ilmu Pertanian, Peternakan, Dan Kehutanan
+Penelitian Dan Pengembangan Linguistik Dan Sastra
+Penelitian Dan Pengembangan Psikologi
+Penelitian Dan Pengembangan Teknologi Dan Rekayasa
+Penelitian dan Pengembangan Seni
+Pengelola Sentra Dana Berjangka
+Pengelola Tempat Penyimpanan Fisik Komoditi
+Pengelolaan Fasilitas Olah Raga Lainnya
+Pengusahaan Kokon/Kepompong Ulat Sutra
+Penjamin Emisi efek
+Penyedia Jasa Pembayaran
+Penyediaan Jasa Boga Periode Tertentu
+Penyelenggara Dana Perlindungan Pemodal
+Penyelenggara Infrastruktur Perdagangan Di Pasar Modal Lainnya
+Penyelenggara Infrastruktur Sistem Pembayaran
+Penyelenggara Kegiatan Jasa Pengolahan Uang Rupiah
+Penyelenggara Pasar Alternatif
+Penyelenggara Penawaran Efek Melalui Layanan Urun Dana Berbasis Teknologi Informasi
+Penyelenggara Penunjang Sistem Pembayaran
+Penyelenggara Sarana Pelaksanaan Transaksi Di Pasar Uang dan Pasar Valuta Asing
+Penyelenggara Sistem Perdagangan Alternatif
+Penyelenggaraan Infrastruktur Pasar Uang dan Pasar Valuta Asing
+Perantara Moneter Lainnya
+Perantara Pedagang Efek
+Perantara Pedagang Efek Bersifat Utang dan Suku
+Perantara Perdagangan Berjangka Komoditi Lainnya
+Perantara Perdagangan Fisik Komoditi
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Pergadaian Konvensional
+Pergadaian Syariah
+Periklanan
+Pertanian Holtikultura Buah
+Pertanian Holtikultura Sayuran Daun
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias
+Perusahaan Efek Daerah
+Perusahaan Efek Selain Manajemen Investasi Lainnya
+Perusahaan Modal Ventura Konvensional
+Perusahaan Modal Ventura Syariah
+Perusahaan Pembiayaan Infrastruktur Konvensional
+Perusahaan Pembiayaan Infrastruktur Syariah
+Perusahaan Pembiayaan Konvensional
+Perusahaan Pembiayaan Sekunder Perumahan
+Perusahaan Pembiayaan Syariah
+Perusahaan Pemeringkat Efek
+Perusahaan Penjamin Konvensional
+Perusahaan Penjaminan Syariah
+Perusahaan Penjaminan Ulang Konvensional
+Perusahaan Penjaminan Ulang Syariah
+Pialang Perdagangan Berjangka
+Promotor Kegiatan Olahraga
+Real Estat Atas Dasar Balas Jasa (Fee) atau Kontrak
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reasuransi Konvensional
+Reasuransi Syariah
+Satuan Pendidikan Anak Usia Dini/Paud Al-Quran
+Satuan Pendidikan Keagamaan Anak Usia Dini
+Satuan Pendidikan Keagamaan Dasar
+Satuan Pendidikan Keagamaan Menengah
+Satuan Pendidikan Keagamaan Menengah Pertama
+Satuan Pendidikan Kerjasama Kelompok Bermain
+Satuan Pendidikan Kerjasama Pendidikan Dasar
+Satuan Pendidikan Kerjasama Pendidikan Menengah Atas
+Satuan Pendidikan Kerjasama Pendidikan Menengah Kejuruan
+Satuan Pendidikan Kerjasama Pendidikan Menengah Pertama
+Satuan Pendidikan Kerjasama Pendidikan Nonformal
+Satuan Pendidikan Kerjasama Taman Kanak-Kanak
+Satuan Pendidikan Muadalah Wustha Dan Ulya Berkesinambungan
+Satuan Pendidikan Muadalah/ Pendidikan Diniyah Formal Ulya
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Ula
+Satuan Pendidikan Muadalah/Pendidikan Diniyah Formal Wustha
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ula
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Ulya
+Satuan Pendidikan Pesantren Pengkajian Kitab Kuning Wustha
+Trust, Pendanaan dan Entitas Keuangan Sejenis
+Unit Simpan Pinjam Koperasi Primer
+Unit Simpan Pinjam Koperasi Sekunder
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Primer
+Unit Simpan Pinjam dan Pembiayaan Syariah Koperasi Sekunder
+Unit Syariah Asuransi Jiwa
+Unit Syariah Asuransi Umum
+Unit Syariah Dana Pensiun Pemberi Kerja
+Unit Syariah Perusahaan Penjaminan
+Unit Syariah Reasuransi
+Unit Usaha Syariah Bank Umum
+Unit Usaha Syariah Layanan Pinjam Meminjam Uang Berbasis Teknologi Informasi
+Unit Usaha Syariah Modal Ventura
+Unit Usaha Syariah Pegadaian
+Unit Usaha Syariah Perusahaan Pembiayaan
+Unit Usaha Syariah Perusahaan Pembiayaan Infrastruktur
+Usaha Arena Permainan
+Wali Amanat</v>
       </c>
       <c r="AB13" t="str">
         <v/>
@@ -4066,7 +4883,7 @@
         <v/>
       </c>
       <c r="AA14" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB14" t="str">
         <v/>
@@ -5032,8 +5849,389 @@
       <c r="Z15" t="str">
         <v/>
       </c>
-      <c r="AA15" t="str">
-        <v/>
+      <c r="AA15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Pelabuhan Perikanan
+Aktivitas Pelayanan Kepelabuhanan Laut
+Aktivitas Pelayanan Kepelabuhanan Penyeberangan
+Aktivitas Pelayanan Kepelabuhanan Sungai dan Danau
+Aktivitas Pengelolaan Kapal
+Aktivitas Penunjang Angkutan Perairan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Barang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Barang Khusus
+Angkutan Laut Dalam Negeri Untuk Barang Umum
+Angkutan Laut Dalam Negeri Untuk Pelayaran Rakyat
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Luar Negeri Pelayaran Rakyat
+Angkutan Laut Luar Negeri Untuk Barang Khusus
+Angkutan Laut Luar Negeri Untuk Barang Umum
+Angkutan Laut Luar Negeri Untuk Wisata
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Barang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Penyeberangan Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Dalam Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Lainnya Untuk Barang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Lainnya Untuk Penumpang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Perintis Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Perintis Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Umum Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Umum Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Umum Dalam Kabupaten/Kota Untuk Barang
+Angkutan Sungai dan Danau Liner (Trayek Tetap dan Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Tramper (Trayek Tidak Tetap dan Tidak Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Untuk Barang Berbahaya
+Angkutan Sungai dan Danau Untuk Barang Khusus
+Angkutan Sungai dan Danau Untuk Barang Umum dan/atau Hewan
+Angkutan Sungai dan Danau Untuk Wisata dan YBDI
+Bar
+Diskotek
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Iindustri Kain Tenun Ikat
+Industri Air Kemasan
+Industri Air Minum dan Air Mineral
+Industri Alas Kaki Lainnya
+Industri Alas Kaki Untuk Keperluan Sehari-hari
+Industri Alat Dapur dari Kayu, Rotan dan Bambu
+Industri Alat Musik Bukan Tradisional
+Industri Alat Musik Tradisional
+Industri Alat Olahraga
+Industri Alat Pengangkat dan Pemindah
+Industri Alat Permainan
+Industri Alat Potong dan Perkakas Tangan Pertukangan
+Industri Alat Potong dan Perkakas Tangan Untuk Pertanian
+Industri Alat Potong dan Perkakas Tangan Yang Digunakan Dalam Rumah Tangga
+Industri Alat Tulis dan Gambar Termasuk Perlengkapannya
+Industri Alat Uji Dalam Proses Industri
+Industri Alat Ukur Waktu
+Industri Alat Ukur dan Alat Uji Elektrik
+Industri Alat Ukur dan Alat Uji Elektronik
+Industri Alat Ukur dan Alat Uji Manual
+Industri Bahan Bangunan Dari Tanah Liat/Keramik Bukan Batu Bata Dan Genteng
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kawat
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Tali
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang Lainnya dari Logam Mulia
+Industri Barang Logam Lainnya YTDL
+Industri Barang Perhiasan Dari Logam Mulia Bukan Untuk Keperluan Pribadi
+Industri Barang Perhiasan Dari Logam Mulia Untuk Keperluan Pribadi
+Industri Barang Tahan Api dari Tanah Liat/Keramik Lainnya
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Barang dari Logam Mulia Untuk Keperluan Teknik dan Atau Laboratorium
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batik
+Industri Batu Bata dari Tanah Liat/Keramik
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Brankas, Filling Kantor dan Sejenisnya
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Dodol
+Industri Ember, Kaleng, Drum dan Wadah Sejenis Dari Logam
+Industri Furnitur Lainnya
+Industri Furnitur dari Kayu
+Industri Furnitur dari Logam
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Genteng Dari Tanah Liat/Keramik
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Jarum Mesin Jahit, Rajut, Bordir dan Sejenisnya
+Industri Kabinet Mesin Jahit
+Industri Kaca Mata
+Industri Kain Ban
+Industri Kain Pita
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kamera Cinematografi Proyektor dan Perlengkapannya
+Industri Kapuk
+Industri Karpet dan Permadani
+Industri Kartu Cerdas
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Keperluan Rumah Tangga Dari Logam Bukan Peralatan Dapur dan Peralatan Meja
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Komponen dan Perlengkapan Sepeda Motor Roda Dua dan Tiga
+Industri Komputer dan/atau Perakitan Komputer
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Lampu Dari Logam
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Malt
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Media Magnetik dan Media Optik
+Industri Mesin Fotocopi
+Industri Mesin Jahit Serta Mesin Cuci dan Mesin Pengering Untuk Keperluan Niaga
+Industri Mesin Kantor dan Akuntansi Elektrik
+Industri Mesin Kantor dan Akuntansi Elektronik
+Industri Mesin Kantor dan Akuntansi Manual
+Industri Mesin Pabrik Kertas
+Industri Mesin Pengolahan Makanan, Minuman, dan Tembakau
+Industri Mesin Penyiapan dan Pembuatan Produk Kulit
+Industri Mesin Percetakan
+Industri Mesin Tekstil
+Industri Mesin dan Peralatan Kantor Lainnya
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Mortar atau Beton Siap Pakai
+Industri Non Woven
+Industri Oven, Perapian dan Tungku Pembakar Sejenis Yang Tidak Menggunakan Arus Listrik
+Industri Oven, Perapian dan Tungku Pembakar Sejenis yang Menggunakan Arus Listrik
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Paku, Mur dan Baut
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pembuatan Profil
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Peralatan Audio dan Video Elektronik Lainnya
+Industri Peralatan Dapur dan Peralatan Meja Dari Logam
+Industri Peralatan Fotografi
+Industri Peralatan Kedokteran dan Kedokteran Gigi Serta Perlengkapan Lainnya
+Industri Peralatan Komunikasi Lainnya
+Industri Peralatan Komunikasi Tanpa Kabel
+Industri Peralatan Saniter Dari Porselen
+Industri Peralatan Telepon dan Faksimili
+Industri Peralatan Terekam, Penerima dan Pengganda Audio dan Video, Bukan Industri Televisi
+Industri Peralatan Umum
+Industri Peralatan Untuk Pelindung Keselamatan
+Industri Percetakan Kain
+Industri Perhiasan Imitasi dan Barang Sejenis
+Industri Perhiasan Mutiara
+Industri Perlengkapan Komputer
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Perlengkapan Rumah Tangga Dari Porselen
+Industri Perlengkapan Rumah Tangga Dari Tanah Liat/Keramik
+Industri Perlengkapan Sepeda dan Kursi Roda Termasuk Becak
+Industri Permata
+Industri Persiapan Serat Tekstil
+Industri Pertenunan
+Industri Pita Mesin Tulis/Gambar
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Semi Konduktor Dan Komponen Elektronik Lainnya
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sepeda dan Kursi Roda Termasuk Becak
+Industri Serat Sabut Kelapa
+Industri Sirop
+Industri Tabung Elektron dan Konektor Elektronik
+Industri Tahu Kedelai
+Industri Tali
+Industri Tekstil Lainnya YTDL
+Industri Televisi dan/atau Perakitan Televisi
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Teropong dan Instrumen Optik Bukan Kacamata
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Jasa Industri Untuk Berbagai Pengerjaan Khusus Logam dan Barang dari Logam
+Jasa Pengurusan Transportasi
+Karaoke
+Kegiatan Jasa Penunjang Pencetakkan
+Klub Malam
+Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Gedung Industri
+Konstruksi Gedung Kesehatan
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Perdagangan Besar Bahan Bakar Padat, Cair dan Gas dan Produk YBDI
+Perdagangan Besar Barang Bekas dan Sisa-sisa Tak Terpakai
+Perdagangan Besar Logam dan Bijih Logam
+Pergudangan dan Penyimpanan
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Produk Logam Pabrikasi Lainnya
+Reparasi Produk Logam Siap Pasang Untuk Bangunan, Tangki, Tandon Air dan Generator Uap
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Tempat Peribadatan
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB15" t="str">
         <v/>
@@ -5240,7 +6438,7 @@
         <v/>
       </c>
       <c r="AA16" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB16" t="str">
         <v/>
@@ -5382,7 +6580,7 @@
         <v/>
       </c>
       <c r="AA17" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB17" t="str">
         <v/>
@@ -6348,8 +7546,389 @@
       <c r="Z18" t="str">
         <v/>
       </c>
-      <c r="AA18" t="str">
-        <v/>
+      <c r="AA18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Pelabuhan Perikanan
+Aktivitas Pelayanan Kepelabuhanan Laut
+Aktivitas Pelayanan Kepelabuhanan Penyeberangan
+Aktivitas Pelayanan Kepelabuhanan Sungai dan Danau
+Aktivitas Pengelolaan Kapal
+Aktivitas Penunjang Angkutan Perairan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Barang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Barang Khusus
+Angkutan Laut Dalam Negeri Untuk Barang Umum
+Angkutan Laut Dalam Negeri Untuk Pelayaran Rakyat
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Luar Negeri Pelayaran Rakyat
+Angkutan Laut Luar Negeri Untuk Barang Khusus
+Angkutan Laut Luar Negeri Untuk Barang Umum
+Angkutan Laut Luar Negeri Untuk Wisata
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Barang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Penyeberangan Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Dalam Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Lainnya Untuk Barang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Lainnya Untuk Penumpang Termasuk Penyeberangan Antar Negara
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Perintis Antar Kabupaten/Kota Untuk Penumpang
+Angkutan Penyeberangan Perintis Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Perintis Antarprovinsi Untuk Penumpang
+Angkutan Penyeberangan Umum Antar Kabupaten/Kota Untuk Barang
+Angkutan Penyeberangan Umum Antar Provinsi Untuk Barang
+Angkutan Penyeberangan Umum Dalam Kabupaten/Kota Untuk Barang
+Angkutan Sungai dan Danau Liner (Trayek Tetap dan Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Tramper (Trayek Tidak Tetap dan Tidak Teratur) Untuk Penumpang
+Angkutan Sungai dan Danau Untuk Barang Berbahaya
+Angkutan Sungai dan Danau Untuk Barang Khusus
+Angkutan Sungai dan Danau Untuk Barang Umum dan/atau Hewan
+Angkutan Sungai dan Danau Untuk Wisata dan YBDI
+Bar
+Diskotek
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Iindustri Kain Tenun Ikat
+Industri Air Kemasan
+Industri Air Minum dan Air Mineral
+Industri Alas Kaki Lainnya
+Industri Alas Kaki Untuk Keperluan Sehari-hari
+Industri Alat Dapur dari Kayu, Rotan dan Bambu
+Industri Alat Musik Bukan Tradisional
+Industri Alat Musik Tradisional
+Industri Alat Olahraga
+Industri Alat Pengangkat dan Pemindah
+Industri Alat Permainan
+Industri Alat Potong dan Perkakas Tangan Pertukangan
+Industri Alat Potong dan Perkakas Tangan Untuk Pertanian
+Industri Alat Potong dan Perkakas Tangan Yang Digunakan Dalam Rumah Tangga
+Industri Alat Tulis dan Gambar Termasuk Perlengkapannya
+Industri Alat Uji Dalam Proses Industri
+Industri Alat Ukur Waktu
+Industri Alat Ukur dan Alat Uji Elektrik
+Industri Alat Ukur dan Alat Uji Elektronik
+Industri Alat Ukur dan Alat Uji Manual
+Industri Bahan Bangunan Dari Tanah Liat/Keramik Bukan Batu Bata Dan Genteng
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kawat
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Tali
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang Lainnya dari Logam Mulia
+Industri Barang Logam Lainnya YTDL
+Industri Barang Perhiasan Dari Logam Mulia Bukan Untuk Keperluan Pribadi
+Industri Barang Perhiasan Dari Logam Mulia Untuk Keperluan Pribadi
+Industri Barang Tahan Api dari Tanah Liat/Keramik Lainnya
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Barang dari Logam Mulia Untuk Keperluan Teknik dan Atau Laboratorium
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batik
+Industri Batu Bata dari Tanah Liat/Keramik
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Brankas, Filling Kantor dan Sejenisnya
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Dodol
+Industri Ember, Kaleng, Drum dan Wadah Sejenis Dari Logam
+Industri Furnitur Lainnya
+Industri Furnitur dari Kayu
+Industri Furnitur dari Logam
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Genteng Dari Tanah Liat/Keramik
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Jarum Mesin Jahit, Rajut, Bordir dan Sejenisnya
+Industri Kabinet Mesin Jahit
+Industri Kaca Mata
+Industri Kain Ban
+Industri Kain Pita
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kamera Cinematografi Proyektor dan Perlengkapannya
+Industri Kapuk
+Industri Karpet dan Permadani
+Industri Kartu Cerdas
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Keperluan Rumah Tangga Dari Logam Bukan Peralatan Dapur dan Peralatan Meja
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Komponen dan Perlengkapan Sepeda Motor Roda Dua dan Tiga
+Industri Komputer dan/atau Perakitan Komputer
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Lampu Dari Logam
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Malt
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Media Magnetik dan Media Optik
+Industri Mesin Fotocopi
+Industri Mesin Jahit Serta Mesin Cuci dan Mesin Pengering Untuk Keperluan Niaga
+Industri Mesin Kantor dan Akuntansi Elektrik
+Industri Mesin Kantor dan Akuntansi Elektronik
+Industri Mesin Kantor dan Akuntansi Manual
+Industri Mesin Pabrik Kertas
+Industri Mesin Pengolahan Makanan, Minuman, dan Tembakau
+Industri Mesin Penyiapan dan Pembuatan Produk Kulit
+Industri Mesin Percetakan
+Industri Mesin Tekstil
+Industri Mesin dan Peralatan Kantor Lainnya
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Mortar atau Beton Siap Pakai
+Industri Non Woven
+Industri Oven, Perapian dan Tungku Pembakar Sejenis Yang Tidak Menggunakan Arus Listrik
+Industri Oven, Perapian dan Tungku Pembakar Sejenis yang Menggunakan Arus Listrik
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Paku, Mur dan Baut
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pembuatan Profil
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Peralatan Audio dan Video Elektronik Lainnya
+Industri Peralatan Dapur dan Peralatan Meja Dari Logam
+Industri Peralatan Fotografi
+Industri Peralatan Kedokteran dan Kedokteran Gigi Serta Perlengkapan Lainnya
+Industri Peralatan Komunikasi Lainnya
+Industri Peralatan Komunikasi Tanpa Kabel
+Industri Peralatan Saniter Dari Porselen
+Industri Peralatan Telepon dan Faksimili
+Industri Peralatan Terekam, Penerima dan Pengganda Audio dan Video, Bukan Industri Televisi
+Industri Peralatan Umum
+Industri Peralatan Untuk Pelindung Keselamatan
+Industri Percetakan Kain
+Industri Perhiasan Imitasi dan Barang Sejenis
+Industri Perhiasan Mutiara
+Industri Perlengkapan Komputer
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Perlengkapan Rumah Tangga Dari Porselen
+Industri Perlengkapan Rumah Tangga Dari Tanah Liat/Keramik
+Industri Perlengkapan Sepeda dan Kursi Roda Termasuk Becak
+Industri Permata
+Industri Persiapan Serat Tekstil
+Industri Pertenunan
+Industri Pita Mesin Tulis/Gambar
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Semi Konduktor Dan Komponen Elektronik Lainnya
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sepeda dan Kursi Roda Termasuk Becak
+Industri Serat Sabut Kelapa
+Industri Sirop
+Industri Tabung Elektron dan Konektor Elektronik
+Industri Tahu Kedelai
+Industri Tali
+Industri Tekstil Lainnya YTDL
+Industri Televisi dan/atau Perakitan Televisi
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Teropong dan Instrumen Optik Bukan Kacamata
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Jasa Industri Untuk Berbagai Pengerjaan Khusus Logam dan Barang dari Logam
+Jasa Pengurusan Transportasi
+Karaoke
+Kegiatan Jasa Penunjang Pencetakkan
+Klub Malam
+Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan
+Konstruksi Bangunan Sipil Fasilitas Olahraga
+Konstruksi Gedung Industri
+Konstruksi Gedung Kesehatan
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Perdagangan Besar Bahan Bakar Padat, Cair dan Gas dan Produk YBDI
+Perdagangan Besar Barang Bekas dan Sisa-sisa Tak Terpakai
+Perdagangan Besar Logam dan Bijih Logam
+Pergudangan dan Penyimpanan
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Produk Logam Pabrikasi Lainnya
+Reparasi Produk Logam Siap Pasang Untuk Bangunan, Tangki, Tandon Air dan Generator Uap
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Tempat Peribadatan
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB18" t="str">
         <v/>
@@ -6556,7 +8135,7 @@
         <v/>
       </c>
       <c r="AA19" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB19" t="str">
         <v/>
@@ -6698,7 +8277,7 @@
         <v/>
       </c>
       <c r="AA20" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="AB20" t="str">
         <v/>
@@ -7337,8 +8916,58 @@
       <c r="Z21" t="str">
         <v/>
       </c>
-      <c r="AA21" t="str">
-        <v/>
+      <c r="AA21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Kedai Makanan
+Kedai Minuman
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Perdagangan Eceran Khusus Peralatan Olahraga di Toko
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB21" t="str">
         <v/>
@@ -7558,8 +9187,159 @@
       <c r="Z22" t="str">
         <v/>
       </c>
-      <c r="AA22" t="str">
-        <v/>
+      <c r="AA22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Budidaya Ayam Lokal dan Persilangannya
+Budidaya Ayam Ras Pedaging
+Budidaya Ayam Ras Petelur
+Budidaya Biota Air Laut Lainnya
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Tawar
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Fasilitas Umum dan Fasilitas Sosial Pemerintahan
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Karet Remah
+Industri Kimia Dasar Organik Yang Bersumber Dari Hasil Pertanian
+Industri Minyak Mentah Inti Kelapa Sawit
+Industri Minyak Mentah Kelapa
+Industri Minyak Mentah Kelapa Sawit
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemisahan/Fraksinasi Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Kelapa Sawit
+Industri Pemurnian Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Tahu Kedelai
+Industri Tempe Kedelai
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Payau
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengetasan Telur
+Jasa Pengolahan Lahan
+Jasa Penunjang Pertanian Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perkawinan Ternak
+Jasa Produksi Budidaya Ikan Air Payau
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Budidaya Ikan Air Payau
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Kegiatan Rumah Potong dan Pengepakan Daging Bukan Unggas
+Kegiatan Rumah Potong dan Pengepakan Daging Unggas
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembesaran Crustacea Air Payau
+Pembesaran Crustacea Laut
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Tumbuhan Air Laut
+Pembesaran Tumbuhan Air Payau
+Pembibitan Ayam Lokal dan Persilangannya
+Pembibitan Ayam Ras
+Pembibitan Dan Budidaya Sapi Potong
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Merpati
+Pembibitan dan Budidaya Burung Puyuh
+Pembibitan dan Budidaya Burung Unta
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Cacing
+Pembibitan dan Budidaya Domba Perah
+Pembibitan dan Budidaya Domba Potong
+Pembibitan dan Budidaya Itik dan/atau Bebek
+Pembibitan dan Budidaya Kambing Perah
+Pembibitan dan Budidaya Kambing Potong
+Pembibitan dan Budidaya Kelinci
+Pembibitan dan Budidaya Kerbau Perah
+Pembibitan dan Budidaya Kerbau Potong
+Pembibitan dan Budidaya Lebah
+Pembibitan dan Budidaya Rusa
+Pembibitan dan Budidaya Sapi Perah
+Pembibitan dan Budidaya Ternak Unggas Lainnya
+Pemilihan Benih Tanaman Untuk Pengembangbiakan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pengusahaan Kokon/Kepompong Ulat Sutra
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Peternakan Babi
+Peternakan Kuda dan Sejenisnya
+Peternakan Unta dan Sejenisnya
+Produksi Bulu Domba Mentah/Raw Wool
+Rumah Tinggal
+Tempat Peribadatan</v>
       </c>
       <c r="AB22" t="str">
         <v/>
@@ -7833,8 +9613,9 @@
       <c r="Z23" t="str">
         <v/>
       </c>
-      <c r="AA23" t="str">
-        <v/>
+      <c r="AA23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Bangunan Pelabuhan Bukan Perikanan
+Konstruksi Bangunan Pelabuhan Perikanan</v>
       </c>
       <c r="AB23" t="str">
         <v/>
@@ -8024,8 +9805,50 @@
       <c r="Z24" t="str">
         <v/>
       </c>
-      <c r="AA24" t="str">
-        <v/>
+      <c r="AA24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium</v>
       </c>
       <c r="AB24" t="str">
         <v/>
@@ -9010,8 +10833,448 @@
       <c r="Z25" t="str">
         <v/>
       </c>
-      <c r="AA25" t="str">
-        <v/>
+      <c r="AA25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Keamanan Swasta
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Penerbitan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perancangan Khusus
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Sewa
+Apartemen Hotel
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Budidaya Ayam Lokal dan Persilangannya
+Budidaya Ayam Ras Pedaging
+Budidaya Ayam Ras Petelur
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Tawar
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Hotel Bintang
+Hotel Melati
+Iindustri Kain Tenun Ikat
+Industri Air Kemasan
+Industri Air Minum Isi Ulang
+Industri Alas Kaki Lainnya
+Industri Alas Kaki Untuk Keperluan Sehari-hari
+Industri Alat Dapur dari Kayu, Rotan dan Bambu
+Industri Alat Musik Bukan Tradisional
+Industri Alat Musik Tradisional
+Industri Alat Olahraga
+Industri Alat Permainan
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kertas dan Papan Kertas Lainnya YTDL
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Tali
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang Tahan Api dari Tanah Liat/Keramik Lainnya
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batik
+Industri Batu Bata dari Tanah Liat/Keramik
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Bubur Kertas
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Bumbu Rokok Serta Kelengkapan Rokok Lainnya
+Industri Dodol
+Industri Furnitur dari Kayu
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Genteng Dari Tanah Liat/Keramik
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Kain Ban
+Industri Kain Pita
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kapuk
+Industri Karpet dan Permadani
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kemasan dan Kotak dari Kertas dan Karton
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kertas Berharga
+Industri Kertas Budaya
+Industri Kertas Khusus
+Industri Kertas Lainnya
+Industri Kertas Tissue
+Industri Kertas dan Papan Kerta Bergelombang
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Konsentrat Makanan Hewan
+Industri Kopra
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Malt
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Margarine
+Industri Minuman Beralkohol Hasil Destilasi
+Industri Minuman Beralkohol Hasil Fermentasi Anggur dan Hasil Pertanian Lainnya
+Industri Minuman Beralkohol Hasil Fermentasi Malt
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Minyak Goreng Bukan Minyak Kelapa dan Minyak Kelapa Sawit
+Industri Minyak Goreng Kelapa
+Industri Minyak Goreng Kelapa Sawit
+Industri Minyak Ikan
+Industri Minyak Mentah Inti Kelapa Sawit
+Industri Minyak Mentah Kelapa
+Industri Minyak Mentah Kelapa Sawit
+Industri Minyak Mentah dan Lemak Hewani Selain Ikan
+Industri Minyak Mentah dan Lemak Nabati
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Mortar atau Beton Siap Pakai
+Industri Non Woven
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelet Kelapa
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pemisahan/Fraksinasi Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Kelapa Sawit
+Industri Pemurnian Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Pengeringan dan Pengolahan Tembakau
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Percetakan Kain
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Perlengkapan Rumah Tangga Dari Porselen
+Industri Perlengkapan Rumah Tangga Dari Tanah Liat/Keramik
+Industri Persiapan Serat Tekstil
+Industri Pertenunan
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Ransum Makanan Hewan
+Industri Rokok Lainnya
+Industri Rokok Putih
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sigaret Kretek Mesin
+Industri Sigaret Kretek Tangan
+Industri Sirop
+Industri Tahu Kedelai
+Industri Tali
+Industri Tekstil Lainnya YTDL
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Jaminan Sosial Wajib
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Payau
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pasca Panen Penangkapan Ikan Di Perairan Darat
+Jasa Pasca Panen Penangkapan Ikan di Laut
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengetasan Telur
+Jasa Penggunaan Kawasan Hutan Di Luar Sektor Kehutanan
+Jasa Pengolahan Lahan
+Jasa Penunjang Pertanian Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perkawinan Ternak
+Jasa Produksi Budidaya Ikan Air Payau
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Produksi Penangkapan Ikan Di Laut
+Jasa Produksi Penangkapan Ikan Di Perairan Darat
+Jasa Sarana Produksi Budidaya Ikan Air Payau
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Penangkapan Ikan di Laut
+Jasa Sarana Produksi Penangkapan Ikan di Perairan Darat
+Kedai Makanan
+Kedai Minuman
+Kegiatan Jasa Penunjang Pencetakkan
+Kepolisian
+Konstruksi Gedung Industri
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Lembaga Peradilan
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembesaran Crustacea Air Payau
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Tumbuhan Air Payau
+Pembibitan Ayam Lokal dan Persilangannya
+Pembibitan Ayam Ras
+Pembibitan Dan Budidaya Sapi Potong
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Merpati
+Pembibitan dan Budidaya Burung Puyuh
+Pembibitan dan Budidaya Burung Unta
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Cacing
+Pembibitan dan Budidaya Domba Perah
+Pembibitan dan Budidaya Domba Potong
+Pembibitan dan Budidaya Itik dan/atau Bebek
+Pembibitan dan Budidaya Kambing Perah
+Pembibitan dan Budidaya Kambing Potong
+Pembibitan dan Budidaya Kelinci
+Pembibitan dan Budidaya Kerbau Perah
+Pembibitan dan Budidaya Kerbau Potong
+Pembibitan dan Budidaya Lebah
+Pembibitan dan Budidaya Rusa
+Pembibitan dan Budidaya Sapi Perah
+Pembibitan dan Budidaya Ternak Unggas Lainnya
+Penangkaran Ikan dan Coral/Karang
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak
+Penerbitan Surat Kabar, Jurnal dan Buletin atau Majalah
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Penginapan Remaja
+Pengusahaaan Tenaga Panas Bumi
+Pengusahaan Kokon/Kepompong Ulat Sutra
+Pengusahaan Perbenihan Tanaman Kehutanan
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perdagangan Besar Bahan Bakar Padat, Cair dan Gas dan Produk YBDI
+Perdagangan Besar Bahan Baku Obat Tradisional Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Farmasi Untuk Manusia dan Hewan
+Perdagangan Besar Barang Bekas dan Sisa-sisa Tak Terpakai
+Perdagangan Besar Barang Logam Untuk Bahan Konstruksi
+Perdagangan Besar Binatang Hidup
+Perdagangan Besar Buah Yang Mengandung Minyak
+Perdagangan Besar Cat
+Perdagangan Besar Daging Ayam dan Daging Ayam Olahan
+Perdagangan Besar Daging Sapi dan Daging Sapi Olahan
+Perdagangan Besar Daging dan Daging Olahan Lainnya
+Perdagangan Besar Hasil Perikanan
+Perdagangan Besar Hasil Pertanian dan Hewan Hidup Lainnya
+Perdagangan Besar Kopi, Tea dan Kakao
+Perdagangan Besar Kosmetik untuk Hewan
+Perdagangan Besar Kosmetik untuk Manusia
+Perdagangan Besar Kulit dan Kulit Jangat
+Perdagangan Besar Logam dan Bijih Logam
+Perdagangan Besar Mineral Bukan Logam
+Perdagangan Besar Minuman Beralkohol
+Perdagangan Besar Minuman Non Alkohol  Bukan Susu
+Perdagangan Besar Minyak dan Lemak Hewani
+Perdagangan Besar Minyak dan Lemak Nabati
+Perdagangan Besar Obat Farmasi Untuk Hewan
+Perdagangan Besar Obat Farmasi Untuk Manusia
+Perdagangan Besar Obat Tradisional Untuk Hewan
+Perdagangan Besar Obat Tradisional Untuk Manusia
+Perdagangan Besar Rokok dan Tembakau
+Perdagangan Besar Tembakau Rajangan
+Periklanan
+Pertahanan Sipil
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Peternakan Babi
+Peternakan Kuda dan Sejenisnya
+Peternakan Unta dan Sejenisnya
+Pondok Wisata
+Produksi Bulu Domba Mentah/Raw Wool
+Produksi Es
+Real Estat Atas Dasar Balas Jasa (Fee) atau Kontrak
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Produk Logam Pabrikasi Lainnya
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Restoran
+Rumah Minum/Kafe
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Taman Rekreasi
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Usaha Kehutanan Lainnya
+Villa
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB25" t="str">
         <v/>
@@ -9992,8 +12255,441 @@
       <c r="Z26" t="str">
         <v/>
       </c>
-      <c r="AA26" t="str">
-        <v/>
+      <c r="AA26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Keamanan Swasta
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Penerbitan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perancangan Khusus
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Sewa
+Apartemen Hotel
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Budidaya Ayam Lokal dan Persilangannya
+Budidaya Ayam Ras Pedaging
+Budidaya Ayam Ras Petelur
+Budidaya Biota Air Payau Lainnya
+Budidaya Ikan Air Tawar Di Media Lainnya
+Budidaya Ikan Hias Air Tawar
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Hotel Bintang
+Hotel Melati
+Iindustri Kain Tenun Ikat
+Industri Air Kemasan
+Industri Air Minum Isi Ulang
+Industri Alas Kaki Lainnya
+Industri Alas Kaki Untuk Keperluan Sehari-hari
+Industri Alat Dapur dari Kayu, Rotan dan Bambu
+Industri Alat Musik Bukan Tradisional
+Industri Alat Musik Tradisional
+Industri Alat Olahraga
+Industri Alat Permainan
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kertas dan Papan Kertas Lainnya YTDL
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Tali
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang Tahan Api dari Tanah Liat/Keramik Lainnya
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batik
+Industri Batu Bata dari Tanah Liat/Keramik
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Bubur Kertas
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Bumbu Rokok Serta Kelengkapan Rokok Lainnya
+Industri Dodol
+Industri Furnitur dari Kayu
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Genteng Dari Tanah Liat/Keramik
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Kain Ban
+Industri Kain Pita
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kapuk
+Industri Karpet dan Permadani
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kemasan dan Kotak dari Kertas dan Karton
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kertas Berharga
+Industri Kertas Budaya
+Industri Kertas Khusus
+Industri Kertas Lainnya
+Industri Kertas Tissue
+Industri Kertas dan Papan Kerta Bergelombang
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Konsentrat Makanan Hewan
+Industri Kopra
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Malt
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Margarine
+Industri Minuman Beralkohol Hasil Destilasi
+Industri Minuman Beralkohol Hasil Fermentasi Anggur dan Hasil Pertanian Lainnya
+Industri Minuman Beralkohol Hasil Fermentasi Malt
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Minyak Goreng Bukan Minyak Kelapa dan Minyak Kelapa Sawit
+Industri Minyak Goreng Kelapa
+Industri Minyak Goreng Kelapa Sawit
+Industri Minyak Ikan
+Industri Minyak Mentah Inti Kelapa Sawit
+Industri Minyak Mentah Kelapa
+Industri Minyak Mentah Kelapa Sawit
+Industri Minyak Mentah dan Lemak Hewani Selain Ikan
+Industri Minyak Mentah dan Lemak Nabati
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Mortar atau Beton Siap Pakai
+Industri Non Woven
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelet Kelapa
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pemisahan/Fraksinasi Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Kelapa Sawit
+Industri Pemurnian Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Pengeringan dan Pengolahan Tembakau
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Percetakan Kain
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Persiapan Serat Tekstil
+Industri Pertenunan
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Ransum Makanan Hewan
+Industri Rokok Lainnya
+Industri Rokok Putih
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sigaret Kretek Mesin
+Industri Sigaret Kretek Tangan
+Industri Sirop
+Industri Tahu Kedelai
+Industri Tali
+Industri Tekstil Lainnya YTDL
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Jaminan Sosial Wajib
+Jasa Pasca Panen
+Jasa Pasca Panen Budidaya Ikan Air Payau
+Jasa Pasca Panen Budidaya Ikan Air Tawar
+Jasa Pasca Panen Budidaya Ikan Laut
+Jasa Pasca Panen Penangkapan Ikan Di Perairan Darat
+Jasa Pasca Panen Penangkapan Ikan di Laut
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengetasan Telur
+Jasa Penggunaan Kawasan Hutan Di Luar Sektor Kehutanan
+Jasa Pengolahan Lahan
+Jasa Penunjang Pertanian Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perkawinan Ternak
+Jasa Produksi Budidaya Ikan Air Payau
+Jasa Produksi Budidaya Ikan Air Tawar
+Jasa Produksi Budidaya Ikan Laut
+Jasa Produksi Penangkapan Ikan Di Laut
+Jasa Produksi Penangkapan Ikan Di Perairan Darat
+Jasa Sarana Produksi Budidaya Ikan Air Payau
+Jasa Sarana Produksi Budidaya Ikan Air Tawar
+Jasa Sarana Produksi Budidaya Ikan Laut
+Jasa Sarana Produksi Penangkapan Ikan di Laut
+Jasa Sarana Produksi Penangkapan Ikan di Perairan Darat
+Kedai Makanan
+Kedai Minuman
+Kegiatan Jasa Penunjang Pencetakkan
+Kepolisian
+Konstruksi Gedung Industri
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Lembaga Peradilan
+Pembenihan Ikan Air Payau
+Pembenihan Ikan Air Tawar
+Pembesaran Crustacea Air Payau
+Pembesaran Ikan Air Tawar Di Karamba Jaring Apung
+Pembesaran Ikan Air Tawar Di Karamba Jaring Tancap
+Pembesaran Ikan Air Tawar Di Kolam
+Pembesaran Ikan Air Tawar Di Sawah
+Pembesaran Ikan Air Tawar di Karamba
+Pembesaran Mollusca Air Payau
+Pembesaran Pisces/Ikan Bersirip Air Payau
+Pembesaran Tumbuhan Air Payau
+Pembibitan Ayam Lokal dan Persilangannya
+Pembibitan Ayam Ras
+Pembibitan Dan Budidaya Sapi Potong
+Pembibitan dan Budidaya Aneka Ternak Lainnya
+Pembibitan dan Budidaya Burung Merpati
+Pembibitan dan Budidaya Burung Puyuh
+Pembibitan dan Budidaya Burung Unta
+Pembibitan dan Budidaya Burung Walet
+Pembibitan dan Budidaya Cacing
+Pembibitan dan Budidaya Domba Perah
+Pembibitan dan Budidaya Domba Potong
+Pembibitan dan Budidaya Itik dan/atau Bebek
+Pembibitan dan Budidaya Kambing Perah
+Pembibitan dan Budidaya Kambing Potong
+Pembibitan dan Budidaya Kelinci
+Pembibitan dan Budidaya Kerbau Perah
+Pembibitan dan Budidaya Kerbau Potong
+Pembibitan dan Budidaya Lebah
+Pembibitan dan Budidaya Rusa
+Pembibitan dan Budidaya Sapi Perah
+Pembibitan dan Budidaya Ternak Unggas Lainnya
+Penangkaran Ikan dan Coral/Karang
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Penginapan Remaja
+Pengusahaaan Tenaga Panas Bumi
+Pengusahaan Kokon/Kepompong Ulat Sutra
+Pengusahaan Perbenihan Tanaman Kehutanan
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perdagangan Besar Bahan Bakar Padat, Cair dan Gas dan Produk YBDI
+Perdagangan Besar Bahan Baku Obat Tradisional Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Farmasi Untuk Manusia dan Hewan
+Perdagangan Besar Barang Bekas dan Sisa-sisa Tak Terpakai
+Perdagangan Besar Barang Logam Untuk Bahan Konstruksi
+Perdagangan Besar Binatang Hidup
+Perdagangan Besar Buah Yang Mengandung Minyak
+Perdagangan Besar Cat
+Perdagangan Besar Daging Ayam dan Daging Ayam Olahan
+Perdagangan Besar Daging Sapi dan Daging Sapi Olahan
+Perdagangan Besar Daging dan Daging Olahan Lainnya
+Perdagangan Besar Hasil Perikanan
+Perdagangan Besar Hasil Pertanian dan Hewan Hidup Lainnya
+Perdagangan Besar Kopi, Tea dan Kakao
+Perdagangan Besar Kosmetik untuk Hewan
+Perdagangan Besar Kosmetik untuk Manusia
+Perdagangan Besar Kulit dan Kulit Jangat
+Perdagangan Besar Logam dan Bijih Logam
+Perdagangan Besar Mineral Bukan Logam
+Perdagangan Besar Minuman Beralkohol
+Perdagangan Besar Minuman Non Alkohol  Bukan Susu
+Perdagangan Besar Minyak dan Lemak Hewani
+Perdagangan Besar Minyak dan Lemak Nabati
+Perdagangan Besar Obat Farmasi Untuk Hewan
+Perdagangan Besar Obat Farmasi Untuk Manusia
+Perdagangan Besar Obat Tradisional Untuk Hewan
+Perdagangan Besar Obat Tradisional Untuk Manusia
+Perdagangan Besar Rokok dan Tembakau
+Perdagangan Besar Tembakau Rajangan
+Periklanan
+Pertahanan Sipil
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Peternakan Babi
+Peternakan Kuda dan Sejenisnya
+Peternakan Unta dan Sejenisnya
+Pondok Wisata
+Produksi Bulu Domba Mentah/Raw Wool
+Produksi Es
+Real Estat Atas Dasar Balas Jasa (Fee) atau Kontrak
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Listrik Lainnya
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Restoran
+Rumah Minum/Kafe
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Taman Rekreasi
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Usaha Kehutanan Lainnya
+Villa
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB26" t="str">
         <v/>
@@ -10923,8 +13619,363 @@
       <c r="Z27" t="str">
         <v/>
       </c>
-      <c r="AA27" t="str">
-        <v/>
+      <c r="AA27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Keamanan Swasta
+Aktivitas Panti Asuhan Pemerintah
+Aktivitas Panti Asuhan Swasta
+Aktivitas Penerbitan Lainnya
+Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Pemerintah
+Aktivitas Penyiaran dan Pemrograman Televisi Oleh Swasta
+Aktivitas Perancangan Khusus
+Aktivitas Sosial Di Dalam Panti Gelandangan Dan Pengemis
+Aktivitas Sosial Di Dalam Panti Lainnya YTDL
+Aktivitas Sosial Di Dalam Panti Sosial Karya Wanita
+Aktivitas Sosial Di Dalam Panti Untuk Anak Yang Berhadapan Dengan Hukum
+Aktivitas Sosial Di Dalam Panti Untuk Bina Remaja
+Aktivitas Sosial Di Dalam Panti Untuk Korban Penyalahgunaan Narkotika, Alkohol , Psikotropika Dan Zat Adiktif
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Daksa
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Grahita
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Laras
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Netra
+Aktivitas Sosial Di Dalam Panti Untuk Penyandang Disabilitas Rungu Wicara
+Aktivitas Sosial Di Dalam Panti Untuk Petirahan Anak
+Aktivitas Sosial Pemerintah Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Pemerintah Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial Swasta Di Dalam Panti Untuk Lanjut Usia
+Aktivitas Sosial Swasta Tanpa Akomodasi Untuk Lanjut Usia Dan Penyandang Disabilitas
+Aktivitas Sosial di Dalam Panti untuk Perawatan dan Pemulihan Kesehatan
+Angkatan Darat
+Angkatan Laut
+Angkatan Udara
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Sewa
+Apartemen Hotel
+Badan Nasional Penanggulangan Bencana Dan Pemadam Kebakaran
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Hotel Bintang
+Hotel Melati
+Iindustri Kain Tenun Ikat
+Industri Air Kemasan
+Industri Air Minum Isi Ulang
+Industri Alas Kaki Lainnya
+Industri Alas Kaki Untuk Keperluan Sehari-hari
+Industri Alat Dapur dari Kayu, Rotan dan Bambu
+Industri Alat Musik Bukan Tradisional
+Industri Alat Musik Tradisional
+Industri Alat Olahraga
+Industri Alat Permainan
+Industri Bangunan Prafabrikasi dari Kayu
+Industri Bantal Dan Sejenisnya
+Industri Barang Anyaman dari Rotan dan Bambu
+Industri Barang Anyaman dari Tanaman Bukan Rotan dan Bambu
+Industri Barang Bangunan dari Kayu
+Industri Barang Dari Kertas dan Papan Kertas Lainnya YTDL
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Hewan
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Lainnya
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Pribadi
+Industri Barang Dari Kulit dan Kulit Komposisi Untuk Keperluan Teknik Industri
+Industri Barang Dari Tali
+Industri Barang Jadi Rajutan dan Sulaman
+Industri Barang Jadi Tekstil Lainnya
+Industri Barang Jadi Tekstil Sulaman
+Industri Barang Jadi Tekstil Untuk Keperluan Rumah Tangga
+Industri Barang dari Kayu, Rotan, Gabus Lainnya YTDL
+Industri Bata, Mortar, Semen, Dan Sejenisnya Yang Tahan Api
+Industri Batik
+Industri Berbagai Macam Pati Palma
+Industri Berbasis Daging Lumatan Surimi
+Industri Berbasis Lumatan Biota Air Lainnya
+Industri Bubur Kertas
+Industri Bulu Tiruan Rajutan
+Industri Bulu Tiruan Tenunan
+Industri Bumbu Masak dan Penyedap Masakan
+Industri Bumbu Rokok Serta Kelengkapan Rokok Lainnya
+Industri Dodol
+Industri Furnitur dari Kayu
+Industri Furnitur dari Plastik
+Industri Furnitur dari Rotan dan atau Bambu
+Industri Glukosa dan Sejenisnya
+Industri Gula Merah
+Industri Gula Pasir
+Industri Kain Ban
+Industri Kain Pita
+Industri Kain Rajutan
+Industri Kain Sulaman
+Industri Kain Tulle Dan Kain Jaring
+Industri Kakao
+Industri Kapuk
+Industri Karpet dan Permadani
+Industri Karung Bukan Goni
+Industri Karung Goni
+Industri Kayu Bakar dan Pelet Kayu
+Industri Kayu Laminasi
+Industri Kayu Lapis
+Industri Kayu Lapis Laminasi, Termasuk Decorative Plywood
+Industri Kecap
+Industri Kemasan dan Kotak dari Kertas dan Karton
+Industri Kembang Gula
+Industri Kembang Gula Lainnya
+Industri Kerajinan Ukiran dari Kayu Bukan Mebeller
+Industri Kerajinan YTDL
+Industri Kertas Berharga
+Industri Kertas Budaya
+Industri Kertas Khusus
+Industri Kertas Lainnya
+Industri Kertas Tissue
+Industri Kertas dan Papan Kerta Bergelombang
+Industri Kerupuk, Keripik, Peyek dan Sejenisnya
+Industri Konsentrat Makanan Hewan
+Industri Kopra
+Industri Krimer Nabati
+Industri Kue Basah
+Industri Kulit Komposisi
+Industri Mainan Anak-anak
+Industri Makanan Bayi
+Industri Makanan Dari Cokelat dan Kembang Gula dari Coklat
+Industri Makanan Dari Kedelai dan Kacang-Kacangan Lainnya Bukan Kecap, Tempe dan Tahu
+Industri Makanan Sereal
+Industri Makanan dan Masakan Olahan
+Industri Makaroni, Mie dan Produk Sejenisnya
+Industri Malt
+Industri Manisan Buah-Buahan dan Sayuran Kering
+Industri Margarine
+Industri Minuman Beralkohol Hasil Destilasi
+Industri Minuman Beralkohol Hasil Fermentasi Anggur dan Hasil Pertanian Lainnya
+Industri Minuman Beralkohol Hasil Fermentasi Malt
+Industri Minuman Lainnya
+Industri Minuman Ringan
+Industri Minyak Dari Jagung dan Beras
+Industri Minyak Goreng Bukan Minyak Kelapa dan Minyak Kelapa Sawit
+Industri Minyak Goreng Kelapa
+Industri Minyak Goreng Kelapa Sawit
+Industri Minyak Ikan
+Industri Minyak Mentah Inti Kelapa Sawit
+Industri Minyak Mentah Kelapa
+Industri Minyak Mentah Kelapa Sawit
+Industri Minyak Mentah dan Lemak Hewani Selain Ikan
+Industri Minyak Mentah dan Lemak Nabati
+Industri Minyak Mentah dan Lemak Nabati dan Hewani Lainnya
+Industri Mortar atau Beton Siap Pakai
+Industri Non Woven
+Industri Pakaian Jadi (Konveksi) Dari Kulit
+Industri Pakaian Jadi (Konveksi) Dari Tekstil
+Industri Pakaian Jadi Sulaman/Bordir
+Industri Pakaian Jadi dan Barang Dari Kulit Berbulu
+Industri Pakaian Rajutan
+Industri Panel Kayu Lainnya
+Industri Partikel Kayu dan Sejenisnya
+Industri Pati Beras dan Jagung
+Industri Pati Ubi Kayu
+Industri Pati dan Produk Pati Lainnya
+Industri Pelet Kelapa
+Industri Pelumatan Buah-buahan dan Sayuran
+Industri Pemanis Dari Beras dan Jagung
+Industri Pembekuan Biota Air Lainnya
+Industri Pembekuan Buah-Buahan dan Sayuran
+Industri Pembekuan Ikan
+Industri Pemindangan Biota Air Lainnya
+Industri Pemindangan Ikan
+Industri Pemintalan Benang
+Industri Pemintalan Benang Jahit
+Industri Pemisahan/Fraksinasi Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Inti Kelapa Sawit
+Industri Pemisahan/Fraksinasi Minyak Murni Kelapa Sawit
+Industri Pemurnian Minyak Mentah Kelapa Sawit dan Minyak Mentah Inti Kelapa Sawit
+Industri Pencelupan Kulit Bulu
+Industri Pencetakan 3D Printing
+Industri Pencetakan Khusus
+Industri Pencetakan Umum
+Industri Pendinginan/Pengesan Biota Air Lainnya
+Industri Pendinginan/Pengesan Ikan
+Industri Pengasapan/Pemanggangan Biota Air Lainnya
+Industri Pengasapan/Pemanggangan Ikan
+Industri Pengasinan Buah-Buahan dan Sayuran
+Industri Pengawetan Kayu
+Industri Pengawetan Kotak, Bambu dan Sejenisnya
+Industri Pengawetan Kulit
+Industri Pengeringan Buah-Buahan dan Sayuran
+Industri Pengeringan dan Pengolahan Tembakau
+Industri Penggaraman/Pengeringan Biota Air Lainnya
+Industri Penggaraman/Pengeringan Ikan
+Industri Penggergajian Kayu
+Industri Penggilingan Aneka Kacang
+Industri Penggilingan Aneka Umbi dan Sayuran
+Industri Penggilingan Gandum dan Serelia Lainnya
+Industri Penggilingan Padi dan Penyosohan Beras
+Industri Penggilingan dan Pembersihan Jagung
+Industri Pengolahan Es Krim
+Industri Pengolahan Es Sejenisnya Yang Dapat Dimakan
+Industri Pengolahan Garam
+Industri Pengolahan Gula Lainnya Bukan Sirop
+Industri Pengolahan Herbal
+Industri Pengolahan Kopi
+Industri Pengolahan Produk Dari Susu Lainnya
+Industri Pengolahan Rotan
+Industri Pengolahan Rumput Laut
+Industri Pengolahan Sari Buah dan Sayuran
+Industri Pengolahan Susu Bubuk dan Susu Kental
+Industri Pengolahan Susu Segar dan Krim
+Industri Pengolahan Tea
+Industri Pengolahan dan Pengawetan Buah-Buahan dan Sayuran Dalam Kaleng
+Industri Pengolahan dan Pengawetan Ikan dan Biota Air (Bukan Udang) Dalam Kaleng
+Industri Pengolahan dan Pengawetan Kedelai dan Kacang-Kacangan Lainnya Selain Tahu dan Tempe
+Industri Pengolahan dan Pengawetan Lainnya Buah-Buahan dan Sayuran Bukan Kacang-Kacangan
+Industri Pengolahan dan Pengawetan Lainnya Untuk Biota Air Lainnya
+Industri Pengolahan dan Pengawetan Lainnya Untuk Ikan
+Industri Pengolahan dan Pengawetan Produk Daging dan Daging Unggas
+Industri Pengolahan dan Pengawetan Udang Dalam Kaleng
+Industri Penyamakan Kulit
+Industri Penyempurnaan Benang
+Industri Penyempurnaan Kain
+Industri Peragian/Fermentasi Biota Air Lainnya
+Industri Peragian/Fermentasi Ikan
+Industri Percetakan Kain
+Industri Perlengkapan Pakaian Dari Kulit
+Industri Perlengkapan Pakaian Dari Tekstil
+Industri Persiapan Serat Tekstil
+Industri Pertenunan
+Industri Produk Makanan Lainnya
+Industri Produk Masak Lainnya
+Industri Produk Masak dari Kelapa
+Industri Produk Roti dan Kue
+Industri Rajutan Kaos Kaki dan Sejenisnya
+Industri Ransum Makanan Hewan
+Industri Rokok Lainnya
+Industri Rokok Putih
+Industri Sepatu Olahraga
+Industri Sepatu Teknik Lapangan/Keperluan Industri
+Industri Sigaret Kretek Mesin
+Industri Sigaret Kretek Tangan
+Industri Sirop
+Industri Tahu Kedelai
+Industri Tali
+Industri Tekstil Lainnya YTDL
+Industri Tempe Kedelai
+Industri Tepung Beras dan Tepung Jagung
+Industri Tepung Campuran dan Adonan Tepung
+Industri Tepung Terigu
+Industri Veneer
+Industri Wadah dari Kayu
+Industri Yang Menghasilkan Kain Keperluan Industri
+Jaminan Sosial Wajib
+Kedai Makanan
+Kedai Minuman
+Kegiatan Jasa Penunjang Pencetakkan
+Kepolisian
+Konstruksi Gedung Industri
+Konstruksi Gedung Kesehatan
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Lembaga Peradilan
+Penerbitan Buku
+Penerbitan Direktori dan Mailing List
+Penerbitan Piranti Lunak
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Penginapan Remaja
+Pengusahaaan Tenaga Panas Bumi
+Penjahitan dan Pembuatan Pakaian Sesuai Pesanan
+Penyediaan Akomodasi Jangka Pendek Lainnya
+Penyediaan Akomodasi Lainnya
+Penyiaran Radio Oleh Pemerintah
+Penyiaran Radio Oleh Swasta
+Perdagangan Besar Bahan Bakar Padat, Cair dan Gas dan Produk YBDI
+Perdagangan Besar Bahan Baku Obat Tradisional Untuk Manusia dan Hewan
+Perdagangan Besar Bahan Farmasi Untuk Manusia dan Hewan
+Perdagangan Besar Barang Bekas dan Sisa-sisa Tak Terpakai
+Perdagangan Besar Barang Logam Untuk Bahan Konstruksi
+Perdagangan Besar Binatang Hidup
+Perdagangan Besar Buah Yang Mengandung Minyak
+Perdagangan Besar Cat
+Perdagangan Besar Daging Ayam dan Daging Ayam Olahan
+Perdagangan Besar Daging Sapi dan Daging Sapi Olahan
+Perdagangan Besar Daging dan Daging Olahan Lainnya
+Perdagangan Besar Hasil Perikanan
+Perdagangan Besar Hasil Pertanian dan Hewan Hidup Lainnya
+Perdagangan Besar Kopi, Tea dan Kakao
+Perdagangan Besar Kosmetik untuk Hewan
+Perdagangan Besar Kosmetik untuk Manusia
+Perdagangan Besar Kulit dan Kulit Jangat
+Perdagangan Besar Logam dan Bijih Logam
+Perdagangan Besar Mineral Bukan Logam
+Perdagangan Besar Minuman Beralkohol
+Perdagangan Besar Minuman Non Alkohol  Bukan Susu
+Perdagangan Besar Minyak dan Lemak Hewani
+Perdagangan Besar Minyak dan Lemak Nabati
+Perdagangan Besar Obat Farmasi Untuk Hewan
+Perdagangan Besar Obat Farmasi Untuk Manusia
+Perdagangan Besar Obat Tradisional Untuk Hewan
+Perdagangan Besar Obat Tradisional Untuk Manusia
+Perdagangan Besar Rokok dan Tembakau
+Perdagangan Besar Tembakau Rajangan
+Periklanan
+Pertahanan Sipil
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Pondok Wisata
+Produksi Es
+Real Estat Atas Dasar Balas Jasa (Fee) atau Kontrak
+Real Estat Yang Dimiliki Sendiri Atau Disewa
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reproduksi Media Rekaman Film dan Video
+Reproduksi Media Rekaman Suara dan Piranti Lunak
+Restoran
+Rumah Minum/Kafe
+Rumah/Kedai Obat Tradisional
+Rumah/Warung Makan
+Taman Rekreasi
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Villa
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Pendidikan
+Yayasan Sosial</v>
       </c>
       <c r="AB27" t="str">
         <v/>
@@ -11103,8 +14154,50 @@
       <c r="Z28" t="str">
         <v/>
       </c>
-      <c r="AA28" t="str">
-        <v/>
+      <c r="AA28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium</v>
       </c>
       <c r="AB28" t="str">
         <v/>
@@ -11643,8 +14736,123 @@
       <c r="Z29" t="str">
         <v/>
       </c>
-      <c r="AA29" t="str">
-        <v/>
+      <c r="AA29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Laut Dalam Negeri Liner dan Tramper untuk Penumpang
+Angkutan Laut Dalam Negeri Perintis Untuk Penumpang
+Angkutan Laut Dalam Negeri Untuk Wisata
+Angkutan Laut Luar Negeri Liner dan Tramper Untuk Penumpang
+Angkutan Laut Luar Negeri Untuk Wisata
+Angkutan Laut Perairan Pelabuhan Dalam Negeri Untuk Penumpang
+Angkutan Sewa
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Kontruksi Gedung Penginapan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Lokomotif dan Gerbong Kereta
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Pesawat Terbang
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Sosial</v>
       </c>
       <c r="AB29" t="str">
         <v/>
@@ -12183,8 +15391,117 @@
       <c r="Z30" t="str">
         <v/>
       </c>
-      <c r="AA30" t="str">
-        <v/>
+      <c r="AA30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Sewa
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Kontruksi Gedung Penginapan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Lokomotif dan Gerbong Kereta
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Pesawat Terbang
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Sosial</v>
       </c>
       <c r="AB30" t="str">
         <v/>
@@ -12724,8 +16041,117 @@
       <c r="Z31" t="str">
         <v/>
       </c>
-      <c r="AA31" t="str">
-        <v/>
+      <c r="AA31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Sewa
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Kontruksi Gedung Penginapan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Lokomotif dan Gerbong Kereta
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Pesawat Terbang
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Sosial</v>
       </c>
       <c r="AB31" t="str">
         <v/>
@@ -13259,8 +16685,117 @@
       <c r="Z32" t="str">
         <v/>
       </c>
-      <c r="AA32" t="str">
-        <v/>
+      <c r="AA32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Aktivitas Perancangan Khusus
+Angkutan Bermotor Untuk Barang Khusus
+Angkutan Bermotor Untuk Barang Umum
+Angkutan Sewa
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Industri Air Minum dan Air Mineral
+Instalasi/Pemasangan Mesin dan Peralatan Industri
+Kontruksi Gedung Penginapan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) Selain di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Bahan Bakar Minyak, Bahan Bakar Gas (BBG), dan Liquified Petroleum Gas (LPG) di Sarana Pengisian Bahan Bakar Transportasi Darat, Laut dan Udara
+Perdagangan Eceran Beras
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau (Barang-barang Kelontong) Bukan Di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Bukan Makanan, Minuman atau Tembakau di Toserba
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Berbagai Macam Barang Yang Utamanya Makanan, Minuman Atau Tembakau Di Minimarket/Supermarket/Hypermarket
+Perdagangan Eceran Buah-buahan
+Perdagangan Eceran Daging dan Ikan Olahan
+Perdagangan Eceran Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Hasil Perikanan
+Perdagangan Eceran Hasil Pertanian Lainnya
+Perdagangan Eceran Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Beras
+Perdagangan Eceran Kaki Lima dan Los Pasar Daging Olahan dan Ikan Olahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Buah-buahan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Kehutanan dan Perburuan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Perikanan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Hasil Peternakan
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Makanan dan Minuman YTDL
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Padi dan Palawija
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Sayur-sayuran
+Perdagangan Eceran Kaki Lima dan Los Pasar Komoditi Tanaman Hias dan Hasil Pertanian Lainnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Kopi, Gula Pasir, Gula Merah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Minuman
+Perdagangan Eceran Kaki Lima dan Los Pasar Pakan Ternak, Pakan Unggas dan Pakan Ikan
+Perdagangan Eceran Kaki Lima dan Los Pasar Rokok dan Tembakau
+Perdagangan Eceran Kaki Lima dan Los Pasar Roti, Kue Kering, Kue Basah dan Sejenisnya
+Perdagangan Eceran Kaki Lima dan Los Pasar Tahu, Tempe, Tauco dan Oncom
+Perdagangan Eceran Kaki Lima dan Los Pasar Tekstil
+Perdagangan Eceran Keliling Komoditi Makanan, Minuman atau Tembakau Hasil Industri Pengolahan
+Perdagangan Eceran Keliling Perlengkapan Rumah Tangga dan Perlengkapan Dapur
+Perdagangan Eceran Khusus Rokok dan Tembakau di Toko
+Perdagangan Eceran Kopi, Gula Pasir dan Gula Merah
+Perdagangan Eceran Makanan Lainnya
+Perdagangan Eceran Minuman Beralkohol
+Perdagangan Eceran Minuman Tidak Beralkohol
+Perdagangan Eceran Minyak Pelumas di Toko
+Perdagangan Eceran Padi dan Palawija
+Perdagangan Eceran Roti, Kue Kering, serta Kue Basah dan Sejenisnya
+Perdagangan Eceran Sayuran
+Perdagangan Eceran Tahu, Tempe, Tauco dan Oncom
+Periklanan
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium
+Produksi Es
+Reparasi Alat Angkutan Lainnya, Bukan Kendaraan Bermotor
+Reparasi Alat Ukur, Alat Uji dan Peralatan Navigasi dan Pengontrol
+Reparasi Baterai dan Akumulator Listrik
+Reparasi Kapal, Perahu dan Bangunan Terapung
+Reparasi Lokomotif dan Gerbong Kereta
+Reparasi Mesin Untuk Keperluan Khusus
+Reparasi Mesin Untuk Keperluan Umum
+Reparasi Motor Listrik, Generator dan Transformation
+Reparasi Peralatan Fotografi dan Optik
+Reparasi Peralatan Iradiasi, Elektromedis dan Elektroterapi
+Reparasi Peralatan Lainnya
+Reparasi Peralatan Listrik Lainnya
+Reparasi Pesawat Terbang
+Treatment dan Pembuangan Limbah dan Sampah Tidak Berbahaya
+Yayasan Keagamaan
+Yayasan Kemanusiaan
+Yayasan Sosial</v>
       </c>
       <c r="AB32" t="str">
         <v/>
@@ -13466,8 +17001,12 @@
       <c r="Z33" t="str">
         <v/>
       </c>
-      <c r="AA33" t="str">
-        <v/>
+      <c r="AA33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Periklanan
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias</v>
       </c>
       <c r="AB33" t="str">
         <v/>
@@ -13672,8 +17211,12 @@
       <c r="Z34" t="str">
         <v/>
       </c>
-      <c r="AA34" t="str">
-        <v/>
+      <c r="AA34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Periklanan
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias</v>
       </c>
       <c r="AB34" t="str">
         <v/>
@@ -13879,8 +17422,12 @@
       <c r="Z35" t="str">
         <v/>
       </c>
-      <c r="AA35" t="str">
-        <v/>
+      <c r="AA35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Periklanan
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias</v>
       </c>
       <c r="AB35" t="str">
         <v/>
@@ -14047,8 +17594,10 @@
       <c r="Z36" t="str">
         <v/>
       </c>
-      <c r="AA36" t="str">
-        <v/>
+      <c r="AA36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Periklanan
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias</v>
       </c>
       <c r="AB36" t="str">
         <v/>
@@ -14242,8 +17791,12 @@
       <c r="Z37" t="str">
         <v/>
       </c>
-      <c r="AA37" t="str">
-        <v/>
+      <c r="AA37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Konstruksi Gedung Lainnya
+Konstruksi Gedung Tempat Hiburan dan Olahraga
+Periklanan
+Pertanian Pengembangbiakan Tanaman
+Pertanian Tanaman Hias</v>
       </c>
       <c r="AB37" t="str">
         <v/>
@@ -14424,8 +17977,60 @@
       <c r="Z38" t="str">
         <v/>
       </c>
-      <c r="AA38" t="str">
-        <v/>
+      <c r="AA38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aktivitas Penunjang Pertambangan Dan Penggalian Lainnya
+Aktivitas Penunjang Pertambangan Minyak Bumi dan Gas Alam
+Ekstraksi Garam
+Ekstraksi Tanah Gemuk
+Jasa Pasca Panen
+Jasa Pelayanan Kesehatan Ternak
+Jasa Pemanenan
+Jasa Pemupukan, Penanaman Bibit/Benih dan Pengendalian Hama dan Gulma
+Jasa Pengetasan Telur
+Jasa Pengolahan Lahan
+Jasa Penunjang Pertanian Lainnya
+Jasa Penunjang Peternakan Lainnya
+Jasa Penyemprotan dan Penyerbukan Melalui Udara
+Jasa Perkawinan Ternak
+Pemilihan Benih Tanaman Untuk Pengembangbiakan
+Penggalian Asbes
+Penggalian Batu Apung
+Penggalian Batu Hias dan Batu Bangunan
+Penggalian Batu Kapur/Gamping
+Penggalian Batu, Pasir Dan Tanah Liat Lainnya
+Penggalian Feldspar dan Kalsit
+Penggalian Gips
+Penggalian Kerikil/Sirtu
+Penggalian Kuarsa/Pasir Kuarsa
+Penggalian Pasir
+Penggalian Tanah dan Tanah Liat
+Penggalian Tras
+Pengusahaaan Tenaga Panas Bumi
+Pertambangan Aspal Alam
+Pertambangan Bahan Galian Lainnya Yang Tidak Mengandung Bijih Besi
+Pertambangan Batu Bara
+Pertambangan Batu Mulia
+Pertambangan Belerang
+Pertambangan Bijih Bauksit
+Pertambangan Bijih Besi
+Pertambangan Bijih Logam Mulia Lainnya
+Pertambangan Bijih Mangan
+Pertambangan Bijih Nikel
+Pertambangan Bijih Tembaga
+Pertambangan Bijih Timah
+Pertambangan Bijih Timah Hitam
+Pertambangan Bijih Uranium Dan Torium
+Pertambangan Dan Penggalian Lainnya YTDL
+Pertambangan Emas dan Perak
+Pertambangan Fosfat
+Pertambangan Gas Alam
+Pertambangan Lignit
+Pertambangan Mineral, Bahan Kimia dan Bahan Pupuk Lainya
+Pertambangan Minyak Bumi
+Pertambangan Nitrat
+Pertambangan Pasir Besi
+Pertambangan Potash
+Pertambangan Yodium</v>
       </c>
       <c r="AB38" t="str">
         <v/>
